--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="129">
   <si>
     <t>Address</t>
   </si>
@@ -135,29 +133,61 @@
     <t>Обязательный</t>
   </si>
   <si>
+    <t>Подробнее о параметре</t>
+  </si>
+  <si>
     <t>Необязательный</t>
   </si>
   <si>
-    <t xml:space="preserve">Может быть обязательным_x005F_x000D_
-Подробнее</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подробнее о параметре</t>
-  </si>
-  <si>
     <t>Текст</t>
   </si>
   <si>
-    <t xml:space="preserve">Одно значение из выпадающего списка в ячейке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Одно или несколько значений из выпадающего списка в ячейке</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул офисный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул офисный для конференц зала
+    <t>Стул офисный</t>
+  </si>
+  <si>
+    <t>Стул кресло офисное</t>
+  </si>
+  <si>
+    <t>Стул для посетителей</t>
+  </si>
+  <si>
+    <t>Стул кресло для конференций</t>
+  </si>
+  <si>
+    <t>Офисный стул</t>
+  </si>
+  <si>
+    <t>Стуля офисные</t>
+  </si>
+  <si>
+    <t>Стул офисный для конференций</t>
+  </si>
+  <si>
+    <t>Офисные стулья</t>
+  </si>
+  <si>
+    <t>Офисные стулья Изо</t>
+  </si>
+  <si>
+    <t>Стул офисный Изо</t>
+  </si>
+  <si>
+    <t>Стул офисный для посетителей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло кожаное финской фирмы "pohjanmaan" </t>
+  </si>
+  <si>
+    <t>Офисное стул-кресло</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стулья банкетные </t>
+  </si>
+  <si>
+    <t>Стулья кухонные</t>
+  </si>
+  <si>
+    <t>Стул офисный для конференц зала
 Артикул (20462)
 Описание: Обновите свое офисное пространство с классическими стульями для конференций от известного австрийского производителя BENE. Изысканный дизайн, эргономичная форма и эффект качания делают эти стулья идеальным выбором для комфортных и продуктивных совещаний. Сочетание стильного оттенка бардо и высокого качества исполнения придадут вашему офису неповторимый шарм и элегантность.
 Цена: 5000 за 1 шт.
@@ -176,46 +206,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/SYn1o_GuQH4uJg | https://disk.yandex.ru/i/ZV2mLC996r4JAw | https://disk.yandex.ru/i/1YQ_dR2AivDsfQ | https://disk.yandex.ru/i/EVzfN0HeNHlXSA | https://disk.yandex.ru/i/PAS00s7vnPCnjQ | https://disk.yandex.ru/i/hKR7Y3J0ZfzK_w | https://disk.yandex.ru/i/Tf2mmK_LR7NzOA</t>
-  </si>
-  <si>
-    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мебель и интерьер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Столы и стулья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Товар приобретен на продажу</t>
-  </si>
-  <si>
-    <t>Б/у</t>
-  </si>
-  <si>
-    <t xml:space="preserve">В наличии</t>
-  </si>
-  <si>
-    <t>Бордовый</t>
-  </si>
-  <si>
-    <t>Стулья</t>
-  </si>
-  <si>
-    <t>Ткань</t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подлокотники | Мягкое сидение | Мягкая спинка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул кресло офисное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул-кресло для конференц зала
+    <t>Стул-кресло для конференц зала
 Артикул (20463)
 Описание Обогатите свое рабочее пространство с уникальными офисными стульями JoinMe от Dauphin, производителя мебели из Германии. Разработанные известным дизайнером Мартином Баллендатом, эти стулья сочетают в себе комфорт и практичность, идеально подходя для современных офисных пространств.
 Их компактный дизайн с складывающейся сидушкой и колесиками обеспечивает максимальную мобильность и экономию места. Они легко вставляются друг в друга, что особенно удобно в небольших офисах.
@@ -236,22 +227,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/fsqVdDo-x0xbqQ | https://disk.yandex.ru/i/l4VUzFj4ptIzbA | https://disk.yandex.ru/i/fNfaOnPS-2SqMQ | https://disk.yandex.ru/i/IJpFJVJ2JUsnwQ | https://disk.yandex.ru/i/uNKf2aunGKw0wg | https://disk.yandex.ru/i/NsYKi8YpUPY6Dg | https://disk.yandex.ru/i/ksc-z-bORyfjiQ | https://disk.yandex.ru/i/p-LK5M1xVYDxkQ | https://disk.yandex.ru/i/GF2g_DKFzZ9ldw</t>
-  </si>
-  <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Металл | Пластик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Подлокотники | Колёсики | Мягкое сидение | Мягкая спинка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул для посетителей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул офисный
+    <t>Стул офисный
 Артикул 20455
 Описание 💼 Наши недорогие офисные стулья для приемной предлагают оптимальное соотношение цены и качества. Пластиковые подлокотники обеспечивают удобную поддержку для ваших рук, а кожзаменительная обивка придает стулу изысканный вид без увеличения бюджета. Так как мы сами обшиваем кресла новым кожзамом они имеют идеальное состояние. 🏢 Эти стулья хорошо подходят для любой приемной благодаря своему стильному дизайну и ненавязчивой элегантности. Они легки в уходе и частично разбираются, что значительно повышает удобство и сохранность при перевозках и перемещении.
 Цвет чёрный
@@ -270,19 +246,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/ZTHyPWRR8U6O_Q | https://disk.yandex.ru/i/jclwedPVNGspAg | https://disk.yandex.ru/i/86K35Lc7zpR3sw | https://disk.yandex.ru/i/kskt503D7Cx8VA</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Замша</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул кресло для конференций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул кресло для конференц зала 
+    <t>Стул кресло для конференц зала 
 Артикул 20391
 Описание Стул кресло удобное и практичное конференц-кресло, которое отлично подойдет для оформления конференц-залов, офисных приемок.
 Обивка. В качестве обивки была выбрана искусственная кожа – наиболее популярный и бюджетный обивочный материал, прочный, эластичный, простой в уходе.
@@ -303,13 +267,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/1TdoUhVDEW_urw | https://disk.yandex.ru/i/WP6OFB8_g8Lm2g | https://disk.yandex.ru/i/-vBvSkGwZK_LRQ | https://disk.yandex.ru/i/YN6zmmHN15mOmQ | https://disk.yandex.ru/i/aISOlpG5Vw5ZhA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стул</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стул самба
+    <t>Офисный стул самба
 Артикул 20433
 Описание: Кресло для конференц зала от известного производителя Chairman. Кожаное кресло самба с деревянными подлокотниками стильное и прочное кресло зарекомендовало себя, как одно из лучших кресел для офиса.
 Цвет: чёрный, бежевый и белый 
@@ -329,16 +287,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/FmS1JoBXjc4FAA | https://disk.yandex.ru/i/4fHOp1u3uZQmWw | https://disk.yandex.ru/i/zq8TCxKOdBe5jA | https://disk.yandex.ru/i/bYcFAKIxE-l7fg | https://disk.yandex.ru/i/CWaG6C89S-oBCA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мягкое сидение | Мягкая спинка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стуля офисные</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул офисный
+    <t>Стул офисный
 Артикул 20455
 Описание: Стул для посетителей и гостей от компании Haworth. Офисные стулья выполнены и качественного материала с продвинутыми технологиями производства. Несмотря на их простоту они очень удобные, мягкий пластик и эргономика стула сделаны для поддержания вашего естественного положения. Так же на стульях есть пластиковая защита от царапин, что бы ножки не изнашивались когда стулья стоят друг на друге 
 Цена 4000
@@ -359,10 +308,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/OaeAzWDAmvo5HQ | https://disk.yandex.ru/i/-lvf7ogjfI4iQA | https://disk.yandex.ru/i/51-rW-3ilxJTVw | https://disk.yandex.ru/i/-td07XVsNrkoDQ | https://disk.yandex.ru/i/1MdvqkNIFLrycw | https://disk.yandex.ru/i/-pWAfmNH7iJP5g | https://disk.yandex.ru/i/cbzowl4N5cBeVQ | https://disk.yandex.ru/i/LJhP50v1sEzADQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисный стул для конференц зала
+    <t>Офисный стул для конференц зала
 Артикул 20457
 Описание: Офисные стулья для переговоров в отличном состоянии. Стулья на крепком металлическом каркасе и спинкой из мягкго пластика. Стул-кресло обладает хорошей эргономикой и создаёт полный комфорт во время сидения.
 Цвет: оранжевый
@@ -385,16 +331,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/p2NV328NZRV99A | https://disk.yandex.ru/i/eh70odbG8D1UmA | https://disk.yandex.ru/i/7tnVtvXkbfTsTw | https://disk.yandex.ru/i/jO2YMcrw14LrjQ | https://disk.yandex.ru/i/7NSkUeqYzcXU0g | https://disk.yandex.ru/i/HWLJd-aOSlhWDQ</t>
-  </si>
-  <si>
-    <t>Оранжевый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул офисный для конференций</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стулья офисные
+    <t>Стулья офисные
 Артикул 20446 
 Описание: стулья от компании Haworth отличается прочность и компактностью. 
 Цвет: черный
@@ -417,10 +354,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/IEV1K1R1GTj15w | https://disk.yandex.ru/i/MsXVUujJ7_OZSw | https://disk.yandex.ru/i/o3UUq--qSSUS2w | https://disk.yandex.ru/i/HA_chsQLjUQg7w | https://disk.yandex.ru/i/Mw9-ouUVfhJqwA | https://disk.yandex.ru/i/O6mgGQlShnMcEA | https://disk.yandex.ru/i/o7XOOjRhS1wV3Q | https://disk.yandex.ru/i/M8EXKMjxgpeLCg | https://disk.yandex.ru/i/5UD3IjBwj3niMA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул офисный
+    <t>Стул офисный
 Артикул 20446
 Описание стул кресло в отличном состоянии. Стулья Немецкой компании Haworth, высококачественные и удобные.
 Цена 5000
@@ -442,13 +376,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/P_p8J06Oomnk7A | https://disk.yandex.ru/i/5oITHfSBAjT20A | https://disk.yandex.ru/i/qBTL7XLtrg9Tfw | https://disk.yandex.ru/i/T-x8JOltu6b6kA | https://disk.yandex.ru/i/2sMoO6NIy-tRRw | https://disk.yandex.ru/i/veUIyKIfUEIRVA</t>
-  </si>
-  <si>
-    <t>Красный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Конференц кресло bene
+    <t>Конференц кресло bene
 Артикул 20387
 Описание современное кресло - стул на колёсиках отлично подойдёт для конференц зала и работы в офисе. Выполнено из качественного кожзама.
 Цена 3000
@@ -470,16 +398,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/yDACQ-_MxWT-iA | https://disk.yandex.ru/i/CWqCHMcdvjyOnA | https://disk.yandex.ru/i/dL1Syu7s2-UPuA | https://disk.yandex.ru/i/yUaLoCVM3lR_Tw | https://disk.yandex.ru/i/p1ehepcN3NiwVQ | https://disk.yandex.ru/i/ggfA5uiuM2iMRw | https://disk.yandex.ru/i/jwDKK1Dl5SLhwQ | https://disk.yandex.ru/i/EexZKqsoeFL1rw | https://disk.yandex.ru/i/kUu89nfreRXg_Q | https://disk.yandex.ru/i/DugAW5XO_9cZpQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Металл | ДСП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисные стулья</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло офисное с подлокотниками
+    <t>Кресло офисное с подлокотниками
 Артикул: 20391
 Описание: кресло с кожзам обивкой и металлическим армотизирующим каркасом 
 Цвет чёрный
@@ -502,13 +421,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/CtGr-ZPkjM5Q2A | https://disk.yandex.ru/i/Boh3O8L64NCGZA | https://disk.yandex.ru/i/sbQreYOfg1OoSQ | https://disk.yandex.ru/i/WsSNsIqMk0Bfhg | https://disk.yandex.ru/i/jpTfxqGzBhHZwA | https://disk.yandex.ru/i/ix11X_Vk2xSLiQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Офисные стулья Изо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стулья Изо от 2100 до 2800
+    <t>Стулья Изо от 2100 до 2800
 Арт: 20379
 Материал: кож зам
 Цена: хромированные ноги - 2499. Черные-2299
@@ -531,13 +444,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/7s_36goJbJeVQw | https://disk.yandex.ru/i/S-YgMAhhphso8g | https://disk.yandex.ru/i/ymIxpa36BHReCw | https://disk.yandex.ru/i/WZIK2ZhgJCew0w | https://disk.yandex.ru/i/JoqUZ_JnYCAYjQ | https://disk.yandex.ru/i/nEDZklih1yaY_g | https://disk.yandex.ru/i/8oXe65fQRcMh7A</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Арт: 20385
+    <t>Арт: 20385
 Материал: ткань
 Каркас: металл черный матовый 
 Цена: Стулья Изо от 2100 до 2800
@@ -559,16 +466,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/rdPNqyJ7D1L1fw | https://disk.yandex.ru/i/InQAvyQOYJM_bQ | https://disk.yandex.ru/i/FALBWBd2gTWvHw | https://disk.yandex.ru/i/k-IJX1nraxqpKw</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул офисный Изо</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Арт: 20379
+    <t>Арт: 20379
 Материал: кож зам
 Каркас: хром 
 Цена: 2499руб.
@@ -590,13 +488,7 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/tgGrAGYJybtxew | https://disk.yandex.ru/i/Fww11MmQ8K9jCQ | https://disk.yandex.ru/i/33ZWWZ9W_W6pRA | https://disk.yandex.ru/i/rdPNqyJ7D1L1fw | https://disk.yandex.ru/i/7s_36goJbJeVQw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стул офисный для посетителей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стулья для посетителей
+    <t>Стулья для посетителей
 Описание Удобные и стильные кресла для офисов они хорошо впишутся в любые современные дизаны офисных помещений и будут подчеркивать ваш хороший вкус и заботу о посетителях.
 Размеры сидения: Ширина - 60 см
 Глубина - 50 см
@@ -615,12 +507,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло кожаное финской фирмы "pohjanmaan" </t>
   </si>
   <si>
     <t xml:space="preserve">Кресло кожаное финской фирмы "pohjanmaan" 
@@ -646,44 +532,293 @@
                  </t>
   </si>
   <si>
-    <t xml:space="preserve">https://disk.yandex.ru/i/RTRiJ7pVJobLrA | https://disk.yandex.ru/i/SUlGZ_ZyZGXRCw | https://disk.yandex.ru/i/fSDefBma1gUPbQ | https://disk.yandex.ru/i/Jjq-qNgGkKYuUQ | https://disk.yandex.ru/i/gsP9_Va05EbaNQ | https://disk.yandex.ru/i/66-EFz-aqV1ndQ | https://disk.yandex.ru/i/kV9NfaCvSPuiNg | https://disk.yandex.ru/i/qg0rVOgQWgumOQ | https://disk.yandex.ru/i/r4U6e35o5KIBLg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Товар приобретен на продажу</t>
+    <t xml:space="preserve">Офисное стул-кресло
+Артикул 20433
+Описание: Кресло самба для конференц зала от известного производителя Chairman. Кожаное кресло самба с мягкими подлокотниками стильное и прочное кресло зарекомендовало себя, как одно из лучших кресел для офиса.
+Цвет: чёрный и белый 
+Цена: 5000
+Количество: 20 (уточняйте)
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стул офисный
+Стулья в ткани 
+Цена: 2100
+Артикул: 20379
+Материал: кож зам
+Цена: хромированные ноги - 2499. Черные-2299
+Цвет: черный, коричневый, белый, синий, красный, голубой 
+Наличие: уточняйте
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стулья банкетные 
+Изысканные банкетные стулья в стиле барокко станут ярким украшением вашего интерьера, добавив ему роскоши и изящества. Стулья выполнены на прочном деревянном каркасе, а мягкие сиденье и спинка, обтянутые тканью с элегантными узорами, обеспечивают комфорт и стильный вид. Барочные изгибы, плавные линии и декоративные детали подчеркивают классический дизайн, идеально подходящий для банкетных залов, ресторанов и особых мероприятий. Эти стулья создадут атмосферу утонченности и королевской элегантности, делая каждое событие незабываемым.
+Цвет коричневый 
+Цена 5 000
+Количество уточняйте
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стулья кухонные
+Банкетные стулья в стиле барокко на деревянном каркасе — идеальный выбор для тех, кто ценит роскошь и элегантность. Мягкое сиденье обеспечивает комфорт, а прочная деревянная спинка с классическими изгибами подчеркивает изысканность и статус интерьера. Барочные детали и плавные линии каркаса создают атмосферу королевской роскоши, делая эти стулья отличным дополнением для банкетных залов, ресторанов или залов для торжественных мероприятий. Они не только эстетически привлекательны, но и долговечны, благодаря использованию натуральных материалов и качественной отделки.
+Цвет: бежевый
+Цена 4 000
+Количество уточняйте
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/SYn1o_GuQH4uJg | https://disk.yandex.ru/i/ZV2mLC996r4JAw | https://disk.yandex.ru/i/1YQ_dR2AivDsfQ | https://disk.yandex.ru/i/EVzfN0HeNHlXSA | https://disk.yandex.ru/i/PAS00s7vnPCnjQ | https://disk.yandex.ru/i/hKR7Y3J0ZfzK_w | https://disk.yandex.ru/i/Tf2mmK_LR7NzOA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/fsqVdDo-x0xbqQ | https://disk.yandex.ru/i/l4VUzFj4ptIzbA | https://disk.yandex.ru/i/fNfaOnPS-2SqMQ | https://disk.yandex.ru/i/IJpFJVJ2JUsnwQ | https://disk.yandex.ru/i/uNKf2aunGKw0wg | https://disk.yandex.ru/i/NsYKi8YpUPY6Dg | https://disk.yandex.ru/i/ksc-z-bORyfjiQ | https://disk.yandex.ru/i/p-LK5M1xVYDxkQ | https://disk.yandex.ru/i/GF2g_DKFzZ9ldw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ZTHyPWRR8U6O_Q | https://disk.yandex.ru/i/jclwedPVNGspAg | https://disk.yandex.ru/i/86K35Lc7zpR3sw | https://disk.yandex.ru/i/kskt503D7Cx8VA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1TdoUhVDEW_urw | https://disk.yandex.ru/i/WP6OFB8_g8Lm2g | https://disk.yandex.ru/i/-vBvSkGwZK_LRQ | https://disk.yandex.ru/i/YN6zmmHN15mOmQ | https://disk.yandex.ru/i/aISOlpG5Vw5ZhA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/FmS1JoBXjc4FAA | https://disk.yandex.ru/i/4fHOp1u3uZQmWw | https://disk.yandex.ru/i/zq8TCxKOdBe5jA | https://disk.yandex.ru/i/bYcFAKIxE-l7fg | https://disk.yandex.ru/i/CWaG6C89S-oBCA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OaeAzWDAmvo5HQ | https://disk.yandex.ru/i/-lvf7ogjfI4iQA | https://disk.yandex.ru/i/51-rW-3ilxJTVw | https://disk.yandex.ru/i/-td07XVsNrkoDQ | https://disk.yandex.ru/i/1MdvqkNIFLrycw | https://disk.yandex.ru/i/-pWAfmNH7iJP5g | https://disk.yandex.ru/i/cbzowl4N5cBeVQ | https://disk.yandex.ru/i/LJhP50v1sEzADQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/p2NV328NZRV99A | https://disk.yandex.ru/i/eh70odbG8D1UmA | https://disk.yandex.ru/i/7tnVtvXkbfTsTw | https://disk.yandex.ru/i/jO2YMcrw14LrjQ | https://disk.yandex.ru/i/7NSkUeqYzcXU0g | https://disk.yandex.ru/i/HWLJd-aOSlhWDQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/IEV1K1R1GTj15w | https://disk.yandex.ru/i/MsXVUujJ7_OZSw | https://disk.yandex.ru/i/o3UUq--qSSUS2w | https://disk.yandex.ru/i/HA_chsQLjUQg7w | https://disk.yandex.ru/i/Mw9-ouUVfhJqwA | https://disk.yandex.ru/i/O6mgGQlShnMcEA | https://disk.yandex.ru/i/o7XOOjRhS1wV3Q | https://disk.yandex.ru/i/M8EXKMjxgpeLCg | https://disk.yandex.ru/i/5UD3IjBwj3niMA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/P_p8J06Oomnk7A | https://disk.yandex.ru/i/5oITHfSBAjT20A | https://disk.yandex.ru/i/qBTL7XLtrg9Tfw | https://disk.yandex.ru/i/T-x8JOltu6b6kA | https://disk.yandex.ru/i/2sMoO6NIy-tRRw | https://disk.yandex.ru/i/veUIyKIfUEIRVA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yDACQ-_MxWT-iA | https://disk.yandex.ru/i/CWqCHMcdvjyOnA | https://disk.yandex.ru/i/dL1Syu7s2-UPuA | https://disk.yandex.ru/i/yUaLoCVM3lR_Tw | https://disk.yandex.ru/i/p1ehepcN3NiwVQ | https://disk.yandex.ru/i/ggfA5uiuM2iMRw | https://disk.yandex.ru/i/jwDKK1Dl5SLhwQ | https://disk.yandex.ru/i/EexZKqsoeFL1rw | https://disk.yandex.ru/i/kUu89nfreRXg_Q | https://disk.yandex.ru/i/DugAW5XO_9cZpQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CtGr-ZPkjM5Q2A | https://disk.yandex.ru/i/Boh3O8L64NCGZA | https://disk.yandex.ru/i/sbQreYOfg1OoSQ | https://disk.yandex.ru/i/WsSNsIqMk0Bfhg | https://disk.yandex.ru/i/jpTfxqGzBhHZwA | https://disk.yandex.ru/i/ix11X_Vk2xSLiQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7s_36goJbJeVQw | https://disk.yandex.ru/i/S-YgMAhhphso8g | https://disk.yandex.ru/i/ymIxpa36BHReCw | https://disk.yandex.ru/i/WZIK2ZhgJCew0w | https://disk.yandex.ru/i/JoqUZ_JnYCAYjQ | https://disk.yandex.ru/i/nEDZklih1yaY_g | https://disk.yandex.ru/i/8oXe65fQRcMh7A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/rdPNqyJ7D1L1fw | https://disk.yandex.ru/i/InQAvyQOYJM_bQ | https://disk.yandex.ru/i/FALBWBd2gTWvHw | https://disk.yandex.ru/i/k-IJX1nraxqpKw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/tgGrAGYJybtxew | https://disk.yandex.ru/i/Fww11MmQ8K9jCQ | https://disk.yandex.ru/i/33ZWWZ9W_W6pRA | https://disk.yandex.ru/i/rdPNqyJ7D1L1fw | https://disk.yandex.ru/i/7s_36goJbJeVQw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/RTRiJ7pVJobLrA | https://disk.yandex.ru/i/SUlGZ_ZyZGXRCw | https://disk.yandex.ru/i/fSDefBma1gUPbQ | https://disk.yandex.ru/i/Jjq-qNgGkKYuUQ | https://disk.yandex.ru/i/gsP9_Va05EbaNQ | https://disk.yandex.ru/i/66-EFz-aqV1ndQ | https://disk.yandex.ru/i/kV9NfaCvSPuiNg | https://disk.yandex.ru/i/qg0rVOgQWgumOQ | https://disk.yandex.ru/i/r4U6e35o5KIBLg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qkABNUdtNGvtOg | https://disk.yandex.ru/i/OBn4_H-VfLWobw | https://disk.yandex.ru/i/0rMR7zyZ9P1k-w | https://disk.yandex.ru/i/mqvIQWTRZ6j7pw | https://disk.yandex.ru/i/VZMDQzMNPJ4F1w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/WOJF7EXecYod8g | https://disk.yandex.ru/i/EZG7wqDbUEWe-g | https://disk.yandex.ru/i/9jVzshCPuJfy7g | https://disk.yandex.ru/i/NIAFSSyOZEabkA | https://disk.yandex.ru/i/J4jB8FnMqRTwDg | https://disk.yandex.ru/i/iAScFT85u0QQoQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YWdl65lMCegdMA | https://disk.yandex.ru/i/JOf3YXjaKaUyuQ | https://disk.yandex.ru/i/uATDwnGmvEEDFA | https://disk.yandex.ru/i/C7ji38jspxLYZg | https://disk.yandex.ru/i/usJJZ2PsXpgpkA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9MJAZWihFff__A | https://disk.yandex.ru/i/BVmp-9BevPVH4Q | https://disk.yandex.ru/i/1zQp-Ok_knDY7g | https://disk.yandex.ru/i/RfaYfeS-_6losg | https://disk.yandex.ru/i/LA_p9xPDQ1NRfA | https://disk.yandex.ru/i/k_FfmYzumnv8cw</t>
+  </si>
+  <si>
+    <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
+  </si>
+  <si>
+    <t>Одно значение из выпадающего списка в ячейке</t>
+  </si>
+  <si>
+    <t>Мебель и интерьер</t>
+  </si>
+  <si>
+    <t>Одно или несколько значений из выпадающего списка в ячейке</t>
+  </si>
+  <si>
+    <t>Столы и стулья</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
+    <t>Б/у</t>
+  </si>
+  <si>
+    <t>В наличии</t>
+  </si>
+  <si>
+    <t>Может быть обязательным_x005F_x000D_
+Подробнее</t>
+  </si>
+  <si>
+    <t>Бордовый</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Оранжевый</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Другой</t>
   </si>
   <si>
     <t>Коричневый</t>
   </si>
   <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Стулья</t>
+  </si>
+  <si>
+    <t>Ткань</t>
+  </si>
+  <si>
+    <t>Замша</t>
+  </si>
+  <si>
     <t>Кожа</t>
   </si>
   <si>
+    <t>Искусственная кожа</t>
+  </si>
+  <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>Металл | Пластик</t>
+  </si>
+  <si>
+    <t>Металл | ДСП</t>
+  </si>
+  <si>
     <t>Дерево</t>
+  </si>
+  <si>
+    <t>Подлокотники | Мягкое сидение | Мягкая спинка</t>
+  </si>
+  <si>
+    <t>Подлокотники | Колёсики | Мягкое сидение | Мягкая спинка</t>
+  </si>
+  <si>
+    <t>Мягкое сидение | Мягкая спинка</t>
+  </si>
+  <si>
+    <t>Мягкое сидение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="3">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11.000000"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -696,11 +831,11 @@
   </fills>
   <borders count="2">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -715,41 +850,33 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
@@ -795,13 +922,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -829,13 +956,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Thai" typeface="Tahoma"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -1032,225 +1159,15 @@
 </a:theme>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme 2007 - 2010">
-  <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-        <a:gradFill>
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AL23"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="AL20" activeCellId="0" sqref="AL20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1366,15 +1283,15 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:38">
       <c r="A2" t="s">
         <v>38</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>38</v>
@@ -1383,7 +1300,7 @@
         <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G2" t="s">
         <v>38</v>
@@ -1392,58 +1309,58 @@
         <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K2" t="s">
         <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="O2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S2" t="s">
         <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="U2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="V2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="W2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="X2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Y2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Z2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AA2" t="s">
         <v>38</v>
@@ -1458,984 +1375,1189 @@
         <v>38</v>
       </c>
       <c r="AE2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF2" t="s">
         <v>40</v>
       </c>
-      <c r="AF2" t="s">
-        <v>39</v>
-      </c>
       <c r="AG2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="AH2" t="s">
         <v>38</v>
       </c>
       <c r="AI2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK2" t="s">
         <v>40</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AL2" t="s">
         <v>40</v>
       </c>
-      <c r="AK2" t="s">
+    </row>
+    <row r="3" spans="1:38">
+      <c r="A3" t="s">
         <v>39</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="B3" t="s">
         <v>39</v>
       </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" t="s">
+        <v>98</v>
+      </c>
+      <c r="O3" t="s">
+        <v>98</v>
+      </c>
+      <c r="P3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R3" t="s">
+        <v>39</v>
+      </c>
+      <c r="S3" t="s">
+        <v>98</v>
+      </c>
+      <c r="T3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" t="s">
+        <v>39</v>
+      </c>
+      <c r="V3" t="s">
+        <v>100</v>
+      </c>
+      <c r="W3" t="s">
+        <v>39</v>
+      </c>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AK3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D3" t="s">
+    <row r="4" spans="1:38">
+      <c r="D4" t="s">
         <v>42</v>
       </c>
-      <c r="E3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" t="s">
-        <v>41</v>
-      </c>
-      <c r="L3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" t="s">
-        <v>43</v>
-      </c>
-      <c r="O3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>41</v>
-      </c>
-      <c r="R3" t="s">
-        <v>41</v>
-      </c>
-      <c r="S3" t="s">
-        <v>43</v>
-      </c>
-      <c r="T3" t="s">
-        <v>43</v>
-      </c>
-      <c r="U3" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" t="s">
-        <v>44</v>
-      </c>
-      <c r="W3" t="s">
-        <v>41</v>
-      </c>
-      <c r="X3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>41</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AB3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>43</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="D4" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" t="s">
-        <v>46</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>4999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA4" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB4" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC4" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD4" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AE4" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="AF4" t="s">
-        <v>54</v>
+        <v>107</v>
       </c>
       <c r="AH4" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AI4" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="AJ4" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="AL4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="D5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="D5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" t="s">
-        <v>60</v>
       </c>
       <c r="F5">
         <v>4999</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S5" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA5" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB5" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC5" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD5" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AE5" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AF5" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="AH5" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AI5" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="AJ5" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="AL5" t="s">
-        <v>64</v>
+        <v>126</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:38">
       <c r="D6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>3999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S6" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA6" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB6" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC6" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD6" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AE6" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AH6" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AI6" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="AJ6" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="AL6" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:38">
       <c r="D7" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>3499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S7" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA7" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB7" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC7" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD7" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AE7" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AF7" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AH7" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AI7" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="AJ7" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="AL7" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:38">
       <c r="D8" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>4999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S8" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA8" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB8" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC8" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD8" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AE8" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AF8" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AH8" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AI8" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="AJ8" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="AL8" t="s">
-        <v>76</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:38">
       <c r="D9" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>3999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S9" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA9" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB9" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC9" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD9" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AE9" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AF9" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AH9" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AI9" t="s">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="AJ9" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="AL9" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:38">
       <c r="D10" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>5999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="D11" t="s">
         <v>48</v>
       </c>
-      <c r="S10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>82</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>56</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="D11" t="s">
-        <v>83</v>
-      </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>6999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S11" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA11" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB11" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC11" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD11" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AE11" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="AH11" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AI11" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="AJ11" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="AL11" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:38">
       <c r="D12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S12" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA12" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB12" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC12" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD12" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AE12" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s">
-        <v>88</v>
+        <v>111</v>
       </c>
       <c r="AH12" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AI12" t="s">
-        <v>56</v>
+        <v>117</v>
       </c>
       <c r="AJ12" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="AL12" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:38">
       <c r="D13" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>2999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
-      <c r="AA13" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>91</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="D14" t="s">
-        <v>92</v>
-      </c>
       <c r="E14" t="s">
-        <v>93</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>3999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S14" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38">
+      <c r="D15" t="s">
         <v>50</v>
       </c>
-      <c r="AB14" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE14" t="s">
+      <c r="E15" t="s">
         <v>68</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>68</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="D15" t="s">
-        <v>95</v>
-      </c>
-      <c r="E15" t="s">
-        <v>96</v>
       </c>
       <c r="F15">
         <v>2499</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I15" s="2" t="s">
-        <v>48</v>
-      </c>
       <c r="S15" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA15" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB15" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD15" t="s">
-        <v>53</v>
+        <v>105</v>
       </c>
       <c r="AE15" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="AF15" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="AH15" t="s">
-        <v>55</v>
+        <v>116</v>
       </c>
       <c r="AI15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38">
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
         <v>69</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="D16" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" t="s">
-        <v>99</v>
       </c>
       <c r="F16">
         <v>2099</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S16" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA16" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="4:38">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="AC16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="D17" t="s">
-        <v>102</v>
-      </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>2499</v>
       </c>
       <c r="G17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC17" t="s">
         <v>104</v>
       </c>
-      <c r="I17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="4:38">
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="AD17" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="D18" t="s">
-        <v>105</v>
-      </c>
       <c r="E18" t="s">
-        <v>106</v>
+        <v>71</v>
       </c>
       <c r="F18">
         <v>1499</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>48</v>
+        <v>97</v>
       </c>
       <c r="S18" t="s">
-        <v>49</v>
+        <v>99</v>
       </c>
       <c r="AA18" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="AB18" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="AC18" t="s">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="AD18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="4:38">
+      <c r="D19" t="s">
         <v>53</v>
       </c>
-      <c r="AE18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>57</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="D19" t="s">
-        <v>108</v>
-      </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F19">
         <v>15000</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="4:38">
+      <c r="D20" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20">
+        <v>5000</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K20">
+        <v>20433</v>
+      </c>
+      <c r="S20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="4:38">
+      <c r="D21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21">
+        <v>2100</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K21">
+        <v>20379</v>
+      </c>
+      <c r="S21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="4:38">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE22" t="s">
         <v>110</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="S19" t="s">
-        <v>49</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>55</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>58</v>
+      <c r="AH22" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="4:38">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23">
+        <v>4000</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="S23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G4"/>
-    <hyperlink r:id="rId2" ref="I4"/>
-    <hyperlink r:id="rId3" ref="G5"/>
-    <hyperlink r:id="rId2" ref="I5"/>
-    <hyperlink r:id="rId4" ref="G6"/>
-    <hyperlink r:id="rId2" ref="I6"/>
-    <hyperlink r:id="rId5" ref="G7"/>
-    <hyperlink r:id="rId2" ref="I7"/>
-    <hyperlink r:id="rId6" ref="G8"/>
-    <hyperlink r:id="rId2" ref="I8"/>
-    <hyperlink r:id="rId7" ref="G9"/>
-    <hyperlink r:id="rId2" ref="I9"/>
-    <hyperlink r:id="rId8" ref="G10"/>
-    <hyperlink r:id="rId2" ref="I10"/>
-    <hyperlink r:id="rId9" ref="G11"/>
-    <hyperlink r:id="rId2" ref="I11"/>
-    <hyperlink r:id="rId10" ref="G12"/>
-    <hyperlink r:id="rId2" ref="I12"/>
-    <hyperlink r:id="rId11" ref="G13"/>
-    <hyperlink r:id="rId2" ref="I13"/>
-    <hyperlink r:id="rId12" ref="G14"/>
-    <hyperlink r:id="rId2" ref="I14"/>
-    <hyperlink r:id="rId13" ref="G15"/>
-    <hyperlink r:id="rId2" ref="I15"/>
-    <hyperlink r:id="rId14" ref="G16"/>
-    <hyperlink r:id="rId2" ref="I16"/>
-    <hyperlink r:id="rId15" ref="G17"/>
-    <hyperlink r:id="rId2" ref="I17"/>
-    <hyperlink r:id="rId16" ref="G18"/>
-    <hyperlink r:id="rId2" ref="I18"/>
-    <hyperlink r:id="rId17" ref="G19"/>
-    <hyperlink r:id="rId2" ref="I19"/>
+    <hyperlink ref="G4" r:id="rId1"/>
+    <hyperlink ref="I4" r:id="rId2"/>
+    <hyperlink ref="G5" r:id="rId3"/>
+    <hyperlink ref="I5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="I6" r:id="rId6"/>
+    <hyperlink ref="G7" r:id="rId7"/>
+    <hyperlink ref="I7" r:id="rId8"/>
+    <hyperlink ref="G8" r:id="rId9"/>
+    <hyperlink ref="I8" r:id="rId10"/>
+    <hyperlink ref="G9" r:id="rId11"/>
+    <hyperlink ref="I9" r:id="rId12"/>
+    <hyperlink ref="G10" r:id="rId13"/>
+    <hyperlink ref="I10" r:id="rId14"/>
+    <hyperlink ref="G11" r:id="rId15"/>
+    <hyperlink ref="I11" r:id="rId16"/>
+    <hyperlink ref="G12" r:id="rId17"/>
+    <hyperlink ref="I12" r:id="rId18"/>
+    <hyperlink ref="G13" r:id="rId19"/>
+    <hyperlink ref="I13" r:id="rId20"/>
+    <hyperlink ref="G14" r:id="rId21"/>
+    <hyperlink ref="I14" r:id="rId22"/>
+    <hyperlink ref="G15" r:id="rId23"/>
+    <hyperlink ref="I15" r:id="rId24"/>
+    <hyperlink ref="G16" r:id="rId25"/>
+    <hyperlink ref="I16" r:id="rId26"/>
+    <hyperlink ref="G17" r:id="rId27"/>
+    <hyperlink ref="I17" r:id="rId28"/>
+    <hyperlink ref="G18" r:id="rId29"/>
+    <hyperlink ref="I18" r:id="rId30"/>
+    <hyperlink ref="G19" r:id="rId31"/>
+    <hyperlink ref="I19" r:id="rId32"/>
+    <hyperlink ref="G20" r:id="rId33"/>
+    <hyperlink ref="I20" r:id="rId34"/>
+    <hyperlink ref="G21" r:id="rId35"/>
+    <hyperlink ref="I21" r:id="rId36"/>
+    <hyperlink ref="G22" r:id="rId37"/>
+    <hyperlink ref="I22" r:id="rId38"/>
+    <hyperlink ref="G23" r:id="rId39"/>
+    <hyperlink ref="I23" r:id="rId40"/>
   </hyperlinks>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE060F4C-DB0D-4D86-BE24-06216F333156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="122">
   <si>
     <t>Address</t>
   </si>
@@ -128,18 +134,6 @@
   </si>
   <si>
     <t>FurnitureAdditions</t>
-  </si>
-  <si>
-    <t>Обязательный</t>
-  </si>
-  <si>
-    <t>Подробнее о параметре</t>
-  </si>
-  <si>
-    <t>Необязательный</t>
-  </si>
-  <si>
-    <t>Текст</t>
   </si>
   <si>
     <t>Стул офисный</t>
@@ -699,15 +693,9 @@
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
-    <t>Одно значение из выпадающего списка в ячейке</t>
-  </si>
-  <si>
     <t>Мебель и интерьер</t>
   </si>
   <si>
-    <t>Одно или несколько значений из выпадающего списка в ячейке</t>
-  </si>
-  <si>
     <t>Столы и стулья</t>
   </si>
   <si>
@@ -721,10 +709,6 @@
   </si>
   <si>
     <t>В наличии</t>
-  </si>
-  <si>
-    <t>Может быть обязательным_x005F_x000D_
-Подробнее</t>
   </si>
   <si>
     <t>Бордовый</t>
@@ -796,8 +780,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -868,18 +852,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -917,7 +909,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -951,6 +943,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -985,9 +978,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1160,14 +1154,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1283,1280 +1279,1048 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" t="s">
-        <v>40</v>
-      </c>
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M2" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" t="s">
-        <v>40</v>
-      </c>
-      <c r="O2" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R2" t="s">
-        <v>40</v>
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>4999</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" t="s">
-        <v>40</v>
-      </c>
-      <c r="U2" t="s">
-        <v>40</v>
-      </c>
-      <c r="V2" t="s">
-        <v>40</v>
-      </c>
-      <c r="W2" t="s">
-        <v>40</v>
-      </c>
-      <c r="X2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>40</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="AA2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="AB2" t="s">
-        <v>38</v>
+        <v>96</v>
       </c>
       <c r="AC2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="AD2" t="s">
-        <v>38</v>
+        <v>99</v>
       </c>
       <c r="AE2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AH2" t="s">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="AI2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AK2" t="s">
-        <v>40</v>
+        <v>114</v>
       </c>
       <c r="AL2" t="s">
-        <v>40</v>
+        <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
-      <c r="A3" t="s">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="B3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
       <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" t="s">
-        <v>39</v>
-      </c>
-      <c r="J3" t="s">
-        <v>98</v>
-      </c>
-      <c r="K3" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O3" t="s">
-        <v>98</v>
-      </c>
-      <c r="P3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>39</v>
-      </c>
-      <c r="R3" t="s">
-        <v>39</v>
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>4999</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="S3" t="s">
-        <v>98</v>
-      </c>
-      <c r="T3" t="s">
-        <v>98</v>
-      </c>
-      <c r="U3" t="s">
-        <v>39</v>
-      </c>
-      <c r="V3" t="s">
-        <v>100</v>
-      </c>
-      <c r="W3" t="s">
-        <v>39</v>
-      </c>
-      <c r="X3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>39</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="AA3" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="AB3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="AC3" t="s">
         <v>98</v>
       </c>
       <c r="AD3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>3999</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC4" t="s">
         <v>98</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AD4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <v>3499</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" t="s">
         <v>98</v>
       </c>
-      <c r="AF3" t="s">
+      <c r="AD5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6">
+        <v>4999</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>3999</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8">
+        <v>5999</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>6999</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>4999</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" t="s">
-        <v>39</v>
-      </c>
-      <c r="AH3" t="s">
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11">
+        <v>2999</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC11" t="s">
         <v>98</v>
       </c>
-      <c r="AI3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AK3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>100</v>
+      <c r="AD11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
-      <c r="D4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4">
-        <v>4999</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S4" t="s">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>3999</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD12" t="s">
         <v>99</v>
       </c>
-      <c r="AA4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AE12" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AF12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>2499</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" t="s">
         <v>105</v>
       </c>
-      <c r="AE4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>125</v>
+      <c r="AF13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
-      <c r="D5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5">
-        <v>4999</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S5" t="s">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>2099</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD14" t="s">
         <v>99</v>
       </c>
-      <c r="AA5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>126</v>
+      <c r="AE14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
-      <c r="D6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E6" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6">
-        <v>3999</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S6" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7">
-        <v>3499</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="D8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8">
-        <v>4999</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S8" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:38">
-      <c r="D9" t="s">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>47</v>
       </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9">
-        <v>3999</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S9" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="10" spans="1:38">
-      <c r="D10" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10">
-        <v>5999</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S10" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL10" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:38">
-      <c r="D11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>64</v>
-      </c>
-      <c r="F11">
-        <v>6999</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S11" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="D12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12">
-        <v>4999</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="13" spans="1:38">
-      <c r="D13" t="s">
-        <v>43</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="E15" t="s">
         <v>66</v>
-      </c>
-      <c r="F13">
-        <v>2999</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S13" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14">
-        <v>3999</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="15" spans="1:38">
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
       </c>
       <c r="F15">
         <v>2499</v>
       </c>
       <c r="G15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>1499</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17">
+        <v>15000</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB17" t="s">
         <v>97</v>
       </c>
-      <c r="S15" t="s">
+      <c r="AC17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD17" t="s">
         <v>99</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AE17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <v>5000</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18">
+        <v>20433</v>
+      </c>
+      <c r="S18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>2100</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19">
+        <v>20379</v>
+      </c>
+      <c r="S19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE19" t="s">
         <v>101</v>
       </c>
-      <c r="AB15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>127</v>
+      <c r="AH19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>120</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
-      <c r="D16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16">
-        <v>2099</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="4:38">
-      <c r="D17" t="s">
+    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
         <v>51</v>
       </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17">
-        <v>2499</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="4:38">
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="E20" t="s">
         <v>71</v>
-      </c>
-      <c r="F18">
-        <v>1499</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="4:38">
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>72</v>
-      </c>
-      <c r="F19">
-        <v>15000</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>119</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="4:38">
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
       </c>
       <c r="F20">
         <v>5000</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="S20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB20" t="s">
         <v>97</v>
       </c>
-      <c r="K20">
-        <v>20433</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AC20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD20" t="s">
         <v>99</v>
       </c>
-      <c r="AA20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AE20" t="s">
         <v>103</v>
       </c>
-      <c r="AC20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE20" t="s">
+      <c r="AH20" t="s">
         <v>109</v>
       </c>
-      <c r="AH20" t="s">
-        <v>116</v>
-      </c>
       <c r="AI20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL20" t="s">
         <v>120</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="21" spans="4:38">
+    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F21">
-        <v>2100</v>
+        <v>4000</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="S21" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="AA21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB21" t="s">
         <v>97</v>
       </c>
-      <c r="K21">
-        <v>20379</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="AC21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD21" t="s">
         <v>99</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>105</v>
       </c>
       <c r="AE21" t="s">
         <v>108</v>
       </c>
       <c r="AH21" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="AI21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>117</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AL21" t="s">
         <v>121</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="4:38">
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F22">
-        <v>5000</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K22">
-        <v>1</v>
-      </c>
-      <c r="S22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="4:38">
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>76</v>
-      </c>
-      <c r="F23">
-        <v>4000</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="K23">
-        <v>1</v>
-      </c>
-      <c r="S23" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>101</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G4" r:id="rId1"/>
-    <hyperlink ref="I4" r:id="rId2"/>
-    <hyperlink ref="G5" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="G6" r:id="rId5"/>
-    <hyperlink ref="I6" r:id="rId6"/>
-    <hyperlink ref="G7" r:id="rId7"/>
-    <hyperlink ref="I7" r:id="rId8"/>
-    <hyperlink ref="G8" r:id="rId9"/>
-    <hyperlink ref="I8" r:id="rId10"/>
-    <hyperlink ref="G9" r:id="rId11"/>
-    <hyperlink ref="I9" r:id="rId12"/>
-    <hyperlink ref="G10" r:id="rId13"/>
-    <hyperlink ref="I10" r:id="rId14"/>
-    <hyperlink ref="G11" r:id="rId15"/>
-    <hyperlink ref="I11" r:id="rId16"/>
-    <hyperlink ref="G12" r:id="rId17"/>
-    <hyperlink ref="I12" r:id="rId18"/>
-    <hyperlink ref="G13" r:id="rId19"/>
-    <hyperlink ref="I13" r:id="rId20"/>
-    <hyperlink ref="G14" r:id="rId21"/>
-    <hyperlink ref="I14" r:id="rId22"/>
-    <hyperlink ref="G15" r:id="rId23"/>
-    <hyperlink ref="I15" r:id="rId24"/>
-    <hyperlink ref="G16" r:id="rId25"/>
-    <hyperlink ref="I16" r:id="rId26"/>
-    <hyperlink ref="G17" r:id="rId27"/>
-    <hyperlink ref="I17" r:id="rId28"/>
-    <hyperlink ref="G18" r:id="rId29"/>
-    <hyperlink ref="I18" r:id="rId30"/>
-    <hyperlink ref="G19" r:id="rId31"/>
-    <hyperlink ref="I19" r:id="rId32"/>
-    <hyperlink ref="G20" r:id="rId33"/>
-    <hyperlink ref="I20" r:id="rId34"/>
-    <hyperlink ref="G21" r:id="rId35"/>
-    <hyperlink ref="I21" r:id="rId36"/>
-    <hyperlink ref="G22" r:id="rId37"/>
-    <hyperlink ref="I22" r:id="rId38"/>
-    <hyperlink ref="G23" r:id="rId39"/>
-    <hyperlink ref="I23" r:id="rId40"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE060F4C-DB0D-4D86-BE24-06216F333156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78C13C2-0932-49A3-B914-E7A8422AFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="125">
   <si>
     <t>Address</t>
   </si>
@@ -630,6 +630,33 @@
     </t>
   </si>
   <si>
+    <t xml:space="preserve">Барный стул старинный
+Описание
+Высота сидения: 73 см
+Цвет: коричневый
+Цена: 5 000
+Количество: 8 шт
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/SYn1o_GuQH4uJg | https://disk.yandex.ru/i/ZV2mLC996r4JAw | https://disk.yandex.ru/i/1YQ_dR2AivDsfQ | https://disk.yandex.ru/i/EVzfN0HeNHlXSA | https://disk.yandex.ru/i/PAS00s7vnPCnjQ | https://disk.yandex.ru/i/hKR7Y3J0ZfzK_w | https://disk.yandex.ru/i/Tf2mmK_LR7NzOA</t>
   </si>
   <si>
@@ -690,6 +717,9 @@
     <t>https://disk.yandex.ru/i/9MJAZWihFff__A | https://disk.yandex.ru/i/BVmp-9BevPVH4Q | https://disk.yandex.ru/i/1zQp-Ok_knDY7g | https://disk.yandex.ru/i/RfaYfeS-_6losg | https://disk.yandex.ru/i/LA_p9xPDQ1NRfA | https://disk.yandex.ru/i/k_FfmYzumnv8cw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/8qQyhp9ult7diw | https://disk.yandex.ru/i/uE-RYkadNO6TyA | https://disk.yandex.ru/i/Qx_3jFDLLFRLXw | https://disk.yandex.ru/i/o2V8urwcWcjJIg | https://disk.yandex.ru/i/tosFQ9mVA3fR3A | https://disk.yandex.ru/i/cyQHvA9Tr1vyCQ | https://disk.yandex.ru/i/KvuDWEfi_ogKTw | https://disk.yandex.ru/i/M7aGqLLzIKPEig</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -775,6 +805,9 @@
   </si>
   <si>
     <t>Мягкое сидение</t>
+  </si>
+  <si>
+    <t>Барный стул</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1188,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL21"/>
+  <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1290,43 +1323,43 @@
         <v>4999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AH2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -1340,43 +1373,43 @@
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AF3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AH3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ3" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL3" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -1390,43 +1423,43 @@
         <v>3999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -1440,43 +1473,43 @@
         <v>3499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL5" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -1490,43 +1523,43 @@
         <v>4999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -1540,43 +1573,43 @@
         <v>3999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
@@ -1590,43 +1623,43 @@
         <v>5999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AH8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -1640,43 +1673,43 @@
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -1690,43 +1723,43 @@
         <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AL10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -1740,43 +1773,43 @@
         <v>2999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB11" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ11" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -1790,43 +1823,43 @@
         <v>3999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -1840,43 +1873,43 @@
         <v>2499</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF13" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI13" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL13" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -1890,43 +1923,43 @@
         <v>2099</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB14" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI14" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL14" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -1940,43 +1973,43 @@
         <v>2499</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB15" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF15" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI15" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL15" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
@@ -1990,43 +2023,43 @@
         <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB16" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="17" spans="4:38" x14ac:dyDescent="0.25">
@@ -2040,43 +2073,43 @@
         <v>15000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="S17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF17" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="4:38" x14ac:dyDescent="0.25">
@@ -2090,43 +2123,43 @@
         <v>5000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K18">
         <v>20433</v>
       </c>
       <c r="S18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI18" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ18" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL18" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="19" spans="4:38" x14ac:dyDescent="0.25">
@@ -2140,43 +2173,43 @@
         <v>2100</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19">
         <v>20379</v>
       </c>
       <c r="S19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE19" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AH19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI19" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ19" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AL19" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="4:38" x14ac:dyDescent="0.25">
@@ -2190,43 +2223,43 @@
         <v>5000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB20" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AH20" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI20" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL20" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="4:38" x14ac:dyDescent="0.25">
@@ -2240,43 +2273,93 @@
         <v>4000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="S21" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" t="s">
+        <v>73</v>
+      </c>
+      <c r="F22">
+        <v>5000</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="I22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="S22" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA22" t="s">
         <v>97</v>
       </c>
-      <c r="AC21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="AB22" t="s">
         <v>99</v>
       </c>
-      <c r="AE21" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH21" t="s">
+      <c r="AC22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE22" t="s">
         <v>109</v>
       </c>
-      <c r="AI21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>121</v>
+      <c r="AH22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2321,6 +2404,8 @@
     <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
     <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
     <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78C13C2-0932-49A3-B914-E7A8422AFAD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FD7E83-A449-471C-9FC0-8135697FE888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Стулья кухонные</t>
+  </si>
+  <si>
+    <t>Барный стул</t>
   </si>
   <si>
     <t>Стул офисный для конференц зала
@@ -805,9 +808,6 @@
   </si>
   <si>
     <t>Мягкое сидение</t>
-  </si>
-  <si>
-    <t>Барный стул</t>
   </si>
 </sst>
 </file>
@@ -1190,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1317,49 +1317,52 @@
         <v>38</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2">
         <v>4999</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K2">
+        <v>20462</v>
       </c>
       <c r="S2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AF2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AH2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:38" x14ac:dyDescent="0.25">
@@ -1367,49 +1370,52 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>4999</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K3">
+        <v>20463</v>
       </c>
       <c r="S3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AF3" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ3" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL3" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:38" x14ac:dyDescent="0.25">
@@ -1417,49 +1423,52 @@
         <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F4">
         <v>3999</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K4">
+        <v>20455</v>
       </c>
       <c r="S4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA4" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD4" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI4" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -1467,49 +1476,52 @@
         <v>41</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>3499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K5">
+        <v>20391</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA5" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD5" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI5" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ5" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -1517,49 +1529,52 @@
         <v>42</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F6">
         <v>4999</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K6">
+        <v>20433</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -1567,49 +1582,52 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F7">
         <v>3999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K7">
+        <v>20455</v>
       </c>
       <c r="S7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
@@ -1617,49 +1635,52 @@
         <v>42</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8">
         <v>5999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K8">
+        <v>20457</v>
       </c>
       <c r="S8" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA8" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC8" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD8" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AF8" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI8" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ8" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL8" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
@@ -1667,49 +1688,52 @@
         <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F9">
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K9">
+        <v>20446</v>
       </c>
       <c r="S9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA9" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC9" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ9" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
@@ -1717,49 +1741,52 @@
         <v>38</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F10">
         <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K10">
+        <v>20446</v>
       </c>
       <c r="S10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AH10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
@@ -1767,49 +1794,52 @@
         <v>39</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F11">
         <v>2999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K11">
+        <v>20387</v>
       </c>
       <c r="S11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
@@ -1817,49 +1847,52 @@
         <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12">
         <v>3999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K12">
+        <v>20391</v>
       </c>
       <c r="S12" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA12" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC12" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD12" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AF12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI12" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
@@ -1867,49 +1900,52 @@
         <v>46</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F13">
         <v>2499</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K13">
+        <v>20379</v>
       </c>
       <c r="S13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA13" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB13" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC13" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD13" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI13" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
@@ -1917,49 +1953,52 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F14">
         <v>2099</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K14">
+        <v>20385</v>
       </c>
       <c r="S14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA14" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC14" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD14" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF14" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH14" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI14" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ14" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL14" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
@@ -1967,49 +2006,52 @@
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F15">
         <v>2499</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K15">
+        <v>20379</v>
       </c>
       <c r="S15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA15" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB15" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD15" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF15" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH15" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL15" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
@@ -2017,49 +2059,52 @@
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16">
         <v>1499</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
       </c>
       <c r="S16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA16" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB16" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="AC16" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD16" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF16" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH16" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AJ16" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="4:38" x14ac:dyDescent="0.25">
@@ -2067,49 +2112,52 @@
         <v>49</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F17">
         <v>15000</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
       </c>
       <c r="S17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD17" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AF17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ17" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="4:38" x14ac:dyDescent="0.25">
@@ -2117,49 +2165,49 @@
         <v>50</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F18">
         <v>5000</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K18">
         <v>20433</v>
       </c>
       <c r="S18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA18" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB18" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC18" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="AH18" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AJ18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="4:38" x14ac:dyDescent="0.25">
@@ -2167,49 +2215,49 @@
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F19">
         <v>2100</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K19">
         <v>20379</v>
       </c>
       <c r="S19" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA19" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC19" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE19" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AH19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI19" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AL19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="4:38" x14ac:dyDescent="0.25">
@@ -2217,49 +2265,49 @@
         <v>51</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F20">
         <v>5000</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K20">
         <v>1</v>
       </c>
       <c r="S20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="4:38" x14ac:dyDescent="0.25">
@@ -2267,99 +2315,99 @@
         <v>52</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F21">
         <v>4000</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
       <c r="S21" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA21" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB21" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC21" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>124</v>
+        <v>53</v>
       </c>
       <c r="E22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F22">
         <v>5000</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="S22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AA22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AB22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AD22" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AE22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AH22" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AI22" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AJ22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AL22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9FD7E83-A449-471C-9FC0-8135697FE888}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A2770-3295-4015-A550-CF7D464E436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="3480" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -136,60 +136,138 @@
     <t>FurnitureAdditions</t>
   </si>
   <si>
+    <t>Барный стул</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стулья банкетные </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло кожаное финской фирмы "pohjanmaan" </t>
+  </si>
+  <si>
+    <t>Стул офисный для посетителей</t>
+  </si>
+  <si>
+    <t>Стулья кухонные</t>
+  </si>
+  <si>
     <t>Стул офисный</t>
   </si>
   <si>
+    <t>Стул офисный Изо</t>
+  </si>
+  <si>
+    <t>Офисные стулья Изо</t>
+  </si>
+  <si>
     <t>Стул кресло офисное</t>
   </si>
   <si>
+    <t>Офисные стулья</t>
+  </si>
+  <si>
+    <t>Стул кресло для конференций</t>
+  </si>
+  <si>
+    <t>Офисный стул</t>
+  </si>
+  <si>
+    <t>Офисное стул-кресло</t>
+  </si>
+  <si>
+    <t>Стул офисный для конференций</t>
+  </si>
+  <si>
+    <t>Стуля офисные</t>
+  </si>
+  <si>
     <t>Стул для посетителей</t>
   </si>
   <si>
-    <t>Стул кресло для конференций</t>
-  </si>
-  <si>
-    <t>Офисный стул</t>
-  </si>
-  <si>
-    <t>Стуля офисные</t>
-  </si>
-  <si>
-    <t>Стул офисный для конференций</t>
-  </si>
-  <si>
-    <t>Офисные стулья</t>
-  </si>
-  <si>
-    <t>Офисные стулья Изо</t>
-  </si>
-  <si>
-    <t>Стул офисный Изо</t>
-  </si>
-  <si>
-    <t>Стул офисный для посетителей</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло кожаное финской фирмы "pohjanmaan" </t>
-  </si>
-  <si>
-    <t>Офисное стул-кресло</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стулья банкетные </t>
-  </si>
-  <si>
-    <t>Стулья кухонные</t>
-  </si>
-  <si>
-    <t>Барный стул</t>
-  </si>
-  <si>
-    <t>Стул офисный для конференц зала
-Артикул (20462)
-Описание: Обновите свое офисное пространство с классическими стульями для конференций от известного австрийского производителя BENE. Изысканный дизайн, эргономичная форма и эффект качания делают эти стулья идеальным выбором для комфортных и продуктивных совещаний. Сочетание стильного оттенка бардо и высокого качества исполнения придадут вашему офису неповторимый шарм и элегантность.
-Цена: 5000 за 1 шт.
-Количество: 8шт (в обработке примерно 30шт).
-В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
+    <t xml:space="preserve">Барный стул старинный
+Описание
+Высота сидения: 73 см
+Цвет: коричневый
+Цена: 5 000
+Количество: 8 шт
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стулья банкетные 
+Изысканные банкетные стулья в стиле барокко станут ярким украшением вашего интерьера, добавив ему роскоши и изящества. Стулья выполнены на прочном деревянном каркасе, а мягкие сиденье и спинка, обтянутые тканью с элегантными узорами, обеспечивают комфорт и стильный вид. Барочные изгибы, плавные линии и декоративные детали подчеркивают классический дизайн, идеально подходящий для банкетных залов, ресторанов и особых мероприятий. Эти стулья создадут атмосферу утонченности и королевской элегантности, делая каждое событие незабываемым.
+Цвет коричневый 
+Цена 5 000
+Количество уточняйте
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло кожаное финской фирмы "pohjanmaan" 
+Описание
+Цвет коричневый
+Цена: 15000
+Количество: 1
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+                 ➕ При поиске нас в навигаторе наберите – 
+                 Офис комфорт Одинцово 
+                 ➕ Наш телеграмм канал – office comfort es
+                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+                 -------------------------------------------------------------------
+                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+                 Можем укомплектовать 100-200 рабочих мест.
+                 </t>
+  </si>
+  <si>
+    <t>Стулья для посетителей
+Описание Удобные и стильные кресла для офисов они хорошо впишутся в любые современные дизаны офисных помещений и будут подчеркивать ваш хороший вкус и заботу о посетителях.
+Размеры сидения: Ширина - 60 см
+Глубина - 50 см
+Высота - 45
+Цвет: серый, бежевый, коричневый, жёлтый, зелёный 
+Цена: 1 500
+Количество: 6
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
@@ -203,114 +281,62 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стул-кресло для конференц зала
-Артикул (20463)
-Описание Обогатите свое рабочее пространство с уникальными офисными стульями JoinMe от Dauphin, производителя мебели из Германии. Разработанные известным дизайнером Мартином Баллендатом, эти стулья сочетают в себе комфорт и практичность, идеально подходя для современных офисных пространств.
-Их компактный дизайн с складывающейся сидушкой и колесиками обеспечивает максимальную мобильность и экономию места. Они легко вставляются друг в друга, что особенно удобно в небольших офисах.
-Офисные стулья JoinMe идеально подходят для конференц-залов благодаря своей эргономичности и удобству. Мягкая сидушка и поддерживающая спину форма обеспечивают комфорт даже при долгих переговорах.
-Сделанные из высококачественных и прочных материалов, эти стулья обещают долгий срок службы, что делает их незаменимым активом для вашего офиса.
-Цена: 5000 за 1шт.
-Количество: 20шт.
+    <t xml:space="preserve">Стулья кухонные
+Банкетные стулья в стиле барокко на деревянном каркасе — идеальный выбор для тех, кто ценит роскошь и элегантность. Мягкое сиденье обеспечивает комфорт, а прочная деревянная спинка с классическими изгибами подчеркивает изысканность и статус интерьера. Барочные детали и плавные линии каркаса создают атмосферу королевской роскоши, делая эти стулья отличным дополнением для банкетных залов, ресторанов или залов для торжественных мероприятий. Они не только эстетически привлекательны, но и долговечны, благодаря использованию натуральных материалов и качественной отделки.
+Цвет: бежевый
+Цена 4 000
+Количество уточняйте
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    ➕ Наш телеграмм канал – office comfort es
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
   </si>
   <si>
     <t>Стул офисный
-Артикул 20455
-Описание 💼 Наши недорогие офисные стулья для приемной предлагают оптимальное соотношение цены и качества. Пластиковые подлокотники обеспечивают удобную поддержку для ваших рук, а кожзаменительная обивка придает стулу изысканный вид без увеличения бюджета. Так как мы сами обшиваем кресла новым кожзамом они имеют идеальное состояние. 🏢 Эти стулья хорошо подходят для любой приемной благодаря своему стильному дизайну и ненавязчивой элегантности. Они легки в уходе и частично разбираются, что значительно повышает удобство и сохранность при перевозках и перемещении.
-Цвет чёрный
-Цена 4000
-Количество 5
+Стулья в ткани 
+Цена: 2100
+Артикул: 20379
+Материал: кож зам
+Цена: хромированные ноги - 2499. Черные-2299
+Цвет: черный, коричневый, белый, синий, красный, голубой 
+Наличие: уточняйте
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стул кресло для конференц зала 
-Артикул 20391
-Описание Стул кресло удобное и практичное конференц-кресло, которое отлично подойдет для оформления конференц-залов, офисных приемок.
-Обивка. В качестве обивки была выбрана искусственная кожа – наиболее популярный и бюджетный обивочный материал, прочный, эластичный, простой в уходе.
-Основа. П-образный каркас изогнут из металлической цельной трубы. Хромированные элементы не потеряют свою красоту со временем, ведь покрытие очень крепкое и устойчивое к всевозможным внешним факторам. Форма основания позволяет креслу немного пружинить, создавая эффект легкого покачивания.
-Цвет чёрный.
-Цена 4000, 3500 - без подлокотников
-Количество 7
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Офисный стул самба
-Артикул 20433
-Описание: Кресло для конференц зала от известного производителя Chairman. Кожаное кресло самба с деревянными подлокотниками стильное и прочное кресло зарекомендовало себя, как одно из лучших кресел для офиса.
-Цвет: чёрный, бежевый и белый 
-Цена: 5000
-Количество: 16
-В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стул офисный
-Артикул 20455
-Описание: Стул для посетителей и гостей от компании Haworth. Офисные стулья выполнены и качественного материала с продвинутыми технологиями производства. Несмотря на их простоту они очень удобные, мягкий пластик и эргономика стула сделаны для поддержания вашего естественного положения. Так же на стульях есть пластиковая защита от царапин, что бы ножки не изнашивались когда стулья стоят друг на друге 
-Цена 4000
-Количество 15 шт
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Офисный стул для конференц зала
-Артикул 20457
-Описание: Офисные стулья для переговоров в отличном состоянии. Стулья на крепком металлическом каркасе и спинкой из мягкго пластика. Стул-кресло обладает хорошей эргономикой и создаёт полный комфорт во время сидения.
-Цвет: оранжевый
-Цена: 6000
-Количество: 22-16=6
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            ➕ Наш телеграмм канал – office comfort es
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Арт: 20379
+Материал: кож зам
+Каркас: хром 
+Цена: 2499руб.
+Наличие: уточняйте 
 В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 🔥 Система больших скидок действует при опте и в праздничные дни 
@@ -328,12 +354,12 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стулья офисные
-Артикул 20446 
-Описание: стулья от компании Haworth отличается прочность и компактностью. 
-Цвет: черный
-Цена: 6 999 за шт. 
-Количество: 9 шт.
+    <t>Стулья Изо от 2100 до 2800
+Арт: 20379
+Материал: кож зам
+Цена: хромированные ноги - 2499. Черные-2299
+Цвет: черный, коричневый, белый, синий, красный, голубой 
+Наличие: уточняйте
 В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 🔥 Система больших скидок действует при опте и в праздничные дни 
@@ -351,11 +377,11 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стул офисный
-Артикул 20446
-Описание стул кресло в отличном состоянии. Стулья Немецкой компании Haworth, высококачественные и удобные.
-Цена 5000
-Количество 4
+    <t>Арт: 20385
+Материал: ткань
+Каркас: металл черный матовый 
+Цена: Стулья Изо от 2100 до 2800
+Цвета: черный                                                                                          Наличие: 21
 В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 🔥 Система больших скидок действует при опте и в праздничные дни 
@@ -418,81 +444,14 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стулья Изо от 2100 до 2800
-Арт: 20379
-Материал: кож зам
-Цена: хромированные ноги - 2499. Черные-2299
-Цвет: черный, коричневый, белый, синий, красный, голубой 
-Наличие: уточняйте
-В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Арт: 20385
-Материал: ткань
-Каркас: металл черный матовый 
-Цена: Стулья Изо от 2100 до 2800
-Цвета: черный                                                                                          Наличие: 21
-В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Арт: 20379
-Материал: кож зам
-Каркас: хром 
-Цена: 2499руб.
-Наличие: уточняйте 
-В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стулья для посетителей
-Описание Удобные и стильные кресла для офисов они хорошо впишутся в любые современные дизаны офисных помещений и будут подчеркивать ваш хороший вкус и заботу о посетителях.
-Размеры сидения: Ширина - 60 см
-Глубина - 50 см
-Высота - 45
-Цвет: серый, бежевый, коричневый, жёлтый, зелёный 
-Цена: 1 500
-Количество: 6
+    <t>Стул кресло для конференц зала 
+Артикул 20391
+Описание Стул кресло удобное и практичное конференц-кресло, которое отлично подойдет для оформления конференц-залов, офисных приемок.
+Обивка. В качестве обивки была выбрана искусственная кожа – наиболее популярный и бюджетный обивочный материал, прочный, эластичный, простой в уходе.
+Основа. П-образный каркас изогнут из металлической цельной трубы. Хромированные элементы не потеряют свою красоту со временем, ведь покрытие очень крепкое и устойчивое к всевозможным внешним факторам. Форма основания позволяет креслу немного пружинить, создавая эффект легкого покачивания.
+Цвет чёрный.
+Цена 4000, 3500 - без подлокотников
+Количество 7
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
@@ -506,27 +465,24 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Кресло кожаное финской фирмы "pohjanmaan" 
-Описание
-Цвет коричневый
-Цена: 15000
-Количество: 1
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
+    <t>Офисный стул самба
+Артикул 20433
+Описание: Кресло для конференц зала от известного производителя Chairman. Кожаное кресло самба с деревянными подлокотниками стильное и прочное кресло зарекомендовало себя, как одно из лучших кресел для офиса.
+Цвет: чёрный, бежевый и белый 
+Цена: 5000
+Количество: 16
+В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t xml:space="preserve">Офисное стул-кресло
@@ -556,108 +512,209 @@
     </t>
   </si>
   <si>
+    <t>Стулья офисные
+Артикул 20446 
+Описание: стулья от компании Haworth отличается прочность и компактностью. 
+Цвет: черный
+Цена: 6 999 за шт. 
+Количество: 9 шт.
+В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>Стул офисный
-Стулья в ткани 
-Цена: 2100
-Артикул: 20379
-Материал: кож зам
-Цена: хромированные ноги - 2499. Черные-2299
-Цвет: черный, коричневый, белый, синий, красный, голубой 
-Наличие: уточняйте
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
+Артикул 20446
+Описание стул кресло в отличном состоянии. Стулья Немецкой компании Haworth, высококачественные и удобные.
+Цена 5000
+Количество 4
+В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стулья банкетные 
-Изысканные банкетные стулья в стиле барокко станут ярким украшением вашего интерьера, добавив ему роскоши и изящества. Стулья выполнены на прочном деревянном каркасе, а мягкие сиденье и спинка, обтянутые тканью с элегантными узорами, обеспечивают комфорт и стильный вид. Барочные изгибы, плавные линии и декоративные детали подчеркивают классический дизайн, идеально подходящий для банкетных залов, ресторанов и особых мероприятий. Эти стулья создадут атмосферу утонченности и королевской элегантности, делая каждое событие незабываемым.
-Цвет коричневый 
-Цена 5 000
-Количество уточняйте
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стул офисный
+Артикул 20455
+Описание: Стул для посетителей и гостей от компании Haworth. Офисные стулья выполнены и качественного материала с продвинутыми технологиями производства. Несмотря на их простоту они очень удобные, мягкий пластик и эргономика стула сделаны для поддержания вашего естественного положения. Так же на стульях есть пластиковая защита от царапин, что бы ножки не изнашивались когда стулья стоят друг на друге 
+Цена 4000
+Количество 15 шт
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стулья кухонные
-Банкетные стулья в стиле барокко на деревянном каркасе — идеальный выбор для тех, кто ценит роскошь и элегантность. Мягкое сиденье обеспечивает комфорт, а прочная деревянная спинка с классическими изгибами подчеркивает изысканность и статус интерьера. Барочные детали и плавные линии каркаса создают атмосферу королевской роскоши, делая эти стулья отличным дополнением для банкетных залов, ресторанов или залов для торжественных мероприятий. Они не только эстетически привлекательны, но и долговечны, благодаря использованию натуральных материалов и качественной отделки.
-Цвет: бежевый
-Цена 4 000
-Количество уточняйте
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стул офисный
+Артикул 20455
+Описание 💼 Наши недорогие офисные стулья для приемной предлагают оптимальное соотношение цены и качества. Пластиковые подлокотники обеспечивают удобную поддержку для ваших рук, а кожзаменительная обивка придает стулу изысканный вид без увеличения бюджета. Так как мы сами обшиваем кресла новым кожзамом они имеют идеальное состояние. 🏢 Эти стулья хорошо подходят для любой приемной благодаря своему стильному дизайну и ненавязчивой элегантности. Они легки в уходе и частично разбираются, что значительно повышает удобство и сохранность при перевозках и перемещении.
+Цвет чёрный
+Цена 4000
+Количество 5
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Барный стул старинный
-Описание
-Высота сидения: 73 см
-Цвет: коричневый
-Цена: 5 000
-Количество: 8 шт
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Офисный стул для конференц зала
+Артикул 20457
+Описание: Офисные стулья для переговоров в отличном состоянии. Стулья на крепком металлическом каркасе и спинкой из мягкго пластика. Стул-кресло обладает хорошей эргономикой и создаёт полный комфорт во время сидения.
+Цвет: оранжевый
+Цена: 6000
+Количество: 22-16=6
+В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
+🔥 Система больших скидок действует при опте и в праздничные дни 
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стул офисный для конференц зала
+Артикул (20462)
+Описание: Обновите свое офисное пространство с классическими стульями для конференций от известного австрийского производителя BENE. Изысканный дизайн, эргономичная форма и эффект качания делают эти стулья идеальным выбором для комфортных и продуктивных совещаний. Сочетание стильного оттенка бардо и высокого качества исполнения придадут вашему офису неповторимый шарм и элегантность.
+Цена: 5000 за 1 шт.
+Количество: 8шт (в обработке примерно 30шт).
+В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стул-кресло для конференц зала
+Артикул (20463)
+Описание Обогатите свое рабочее пространство с уникальными офисными стульями JoinMe от Dauphin, производителя мебели из Германии. Разработанные известным дизайнером Мартином Баллендатом, эти стулья сочетают в себе комфорт и практичность, идеально подходя для современных офисных пространств.
+Их компактный дизайн с складывающейся сидушкой и колесиками обеспечивает максимальную мобильность и экономию места. Они легко вставляются друг в друга, что особенно удобно в небольших офисах.
+Офисные стулья JoinMe идеально подходят для конференц-залов благодаря своей эргономичности и удобству. Мягкая сидушка и поддерживающая спину форма обеспечивают комфорт даже при долгих переговорах.
+Сделанные из высококачественных и прочных материалов, эти стулья обещают долгий срок службы, что делает их незаменимым активом для вашего офиса.
+Цена: 5000 за 1шт.
+Количество: 20шт.
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – 
+Офис комфорт Одинцово 
+➕ Наш телеграмм канал – office comfort es
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+-------------------------------------------------------------------
+Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/8qQyhp9ult7diw | https://disk.yandex.ru/i/uE-RYkadNO6TyA | https://disk.yandex.ru/i/Qx_3jFDLLFRLXw | https://disk.yandex.ru/i/o2V8urwcWcjJIg | https://disk.yandex.ru/i/tosFQ9mVA3fR3A | https://disk.yandex.ru/i/cyQHvA9Tr1vyCQ | https://disk.yandex.ru/i/KvuDWEfi_ogKTw | https://disk.yandex.ru/i/M7aGqLLzIKPEig</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/YWdl65lMCegdMA | https://disk.yandex.ru/i/JOf3YXjaKaUyuQ | https://disk.yandex.ru/i/uATDwnGmvEEDFA | https://disk.yandex.ru/i/C7ji38jspxLYZg | https://disk.yandex.ru/i/usJJZ2PsXpgpkA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/RTRiJ7pVJobLrA | https://disk.yandex.ru/i/SUlGZ_ZyZGXRCw | https://disk.yandex.ru/i/fSDefBma1gUPbQ | https://disk.yandex.ru/i/Jjq-qNgGkKYuUQ | https://disk.yandex.ru/i/gsP9_Va05EbaNQ | https://disk.yandex.ru/i/66-EFz-aqV1ndQ | https://disk.yandex.ru/i/kV9NfaCvSPuiNg | https://disk.yandex.ru/i/qg0rVOgQWgumOQ | https://disk.yandex.ru/i/r4U6e35o5KIBLg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/9MJAZWihFff__A | https://disk.yandex.ru/i/BVmp-9BevPVH4Q | https://disk.yandex.ru/i/1zQp-Ok_knDY7g | https://disk.yandex.ru/i/RfaYfeS-_6losg | https://disk.yandex.ru/i/LA_p9xPDQ1NRfA | https://disk.yandex.ru/i/k_FfmYzumnv8cw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/WOJF7EXecYod8g | https://disk.yandex.ru/i/EZG7wqDbUEWe-g | https://disk.yandex.ru/i/9jVzshCPuJfy7g | https://disk.yandex.ru/i/NIAFSSyOZEabkA | https://disk.yandex.ru/i/J4jB8FnMqRTwDg | https://disk.yandex.ru/i/iAScFT85u0QQoQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/tgGrAGYJybtxew | https://disk.yandex.ru/i/Fww11MmQ8K9jCQ | https://disk.yandex.ru/i/33ZWWZ9W_W6pRA | https://disk.yandex.ru/i/rdPNqyJ7D1L1fw | https://disk.yandex.ru/i/7s_36goJbJeVQw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7s_36goJbJeVQw | https://disk.yandex.ru/i/S-YgMAhhphso8g | https://disk.yandex.ru/i/ymIxpa36BHReCw | https://disk.yandex.ru/i/WZIK2ZhgJCew0w | https://disk.yandex.ru/i/JoqUZ_JnYCAYjQ | https://disk.yandex.ru/i/nEDZklih1yaY_g | https://disk.yandex.ru/i/8oXe65fQRcMh7A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/rdPNqyJ7D1L1fw | https://disk.yandex.ru/i/InQAvyQOYJM_bQ | https://disk.yandex.ru/i/FALBWBd2gTWvHw | https://disk.yandex.ru/i/k-IJX1nraxqpKw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/yDACQ-_MxWT-iA | https://disk.yandex.ru/i/CWqCHMcdvjyOnA | https://disk.yandex.ru/i/dL1Syu7s2-UPuA | https://disk.yandex.ru/i/yUaLoCVM3lR_Tw | https://disk.yandex.ru/i/p1ehepcN3NiwVQ | https://disk.yandex.ru/i/ggfA5uiuM2iMRw | https://disk.yandex.ru/i/jwDKK1Dl5SLhwQ | https://disk.yandex.ru/i/EexZKqsoeFL1rw | https://disk.yandex.ru/i/kUu89nfreRXg_Q | https://disk.yandex.ru/i/DugAW5XO_9cZpQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/CtGr-ZPkjM5Q2A | https://disk.yandex.ru/i/Boh3O8L64NCGZA | https://disk.yandex.ru/i/sbQreYOfg1OoSQ | https://disk.yandex.ru/i/WsSNsIqMk0Bfhg | https://disk.yandex.ru/i/jpTfxqGzBhHZwA | https://disk.yandex.ru/i/ix11X_Vk2xSLiQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/1TdoUhVDEW_urw | https://disk.yandex.ru/i/WP6OFB8_g8Lm2g | https://disk.yandex.ru/i/-vBvSkGwZK_LRQ | https://disk.yandex.ru/i/YN6zmmHN15mOmQ | https://disk.yandex.ru/i/aISOlpG5Vw5ZhA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/FmS1JoBXjc4FAA | https://disk.yandex.ru/i/4fHOp1u3uZQmWw | https://disk.yandex.ru/i/zq8TCxKOdBe5jA | https://disk.yandex.ru/i/bYcFAKIxE-l7fg | https://disk.yandex.ru/i/CWaG6C89S-oBCA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qkABNUdtNGvtOg | https://disk.yandex.ru/i/OBn4_H-VfLWobw | https://disk.yandex.ru/i/0rMR7zyZ9P1k-w | https://disk.yandex.ru/i/mqvIQWTRZ6j7pw | https://disk.yandex.ru/i/VZMDQzMNPJ4F1w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/IEV1K1R1GTj15w | https://disk.yandex.ru/i/MsXVUujJ7_OZSw | https://disk.yandex.ru/i/o3UUq--qSSUS2w | https://disk.yandex.ru/i/HA_chsQLjUQg7w | https://disk.yandex.ru/i/Mw9-ouUVfhJqwA | https://disk.yandex.ru/i/O6mgGQlShnMcEA | https://disk.yandex.ru/i/o7XOOjRhS1wV3Q | https://disk.yandex.ru/i/M8EXKMjxgpeLCg | https://disk.yandex.ru/i/5UD3IjBwj3niMA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/P_p8J06Oomnk7A | https://disk.yandex.ru/i/5oITHfSBAjT20A | https://disk.yandex.ru/i/qBTL7XLtrg9Tfw | https://disk.yandex.ru/i/T-x8JOltu6b6kA | https://disk.yandex.ru/i/2sMoO6NIy-tRRw | https://disk.yandex.ru/i/veUIyKIfUEIRVA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OaeAzWDAmvo5HQ | https://disk.yandex.ru/i/-lvf7ogjfI4iQA | https://disk.yandex.ru/i/51-rW-3ilxJTVw | https://disk.yandex.ru/i/-td07XVsNrkoDQ | https://disk.yandex.ru/i/1MdvqkNIFLrycw | https://disk.yandex.ru/i/-pWAfmNH7iJP5g | https://disk.yandex.ru/i/cbzowl4N5cBeVQ | https://disk.yandex.ru/i/LJhP50v1sEzADQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ZTHyPWRR8U6O_Q | https://disk.yandex.ru/i/jclwedPVNGspAg | https://disk.yandex.ru/i/86K35Lc7zpR3sw | https://disk.yandex.ru/i/kskt503D7Cx8VA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/p2NV328NZRV99A | https://disk.yandex.ru/i/eh70odbG8D1UmA | https://disk.yandex.ru/i/7tnVtvXkbfTsTw | https://disk.yandex.ru/i/jO2YMcrw14LrjQ | https://disk.yandex.ru/i/7NSkUeqYzcXU0g | https://disk.yandex.ru/i/HWLJd-aOSlhWDQ</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/SYn1o_GuQH4uJg | https://disk.yandex.ru/i/ZV2mLC996r4JAw | https://disk.yandex.ru/i/1YQ_dR2AivDsfQ | https://disk.yandex.ru/i/EVzfN0HeNHlXSA | https://disk.yandex.ru/i/PAS00s7vnPCnjQ | https://disk.yandex.ru/i/hKR7Y3J0ZfzK_w | https://disk.yandex.ru/i/Tf2mmK_LR7NzOA</t>
@@ -666,63 +723,6 @@
     <t>https://disk.yandex.ru/i/fsqVdDo-x0xbqQ | https://disk.yandex.ru/i/l4VUzFj4ptIzbA | https://disk.yandex.ru/i/fNfaOnPS-2SqMQ | https://disk.yandex.ru/i/IJpFJVJ2JUsnwQ | https://disk.yandex.ru/i/uNKf2aunGKw0wg | https://disk.yandex.ru/i/NsYKi8YpUPY6Dg | https://disk.yandex.ru/i/ksc-z-bORyfjiQ | https://disk.yandex.ru/i/p-LK5M1xVYDxkQ | https://disk.yandex.ru/i/GF2g_DKFzZ9ldw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/ZTHyPWRR8U6O_Q | https://disk.yandex.ru/i/jclwedPVNGspAg | https://disk.yandex.ru/i/86K35Lc7zpR3sw | https://disk.yandex.ru/i/kskt503D7Cx8VA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/1TdoUhVDEW_urw | https://disk.yandex.ru/i/WP6OFB8_g8Lm2g | https://disk.yandex.ru/i/-vBvSkGwZK_LRQ | https://disk.yandex.ru/i/YN6zmmHN15mOmQ | https://disk.yandex.ru/i/aISOlpG5Vw5ZhA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/FmS1JoBXjc4FAA | https://disk.yandex.ru/i/4fHOp1u3uZQmWw | https://disk.yandex.ru/i/zq8TCxKOdBe5jA | https://disk.yandex.ru/i/bYcFAKIxE-l7fg | https://disk.yandex.ru/i/CWaG6C89S-oBCA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/OaeAzWDAmvo5HQ | https://disk.yandex.ru/i/-lvf7ogjfI4iQA | https://disk.yandex.ru/i/51-rW-3ilxJTVw | https://disk.yandex.ru/i/-td07XVsNrkoDQ | https://disk.yandex.ru/i/1MdvqkNIFLrycw | https://disk.yandex.ru/i/-pWAfmNH7iJP5g | https://disk.yandex.ru/i/cbzowl4N5cBeVQ | https://disk.yandex.ru/i/LJhP50v1sEzADQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/p2NV328NZRV99A | https://disk.yandex.ru/i/eh70odbG8D1UmA | https://disk.yandex.ru/i/7tnVtvXkbfTsTw | https://disk.yandex.ru/i/jO2YMcrw14LrjQ | https://disk.yandex.ru/i/7NSkUeqYzcXU0g | https://disk.yandex.ru/i/HWLJd-aOSlhWDQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/IEV1K1R1GTj15w | https://disk.yandex.ru/i/MsXVUujJ7_OZSw | https://disk.yandex.ru/i/o3UUq--qSSUS2w | https://disk.yandex.ru/i/HA_chsQLjUQg7w | https://disk.yandex.ru/i/Mw9-ouUVfhJqwA | https://disk.yandex.ru/i/O6mgGQlShnMcEA | https://disk.yandex.ru/i/o7XOOjRhS1wV3Q | https://disk.yandex.ru/i/M8EXKMjxgpeLCg | https://disk.yandex.ru/i/5UD3IjBwj3niMA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/P_p8J06Oomnk7A | https://disk.yandex.ru/i/5oITHfSBAjT20A | https://disk.yandex.ru/i/qBTL7XLtrg9Tfw | https://disk.yandex.ru/i/T-x8JOltu6b6kA | https://disk.yandex.ru/i/2sMoO6NIy-tRRw | https://disk.yandex.ru/i/veUIyKIfUEIRVA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/yDACQ-_MxWT-iA | https://disk.yandex.ru/i/CWqCHMcdvjyOnA | https://disk.yandex.ru/i/dL1Syu7s2-UPuA | https://disk.yandex.ru/i/yUaLoCVM3lR_Tw | https://disk.yandex.ru/i/p1ehepcN3NiwVQ | https://disk.yandex.ru/i/ggfA5uiuM2iMRw | https://disk.yandex.ru/i/jwDKK1Dl5SLhwQ | https://disk.yandex.ru/i/EexZKqsoeFL1rw | https://disk.yandex.ru/i/kUu89nfreRXg_Q | https://disk.yandex.ru/i/DugAW5XO_9cZpQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/CtGr-ZPkjM5Q2A | https://disk.yandex.ru/i/Boh3O8L64NCGZA | https://disk.yandex.ru/i/sbQreYOfg1OoSQ | https://disk.yandex.ru/i/WsSNsIqMk0Bfhg | https://disk.yandex.ru/i/jpTfxqGzBhHZwA | https://disk.yandex.ru/i/ix11X_Vk2xSLiQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/7s_36goJbJeVQw | https://disk.yandex.ru/i/S-YgMAhhphso8g | https://disk.yandex.ru/i/ymIxpa36BHReCw | https://disk.yandex.ru/i/WZIK2ZhgJCew0w | https://disk.yandex.ru/i/JoqUZ_JnYCAYjQ | https://disk.yandex.ru/i/nEDZklih1yaY_g | https://disk.yandex.ru/i/8oXe65fQRcMh7A</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/rdPNqyJ7D1L1fw | https://disk.yandex.ru/i/InQAvyQOYJM_bQ | https://disk.yandex.ru/i/FALBWBd2gTWvHw | https://disk.yandex.ru/i/k-IJX1nraxqpKw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/tgGrAGYJybtxew | https://disk.yandex.ru/i/Fww11MmQ8K9jCQ | https://disk.yandex.ru/i/33ZWWZ9W_W6pRA | https://disk.yandex.ru/i/rdPNqyJ7D1L1fw | https://disk.yandex.ru/i/7s_36goJbJeVQw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/RTRiJ7pVJobLrA | https://disk.yandex.ru/i/SUlGZ_ZyZGXRCw | https://disk.yandex.ru/i/fSDefBma1gUPbQ | https://disk.yandex.ru/i/Jjq-qNgGkKYuUQ | https://disk.yandex.ru/i/gsP9_Va05EbaNQ | https://disk.yandex.ru/i/66-EFz-aqV1ndQ | https://disk.yandex.ru/i/kV9NfaCvSPuiNg | https://disk.yandex.ru/i/qg0rVOgQWgumOQ | https://disk.yandex.ru/i/r4U6e35o5KIBLg</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qkABNUdtNGvtOg | https://disk.yandex.ru/i/OBn4_H-VfLWobw | https://disk.yandex.ru/i/0rMR7zyZ9P1k-w | https://disk.yandex.ru/i/mqvIQWTRZ6j7pw | https://disk.yandex.ru/i/VZMDQzMNPJ4F1w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/WOJF7EXecYod8g | https://disk.yandex.ru/i/EZG7wqDbUEWe-g | https://disk.yandex.ru/i/9jVzshCPuJfy7g | https://disk.yandex.ru/i/NIAFSSyOZEabkA | https://disk.yandex.ru/i/J4jB8FnMqRTwDg | https://disk.yandex.ru/i/iAScFT85u0QQoQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/YWdl65lMCegdMA | https://disk.yandex.ru/i/JOf3YXjaKaUyuQ | https://disk.yandex.ru/i/uATDwnGmvEEDFA | https://disk.yandex.ru/i/C7ji38jspxLYZg | https://disk.yandex.ru/i/usJJZ2PsXpgpkA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/9MJAZWihFff__A | https://disk.yandex.ru/i/BVmp-9BevPVH4Q | https://disk.yandex.ru/i/1zQp-Ok_knDY7g | https://disk.yandex.ru/i/RfaYfeS-_6losg | https://disk.yandex.ru/i/LA_p9xPDQ1NRfA | https://disk.yandex.ru/i/k_FfmYzumnv8cw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/8qQyhp9ult7diw | https://disk.yandex.ru/i/uE-RYkadNO6TyA | https://disk.yandex.ru/i/Qx_3jFDLLFRLXw | https://disk.yandex.ru/i/o2V8urwcWcjJIg | https://disk.yandex.ru/i/tosFQ9mVA3fR3A | https://disk.yandex.ru/i/cyQHvA9Tr1vyCQ | https://disk.yandex.ru/i/KvuDWEfi_ogKTw | https://disk.yandex.ru/i/M7aGqLLzIKPEig</t>
-  </si>
-  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -732,82 +732,82 @@
     <t>Столы и стулья</t>
   </si>
   <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
     <t>Товар приобретен на продажу</t>
   </si>
   <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
     <t>Б/у</t>
   </si>
   <si>
     <t>В наличии</t>
   </si>
   <si>
+    <t>Коричневый</t>
+  </si>
+  <si>
+    <t>Оранжевый</t>
+  </si>
+  <si>
+    <t>Разноцветный</t>
+  </si>
+  <si>
+    <t>Бежевый</t>
+  </si>
+  <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
     <t>Бордовый</t>
   </si>
   <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Оранжевый</t>
-  </si>
-  <si>
-    <t>Красный</t>
-  </si>
-  <si>
-    <t>Разноцветный</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
-    <t>Бежевый</t>
-  </si>
-  <si>
     <t>Стулья</t>
   </si>
   <si>
     <t>Ткань</t>
   </si>
   <si>
+    <t>Кожа</t>
+  </si>
+  <si>
     <t>Замша</t>
   </si>
   <si>
-    <t>Кожа</t>
-  </si>
-  <si>
     <t>Искусственная кожа</t>
   </si>
   <si>
+    <t>Дерево</t>
+  </si>
+  <si>
     <t>Металл</t>
   </si>
   <si>
+    <t>Металл | ДСП</t>
+  </si>
+  <si>
     <t>Металл | Пластик</t>
   </si>
   <si>
-    <t>Металл | ДСП</t>
-  </si>
-  <si>
-    <t>Дерево</t>
+    <t>Мягкое сидение</t>
+  </si>
+  <si>
+    <t>Мягкое сидение | Мягкая спинка</t>
   </si>
   <si>
     <t>Подлокотники | Мягкое сидение | Мягкая спинка</t>
   </si>
   <si>
     <t>Подлокотники | Колёсики | Мягкое сидение | Мягкая спинка</t>
-  </si>
-  <si>
-    <t>Мягкое сидение | Мягкая спинка</t>
-  </si>
-  <si>
-    <t>Мягкое сидение</t>
   </si>
 </sst>
 </file>
@@ -902,9 +902,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -942,9 +942,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -977,9 +977,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1012,9 +1029,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1320,7 +1354,7 @@
         <v>54</v>
       </c>
       <c r="F2">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>75</v>
@@ -1329,7 +1363,7 @@
         <v>96</v>
       </c>
       <c r="K2">
-        <v>20462</v>
+        <v>1</v>
       </c>
       <c r="S2" t="s">
         <v>97</v>
@@ -1347,9 +1381,6 @@
         <v>102</v>
       </c>
       <c r="AE2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AF2" t="s">
         <v>103</v>
       </c>
       <c r="AH2" t="s">
@@ -1373,7 +1404,7 @@
         <v>55</v>
       </c>
       <c r="F3">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>76</v>
@@ -1382,7 +1413,7 @@
         <v>96</v>
       </c>
       <c r="K3">
-        <v>20463</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
         <v>97</v>
@@ -1402,9 +1433,6 @@
       <c r="AE3" t="s">
         <v>104</v>
       </c>
-      <c r="AF3" t="s">
-        <v>104</v>
-      </c>
       <c r="AH3" t="s">
         <v>112</v>
       </c>
@@ -1412,7 +1440,7 @@
         <v>113</v>
       </c>
       <c r="AJ3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AL3" t="s">
         <v>122</v>
@@ -1426,7 +1454,7 @@
         <v>56</v>
       </c>
       <c r="F4">
-        <v>3999</v>
+        <v>15000</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>77</v>
@@ -1435,7 +1463,7 @@
         <v>96</v>
       </c>
       <c r="K4">
-        <v>20455</v>
+        <v>1</v>
       </c>
       <c r="S4" t="s">
         <v>97</v>
@@ -1453,10 +1481,10 @@
         <v>102</v>
       </c>
       <c r="AE4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AH4" t="s">
         <v>112</v>
@@ -1468,7 +1496,7 @@
         <v>117</v>
       </c>
       <c r="AL4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:38" x14ac:dyDescent="0.25">
@@ -1479,7 +1507,7 @@
         <v>57</v>
       </c>
       <c r="F5">
-        <v>3499</v>
+        <v>1499</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>78</v>
@@ -1488,7 +1516,7 @@
         <v>96</v>
       </c>
       <c r="K5">
-        <v>20391</v>
+        <v>1</v>
       </c>
       <c r="S5" t="s">
         <v>97</v>
@@ -1497,7 +1525,7 @@
         <v>98</v>
       </c>
       <c r="AB5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC5" t="s">
         <v>101</v>
@@ -1515,13 +1543,13 @@
         <v>112</v>
       </c>
       <c r="AI5" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:38" x14ac:dyDescent="0.25">
@@ -1532,7 +1560,7 @@
         <v>58</v>
       </c>
       <c r="F6">
-        <v>4999</v>
+        <v>4000</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>79</v>
@@ -1541,7 +1569,7 @@
         <v>96</v>
       </c>
       <c r="K6">
-        <v>20433</v>
+        <v>1</v>
       </c>
       <c r="S6" t="s">
         <v>97</v>
@@ -1559,22 +1587,19 @@
         <v>102</v>
       </c>
       <c r="AE6" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AH6" t="s">
         <v>112</v>
       </c>
       <c r="AI6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s">
         <v>117</v>
       </c>
       <c r="AL6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
@@ -1585,7 +1610,7 @@
         <v>59</v>
       </c>
       <c r="F7">
-        <v>3999</v>
+        <v>2100</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>80</v>
@@ -1594,7 +1619,7 @@
         <v>96</v>
       </c>
       <c r="K7">
-        <v>20455</v>
+        <v>20379</v>
       </c>
       <c r="S7" t="s">
         <v>97</v>
@@ -1612,33 +1637,30 @@
         <v>102</v>
       </c>
       <c r="AE7" t="s">
-        <v>105</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH7" t="s">
         <v>112</v>
       </c>
       <c r="AI7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>60</v>
       </c>
       <c r="F8">
-        <v>5999</v>
+        <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>81</v>
@@ -1647,7 +1669,7 @@
         <v>96</v>
       </c>
       <c r="K8">
-        <v>20457</v>
+        <v>20379</v>
       </c>
       <c r="S8" t="s">
         <v>97</v>
@@ -1656,7 +1678,7 @@
         <v>98</v>
       </c>
       <c r="AB8" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC8" t="s">
         <v>101</v>
@@ -1665,33 +1687,33 @@
         <v>102</v>
       </c>
       <c r="AE8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AF8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AH8" t="s">
         <v>112</v>
       </c>
       <c r="AI8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ8" t="s">
         <v>118</v>
       </c>
       <c r="AL8" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>61</v>
       </c>
       <c r="F9">
-        <v>6999</v>
+        <v>2499</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>82</v>
@@ -1700,7 +1722,7 @@
         <v>96</v>
       </c>
       <c r="K9">
-        <v>20446</v>
+        <v>20379</v>
       </c>
       <c r="S9" t="s">
         <v>97</v>
@@ -1709,7 +1731,7 @@
         <v>98</v>
       </c>
       <c r="AB9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC9" t="s">
         <v>101</v>
@@ -1727,24 +1749,24 @@
         <v>112</v>
       </c>
       <c r="AI9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ9" t="s">
         <v>118</v>
       </c>
       <c r="AL9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="E10" t="s">
         <v>62</v>
       </c>
       <c r="F10">
-        <v>4999</v>
+        <v>2099</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>83</v>
@@ -1753,7 +1775,7 @@
         <v>96</v>
       </c>
       <c r="K10">
-        <v>20446</v>
+        <v>20385</v>
       </c>
       <c r="S10" t="s">
         <v>97</v>
@@ -1762,7 +1784,7 @@
         <v>98</v>
       </c>
       <c r="AB10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC10" t="s">
         <v>101</v>
@@ -1771,27 +1793,27 @@
         <v>102</v>
       </c>
       <c r="AE10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH10" t="s">
         <v>112</v>
       </c>
       <c r="AI10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ10" t="s">
         <v>118</v>
       </c>
       <c r="AL10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
         <v>63</v>
@@ -1815,7 +1837,7 @@
         <v>98</v>
       </c>
       <c r="AB11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC11" t="s">
         <v>101</v>
@@ -1824,27 +1846,27 @@
         <v>102</v>
       </c>
       <c r="AE11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AF11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AH11" t="s">
         <v>112</v>
       </c>
       <c r="AI11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ11" t="s">
         <v>119</v>
       </c>
       <c r="AL11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>64</v>
@@ -1868,7 +1890,7 @@
         <v>98</v>
       </c>
       <c r="AB12" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC12" t="s">
         <v>101</v>
@@ -1877,33 +1899,33 @@
         <v>102</v>
       </c>
       <c r="AE12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AH12" t="s">
         <v>112</v>
       </c>
       <c r="AI12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
         <v>65</v>
       </c>
       <c r="F13">
-        <v>2499</v>
+        <v>3499</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>86</v>
@@ -1912,7 +1934,7 @@
         <v>96</v>
       </c>
       <c r="K13">
-        <v>20379</v>
+        <v>20391</v>
       </c>
       <c r="S13" t="s">
         <v>97</v>
@@ -1921,7 +1943,7 @@
         <v>98</v>
       </c>
       <c r="AB13" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC13" t="s">
         <v>101</v>
@@ -1930,19 +1952,19 @@
         <v>102</v>
       </c>
       <c r="AE13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF13" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH13" t="s">
         <v>112</v>
       </c>
       <c r="AI13" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL13" t="s">
         <v>123</v>
@@ -1950,13 +1972,13 @@
     </row>
     <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
       </c>
       <c r="F14">
-        <v>2099</v>
+        <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>87</v>
@@ -1965,7 +1987,7 @@
         <v>96</v>
       </c>
       <c r="K14">
-        <v>20385</v>
+        <v>20433</v>
       </c>
       <c r="S14" t="s">
         <v>97</v>
@@ -1974,7 +1996,7 @@
         <v>98</v>
       </c>
       <c r="AB14" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC14" t="s">
         <v>101</v>
@@ -1992,24 +2014,24 @@
         <v>112</v>
       </c>
       <c r="AI14" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AJ14" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>67</v>
       </c>
       <c r="F15">
-        <v>2499</v>
+        <v>5000</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>88</v>
@@ -2018,7 +2040,7 @@
         <v>96</v>
       </c>
       <c r="K15">
-        <v>20379</v>
+        <v>20433</v>
       </c>
       <c r="S15" t="s">
         <v>97</v>
@@ -2036,19 +2058,16 @@
         <v>102</v>
       </c>
       <c r="AE15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH15" t="s">
         <v>112</v>
       </c>
       <c r="AI15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJ15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL15" t="s">
         <v>123</v>
@@ -2056,13 +2075,13 @@
     </row>
     <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>68</v>
       </c>
       <c r="F16">
-        <v>1499</v>
+        <v>6999</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>89</v>
@@ -2071,7 +2090,7 @@
         <v>96</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>20446</v>
       </c>
       <c r="S16" t="s">
         <v>97</v>
@@ -2080,7 +2099,7 @@
         <v>98</v>
       </c>
       <c r="AB16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AC16" t="s">
         <v>101</v>
@@ -2089,19 +2108,19 @@
         <v>102</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AF16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH16" t="s">
         <v>112</v>
       </c>
       <c r="AI16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AJ16" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AL16" t="s">
         <v>123</v>
@@ -2109,13 +2128,13 @@
     </row>
     <row r="17" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="E17" t="s">
         <v>69</v>
       </c>
       <c r="F17">
-        <v>15000</v>
+        <v>4999</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>90</v>
@@ -2124,7 +2143,7 @@
         <v>96</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>20446</v>
       </c>
       <c r="S17" t="s">
         <v>97</v>
@@ -2151,24 +2170,24 @@
         <v>112</v>
       </c>
       <c r="AI17" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ17" t="s">
         <v>120</v>
       </c>
       <c r="AL17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>70</v>
       </c>
       <c r="F18">
-        <v>5000</v>
+        <v>3999</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>91</v>
@@ -2177,7 +2196,7 @@
         <v>96</v>
       </c>
       <c r="K18">
-        <v>20433</v>
+        <v>20455</v>
       </c>
       <c r="S18" t="s">
         <v>97</v>
@@ -2195,30 +2214,33 @@
         <v>102</v>
       </c>
       <c r="AE18" t="s">
-        <v>105</v>
+        <v>109</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>109</v>
       </c>
       <c r="AH18" t="s">
         <v>112</v>
       </c>
       <c r="AI18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AJ18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>71</v>
       </c>
       <c r="F19">
-        <v>2100</v>
+        <v>3999</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>92</v>
@@ -2227,7 +2249,7 @@
         <v>96</v>
       </c>
       <c r="K19">
-        <v>20379</v>
+        <v>20455</v>
       </c>
       <c r="S19" t="s">
         <v>97</v>
@@ -2245,16 +2267,19 @@
         <v>102</v>
       </c>
       <c r="AE19" t="s">
-        <v>104</v>
+        <v>109</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>109</v>
       </c>
       <c r="AH19" t="s">
         <v>112</v>
       </c>
       <c r="AI19" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AL19" t="s">
         <v>123</v>
@@ -2262,13 +2287,13 @@
     </row>
     <row r="20" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E20" t="s">
         <v>72</v>
       </c>
       <c r="F20">
-        <v>5000</v>
+        <v>5999</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>93</v>
@@ -2277,7 +2302,7 @@
         <v>96</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>20457</v>
       </c>
       <c r="S20" t="s">
         <v>97</v>
@@ -2295,7 +2320,10 @@
         <v>102</v>
       </c>
       <c r="AE20" t="s">
-        <v>106</v>
+        <v>104</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>104</v>
       </c>
       <c r="AH20" t="s">
         <v>112</v>
@@ -2312,13 +2340,13 @@
     </row>
     <row r="21" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E21" t="s">
         <v>73</v>
       </c>
       <c r="F21">
-        <v>4000</v>
+        <v>4999</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>94</v>
@@ -2327,7 +2355,7 @@
         <v>96</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>20462</v>
       </c>
       <c r="S21" t="s">
         <v>97</v>
@@ -2347,6 +2375,9 @@
       <c r="AE21" t="s">
         <v>111</v>
       </c>
+      <c r="AF21" t="s">
+        <v>111</v>
+      </c>
       <c r="AH21" t="s">
         <v>112</v>
       </c>
@@ -2354,21 +2385,21 @@
         <v>113</v>
       </c>
       <c r="AJ21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E22" t="s">
         <v>74</v>
       </c>
       <c r="F22">
-        <v>5000</v>
+        <v>4999</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>95</v>
@@ -2377,7 +2408,7 @@
         <v>96</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>20463</v>
       </c>
       <c r="S22" t="s">
         <v>97</v>
@@ -2395,7 +2426,10 @@
         <v>102</v>
       </c>
       <c r="AE22" t="s">
-        <v>110</v>
+        <v>107</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>107</v>
       </c>
       <c r="AH22" t="s">
         <v>112</v>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8A2770-3295-4015-A550-CF7D464E436E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="18000" windowHeight="9360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -813,8 +807,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -885,26 +879,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -942,9 +928,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -976,27 +962,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1028,27 +996,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1221,1273 +1171,1334 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AL22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:39">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D2" t="s">
+    <row r="2" spans="1:39">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
         <v>38</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>54</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>5000</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>97</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>98</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>99</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>101</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>102</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AF2" t="s">
         <v>103</v>
       </c>
-      <c r="AH2" t="s">
+      <c r="AI2" t="s">
         <v>112</v>
       </c>
-      <c r="AI2" t="s">
+      <c r="AJ2" t="s">
         <v>113</v>
       </c>
-      <c r="AJ2" t="s">
+      <c r="AK2" t="s">
         <v>117</v>
       </c>
-      <c r="AL2" t="s">
+      <c r="AM2" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D3" t="s">
+    <row r="3" spans="1:39">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>55</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>5000</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>1</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>98</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>99</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>101</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>102</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AF3" t="s">
         <v>104</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AI3" t="s">
         <v>112</v>
       </c>
-      <c r="AI3" t="s">
+      <c r="AJ3" t="s">
         <v>113</v>
       </c>
-      <c r="AJ3" t="s">
+      <c r="AK3" t="s">
         <v>117</v>
       </c>
-      <c r="AL3" t="s">
+      <c r="AM3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:39">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>56</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15000</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>97</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>98</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>99</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>101</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>102</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>103</v>
       </c>
       <c r="AF4" t="s">
         <v>103</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AG4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AI4" t="s">
         <v>112</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>114</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>117</v>
       </c>
-      <c r="AL4" t="s">
+      <c r="AM4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="5" spans="1:39">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
         <v>41</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>57</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1499</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>97</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>98</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>100</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>101</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>102</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>105</v>
       </c>
       <c r="AF5" t="s">
         <v>105</v>
       </c>
-      <c r="AH5" t="s">
+      <c r="AG5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI5" t="s">
         <v>112</v>
       </c>
-      <c r="AI5" t="s">
+      <c r="AJ5" t="s">
         <v>115</v>
       </c>
-      <c r="AJ5" t="s">
+      <c r="AK5" t="s">
         <v>118</v>
       </c>
-      <c r="AL5" t="s">
+      <c r="AM5" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
+    <row r="6" spans="1:39">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>42</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>58</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>4000</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>97</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>99</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>101</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>102</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AF6" t="s">
         <v>106</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
         <v>112</v>
       </c>
-      <c r="AI6" t="s">
+      <c r="AJ6" t="s">
         <v>113</v>
       </c>
-      <c r="AJ6" t="s">
+      <c r="AK6" t="s">
         <v>117</v>
       </c>
-      <c r="AL6" t="s">
+      <c r="AM6" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="7" spans="1:39">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>59</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>2100</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="H7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>20379</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>97</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>99</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>101</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>102</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AF7" t="s">
         <v>107</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AI7" t="s">
         <v>112</v>
       </c>
-      <c r="AI7" t="s">
+      <c r="AJ7" t="s">
         <v>113</v>
       </c>
-      <c r="AJ7" t="s">
+      <c r="AK7" t="s">
         <v>118</v>
       </c>
-      <c r="AL7" t="s">
+      <c r="AM7" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
+    <row r="8" spans="1:39">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>60</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>2499</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="H8" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>20379</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>100</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>101</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>102</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>105</v>
       </c>
       <c r="AF8" t="s">
         <v>105</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AG8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI8" t="s">
         <v>112</v>
       </c>
-      <c r="AI8" t="s">
+      <c r="AJ8" t="s">
         <v>115</v>
       </c>
-      <c r="AJ8" t="s">
+      <c r="AK8" t="s">
         <v>118</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D9" t="s">
+    <row r="9" spans="1:39">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>61</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2499</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>20379</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>97</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>98</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>100</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>101</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>102</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>105</v>
       </c>
       <c r="AF9" t="s">
         <v>105</v>
       </c>
-      <c r="AH9" t="s">
+      <c r="AG9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI9" t="s">
         <v>112</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AJ9" t="s">
         <v>115</v>
       </c>
-      <c r="AJ9" t="s">
+      <c r="AK9" t="s">
         <v>118</v>
       </c>
-      <c r="AL9" t="s">
+      <c r="AM9" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D10" t="s">
+    <row r="10" spans="1:39">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
         <v>43</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>62</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2099</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>20385</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>97</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>98</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>100</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>101</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>102</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>108</v>
       </c>
       <c r="AF10" t="s">
         <v>108</v>
       </c>
-      <c r="AH10" t="s">
+      <c r="AG10" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI10" t="s">
         <v>112</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AJ10" t="s">
         <v>115</v>
       </c>
-      <c r="AJ10" t="s">
+      <c r="AK10" t="s">
         <v>118</v>
       </c>
-      <c r="AL10" t="s">
+      <c r="AM10" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
+    <row r="11" spans="1:39">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
         <v>46</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>63</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>2999</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="H11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="J11" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>20387</v>
       </c>
-      <c r="S11" t="s">
+      <c r="T11" t="s">
         <v>97</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>98</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>100</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>101</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>102</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>109</v>
       </c>
       <c r="AF11" t="s">
         <v>109</v>
       </c>
-      <c r="AH11" t="s">
+      <c r="AG11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI11" t="s">
         <v>112</v>
       </c>
-      <c r="AI11" t="s">
+      <c r="AJ11" t="s">
         <v>115</v>
       </c>
-      <c r="AJ11" t="s">
+      <c r="AK11" t="s">
         <v>119</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
+    <row r="12" spans="1:39">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
         <v>47</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3999</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="J12" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>20391</v>
       </c>
-      <c r="S12" t="s">
+      <c r="T12" t="s">
         <v>97</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>98</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>100</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>102</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>109</v>
       </c>
       <c r="AF12" t="s">
         <v>109</v>
       </c>
-      <c r="AH12" t="s">
+      <c r="AG12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI12" t="s">
         <v>112</v>
       </c>
-      <c r="AI12" t="s">
+      <c r="AJ12" t="s">
         <v>115</v>
       </c>
-      <c r="AJ12" t="s">
+      <c r="AK12" t="s">
         <v>118</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D13" t="s">
+    <row r="13" spans="1:39">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
         <v>48</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>65</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3499</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>20391</v>
       </c>
-      <c r="S13" t="s">
+      <c r="T13" t="s">
         <v>97</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>98</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>100</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>101</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>102</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>109</v>
       </c>
       <c r="AF13" t="s">
         <v>109</v>
       </c>
-      <c r="AH13" t="s">
+      <c r="AG13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI13" t="s">
         <v>112</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AJ13" t="s">
         <v>115</v>
       </c>
-      <c r="AJ13" t="s">
+      <c r="AK13" t="s">
         <v>118</v>
       </c>
-      <c r="AL13" t="s">
+      <c r="AM13" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D14" t="s">
+    <row r="14" spans="1:39">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" t="s">
         <v>49</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>66</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4999</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="J14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>20433</v>
       </c>
-      <c r="S14" t="s">
+      <c r="T14" t="s">
         <v>97</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>98</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>100</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>101</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>102</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>109</v>
       </c>
       <c r="AF14" t="s">
         <v>109</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AG14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI14" t="s">
         <v>112</v>
       </c>
-      <c r="AI14" t="s">
+      <c r="AJ14" t="s">
         <v>115</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AK14" t="s">
         <v>118</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AM14" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D15" t="s">
+    <row r="15" spans="1:39">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
         <v>50</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>67</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>5000</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>20433</v>
       </c>
-      <c r="S15" t="s">
+      <c r="T15" t="s">
         <v>97</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>98</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>99</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>101</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>102</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AF15" t="s">
         <v>109</v>
       </c>
-      <c r="AH15" t="s">
+      <c r="AI15" t="s">
         <v>112</v>
       </c>
-      <c r="AI15" t="s">
+      <c r="AJ15" t="s">
         <v>116</v>
       </c>
-      <c r="AJ15" t="s">
+      <c r="AK15" t="s">
         <v>118</v>
       </c>
-      <c r="AL15" t="s">
+      <c r="AM15" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="D16" t="s">
+    <row r="16" spans="1:39">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="E16" t="s">
         <v>51</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>68</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>6999</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>20446</v>
       </c>
-      <c r="S16" t="s">
+      <c r="T16" t="s">
         <v>97</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>98</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>100</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>101</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>102</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>109</v>
       </c>
       <c r="AF16" t="s">
         <v>109</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AG16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI16" t="s">
         <v>112</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AJ16" t="s">
         <v>113</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AK16" t="s">
         <v>120</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D17" t="s">
+    <row r="17" spans="1:39">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="E17" t="s">
         <v>43</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>69</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>4999</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="J17" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>20446</v>
       </c>
-      <c r="S17" t="s">
+      <c r="T17" t="s">
         <v>97</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>98</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>100</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>101</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>102</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>110</v>
       </c>
       <c r="AF17" t="s">
         <v>110</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AG17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI17" t="s">
         <v>112</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AJ17" t="s">
         <v>113</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AK17" t="s">
         <v>120</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D18" t="s">
+    <row r="18" spans="1:39">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>70</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3999</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>20455</v>
       </c>
-      <c r="S18" t="s">
+      <c r="T18" t="s">
         <v>97</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>98</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
         <v>100</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>101</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>102</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>109</v>
       </c>
       <c r="AF18" t="s">
         <v>109</v>
       </c>
-      <c r="AH18" t="s">
+      <c r="AG18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI18" t="s">
         <v>112</v>
       </c>
-      <c r="AI18" t="s">
+      <c r="AJ18" t="s">
         <v>115</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AK18" t="s">
         <v>118</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D19" t="s">
+    <row r="19" spans="1:39">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
         <v>53</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>71</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>3999</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="H19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>20455</v>
       </c>
-      <c r="S19" t="s">
+      <c r="T19" t="s">
         <v>97</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>98</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>100</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>101</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>102</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>109</v>
       </c>
       <c r="AF19" t="s">
         <v>109</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="AG19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI19" t="s">
         <v>112</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="AJ19" t="s">
         <v>115</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="AK19" t="s">
         <v>118</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="AM19" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D20" t="s">
+    <row r="20" spans="1:39">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
         <v>49</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>72</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>5999</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="J20" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>20457</v>
       </c>
-      <c r="S20" t="s">
+      <c r="T20" t="s">
         <v>97</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>98</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>100</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>101</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>102</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>104</v>
       </c>
       <c r="AF20" t="s">
         <v>104</v>
       </c>
-      <c r="AH20" t="s">
+      <c r="AG20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AI20" t="s">
         <v>112</v>
       </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
         <v>113</v>
       </c>
-      <c r="AJ20" t="s">
+      <c r="AK20" t="s">
         <v>120</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="AM20" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="21" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D21" t="s">
+    <row r="21" spans="1:39">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>73</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>4999</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="H21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="J21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>20462</v>
       </c>
-      <c r="S21" t="s">
+      <c r="T21" t="s">
         <v>97</v>
       </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>98</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>100</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>101</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>102</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>111</v>
       </c>
       <c r="AF21" t="s">
         <v>111</v>
       </c>
-      <c r="AH21" t="s">
+      <c r="AG21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI21" t="s">
         <v>112</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AJ21" t="s">
         <v>113</v>
       </c>
-      <c r="AJ21" t="s">
+      <c r="AK21" t="s">
         <v>118</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="AM21" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="22" spans="4:38" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="22" spans="1:39">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
         <v>46</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>74</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>4999</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>20463</v>
       </c>
-      <c r="S22" t="s">
+      <c r="T22" t="s">
         <v>97</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>98</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>100</v>
       </c>
-      <c r="AC22" t="s">
+      <c r="AD22" t="s">
         <v>101</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>102</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>107</v>
       </c>
       <c r="AF22" t="s">
         <v>107</v>
       </c>
-      <c r="AH22" t="s">
+      <c r="AG22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI22" t="s">
         <v>112</v>
       </c>
-      <c r="AI22" t="s">
+      <c r="AJ22" t="s">
         <v>113</v>
       </c>
-      <c r="AJ22" t="s">
+      <c r="AK22" t="s">
         <v>120</v>
       </c>
-      <c r="AL22" t="s">
+      <c r="AM22" t="s">
         <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="H3" r:id="rId3"/>
+    <hyperlink ref="J3" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="J4" r:id="rId6"/>
+    <hyperlink ref="H5" r:id="rId7"/>
+    <hyperlink ref="J5" r:id="rId8"/>
+    <hyperlink ref="H6" r:id="rId9"/>
+    <hyperlink ref="J6" r:id="rId10"/>
+    <hyperlink ref="H7" r:id="rId11"/>
+    <hyperlink ref="J7" r:id="rId12"/>
+    <hyperlink ref="H8" r:id="rId13"/>
+    <hyperlink ref="J8" r:id="rId14"/>
+    <hyperlink ref="H9" r:id="rId15"/>
+    <hyperlink ref="J9" r:id="rId16"/>
+    <hyperlink ref="H10" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+    <hyperlink ref="H11" r:id="rId19"/>
+    <hyperlink ref="J11" r:id="rId20"/>
+    <hyperlink ref="H12" r:id="rId21"/>
+    <hyperlink ref="J12" r:id="rId22"/>
+    <hyperlink ref="H13" r:id="rId23"/>
+    <hyperlink ref="J13" r:id="rId24"/>
+    <hyperlink ref="H14" r:id="rId25"/>
+    <hyperlink ref="J14" r:id="rId26"/>
+    <hyperlink ref="H15" r:id="rId27"/>
+    <hyperlink ref="J15" r:id="rId28"/>
+    <hyperlink ref="H16" r:id="rId29"/>
+    <hyperlink ref="J16" r:id="rId30"/>
+    <hyperlink ref="H17" r:id="rId31"/>
+    <hyperlink ref="J17" r:id="rId32"/>
+    <hyperlink ref="H18" r:id="rId33"/>
+    <hyperlink ref="J18" r:id="rId34"/>
+    <hyperlink ref="H19" r:id="rId35"/>
+    <hyperlink ref="J19" r:id="rId36"/>
+    <hyperlink ref="H20" r:id="rId37"/>
+    <hyperlink ref="J20" r:id="rId38"/>
+    <hyperlink ref="H21" r:id="rId39"/>
+    <hyperlink ref="J21" r:id="rId40"/>
+    <hyperlink ref="H22" r:id="rId41"/>
+    <hyperlink ref="J22" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
   <si>
     <t>Address</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t xml:space="preserve">Стулья банкетные </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кресло кожаное финской фирмы "pohjanmaan" </t>
   </si>
   <si>
     <t>Стул офисный для посетителей</t>
@@ -231,29 +228,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Кресло кожаное финской фирмы "pohjanmaan" 
-Описание
-Цвет коричневый
-Цена: 15000
-Количество: 1
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-                 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-                 ➕ При поиске нас в навигаторе наберите – 
-                 Офис комфорт Одинцово 
-                 ➕ Наш телеграмм канал – office comfort es
-                 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-                 -------------------------------------------------------------------
-                 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-                 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-                 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-                 Можем укомплектовать 100-200 рабочих мест.
-                 </t>
-  </si>
-  <si>
     <t>Стулья для посетителей
 Описание Удобные и стильные кресла для офисов они хорошо впишутся в любые современные дизаны офисных помещений и будут подчеркивать ваш хороший вкус и заботу о посетителях.
 Размеры сидения: Ширина - 60 см
@@ -660,9 +634,6 @@
     <t>https://disk.yandex.ru/i/YWdl65lMCegdMA | https://disk.yandex.ru/i/JOf3YXjaKaUyuQ | https://disk.yandex.ru/i/uATDwnGmvEEDFA | https://disk.yandex.ru/i/C7ji38jspxLYZg | https://disk.yandex.ru/i/usJJZ2PsXpgpkA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/RTRiJ7pVJobLrA | https://disk.yandex.ru/i/SUlGZ_ZyZGXRCw | https://disk.yandex.ru/i/fSDefBma1gUPbQ | https://disk.yandex.ru/i/Jjq-qNgGkKYuUQ | https://disk.yandex.ru/i/gsP9_Va05EbaNQ | https://disk.yandex.ru/i/66-EFz-aqV1ndQ | https://disk.yandex.ru/i/kV9NfaCvSPuiNg | https://disk.yandex.ru/i/qg0rVOgQWgumOQ | https://disk.yandex.ru/i/r4U6e35o5KIBLg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
   </si>
   <si>
@@ -769,9 +740,6 @@
   </si>
   <si>
     <t>Ткань</t>
-  </si>
-  <si>
-    <t>Кожа</t>
   </si>
   <si>
     <t>Замша</t>
@@ -1172,1333 +1140,1215 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AL21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:38">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38">
+      <c r="D2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2">
-        <v>5000</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="J2" s="2" t="s">
+      <c r="S2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" t="s">
         <v>96</v>
       </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="T2" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>98</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>99</v>
       </c>
-      <c r="AD2" t="s">
-        <v>101</v>
-      </c>
       <c r="AE2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>109</v>
       </c>
       <c r="AI2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="s">
         <v>113</v>
       </c>
-      <c r="AK2" t="s">
+      <c r="AL2" t="s">
         <v>117</v>
       </c>
-      <c r="AM2" t="s">
-        <v>121</v>
-      </c>
     </row>
-    <row r="3" spans="1:39">
-      <c r="A3" s="1">
+    <row r="3" spans="1:38">
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3">
-        <v>5000</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="2" t="s">
+      <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" t="s">
         <v>96</v>
       </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="T3" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>98</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>99</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>101</v>
       </c>
-      <c r="AE3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>104</v>
+      <c r="AH3" t="s">
+        <v>109</v>
       </c>
       <c r="AI3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="s">
         <v>113</v>
       </c>
-      <c r="AK3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM3" t="s">
-        <v>122</v>
+      <c r="AL3" t="s">
+        <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
-      <c r="A4" s="1">
-        <v>2</v>
+    <row r="4" spans="1:38">
+      <c r="D4" t="s">
+        <v>40</v>
       </c>
       <c r="E4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G4">
-        <v>15000</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>1499</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4">
         <v>1</v>
       </c>
-      <c r="T4" t="s">
+      <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s">
         <v>97</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>98</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>99</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>101</v>
       </c>
       <c r="AE4" t="s">
         <v>102</v>
       </c>
       <c r="AF4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>103</v>
+        <v>102</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>109</v>
       </c>
       <c r="AI4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ4" t="s">
         <v>114</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AL4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:38">
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5">
+        <v>4000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL5" t="s">
         <v>117</v>
       </c>
-      <c r="AM4" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="5" spans="1:39">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="6" spans="1:38">
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
         <v>57</v>
       </c>
-      <c r="G5">
-        <v>1499</v>
-      </c>
-      <c r="H5" s="2" t="s">
+      <c r="F6">
+        <v>2100</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6">
+        <v>20379</v>
+      </c>
+      <c r="S6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38">
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7">
+        <v>2499</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="T5" t="s">
+      <c r="I7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7">
+        <v>20379</v>
+      </c>
+      <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" t="s">
         <v>97</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC7" t="s">
         <v>98</v>
       </c>
-      <c r="AC5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK5" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" spans="1:39">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="E6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6">
-        <v>4000</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="T6" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC6" t="s">
+      <c r="AD7" t="s">
         <v>99</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK6" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7">
-        <v>2100</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7">
-        <v>20379</v>
-      </c>
-      <c r="T7" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>99</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>101</v>
       </c>
       <c r="AE7" t="s">
         <v>102</v>
       </c>
       <c r="AF7" t="s">
-        <v>107</v>
+        <v>102</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>109</v>
       </c>
       <c r="AI7" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL7" t="s">
         <v>118</v>
       </c>
-      <c r="AM7" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="8" spans="1:39">
-      <c r="A8" s="1">
-        <v>6</v>
+    <row r="8" spans="1:38">
+      <c r="D8" t="s">
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8">
+        <v>59</v>
+      </c>
+      <c r="F8">
         <v>2499</v>
       </c>
-      <c r="H8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8">
+      <c r="G8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8">
         <v>20379</v>
       </c>
-      <c r="T8" t="s">
+      <c r="S8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="s">
         <v>97</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" t="s">
-        <v>100</v>
-      </c>
       <c r="AD8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE8" t="s">
         <v>102</v>
       </c>
       <c r="AF8" t="s">
+        <v>102</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38">
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9">
+        <v>2099</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9">
+        <v>20385</v>
+      </c>
+      <c r="S9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE9" t="s">
         <v>105</v>
-      </c>
-      <c r="AG8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G9">
-        <v>2499</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L9">
-        <v>20379</v>
-      </c>
-      <c r="T9" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>102</v>
       </c>
       <c r="AF9" t="s">
         <v>105</v>
       </c>
-      <c r="AG9" t="s">
-        <v>105</v>
+      <c r="AH9" t="s">
+        <v>109</v>
       </c>
       <c r="AI9" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ9" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL9" t="s">
         <v>118</v>
       </c>
-      <c r="AM9" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="10" spans="1:39">
-      <c r="A10" s="1">
-        <v>8</v>
+    <row r="10" spans="1:38">
+      <c r="D10" t="s">
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10">
-        <v>2099</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10">
-        <v>20385</v>
-      </c>
-      <c r="T10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10">
+        <v>2999</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10">
+        <v>20387</v>
+      </c>
+      <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="s">
         <v>97</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>98</v>
       </c>
-      <c r="AC10" t="s">
-        <v>100</v>
-      </c>
       <c r="AD10" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AF10" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG10" t="s">
-        <v>108</v>
+        <v>106</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>109</v>
       </c>
       <c r="AI10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AJ10" t="s">
         <v>115</v>
       </c>
-      <c r="AK10" t="s">
+      <c r="AL10" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38">
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11">
+        <v>3999</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K11">
+        <v>20391</v>
+      </c>
+      <c r="S11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38">
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+      <c r="F12">
+        <v>3499</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12">
+        <v>20391</v>
+      </c>
+      <c r="S12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38">
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13">
+        <v>4999</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>20433</v>
+      </c>
+      <c r="S13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL13" t="s">
         <v>118</v>
       </c>
-      <c r="AM10" t="s">
-        <v>122</v>
-      </c>
     </row>
-    <row r="11" spans="1:39">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" t="s">
-        <v>63</v>
-      </c>
-      <c r="G11">
-        <v>2999</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J11" s="2" t="s">
+    <row r="14" spans="1:38">
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14">
+        <v>5000</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>20433</v>
+      </c>
+      <c r="S14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="s">
         <v>96</v>
       </c>
-      <c r="L11">
-        <v>20387</v>
-      </c>
-      <c r="T11" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC14" t="s">
         <v>98</v>
       </c>
-      <c r="AC11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG11" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" t="s">
-        <v>64</v>
-      </c>
-      <c r="G12">
-        <v>3999</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L12">
-        <v>20391</v>
-      </c>
-      <c r="T12" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13">
-        <v>3499</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L13">
-        <v>20391</v>
-      </c>
-      <c r="T13" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14">
-        <v>4999</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14">
-        <v>20433</v>
-      </c>
-      <c r="T14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>100</v>
-      </c>
       <c r="AD14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AE14" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH14" t="s">
         <v>109</v>
       </c>
       <c r="AI14" t="s">
         <v>112</v>
       </c>
       <c r="AJ14" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>122</v>
+        <v>114</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="A15" s="1">
-        <v>13</v>
+    <row r="15" spans="1:38">
+      <c r="D15" t="s">
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G15">
-        <v>5000</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L15">
-        <v>20433</v>
-      </c>
-      <c r="T15" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15">
+        <v>6999</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15">
+        <v>20446</v>
+      </c>
+      <c r="S15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="s">
         <v>97</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>98</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>99</v>
       </c>
-      <c r="AD15" t="s">
-        <v>101</v>
-      </c>
       <c r="AE15" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AF15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH15" t="s">
         <v>109</v>
       </c>
       <c r="AI15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="s">
         <v>116</v>
       </c>
-      <c r="AK15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>123</v>
+      <c r="AL15" t="s">
+        <v>119</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="A16" s="1">
-        <v>14</v>
+    <row r="16" spans="1:38">
+      <c r="D16" t="s">
+        <v>42</v>
       </c>
       <c r="E16" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16">
+        <v>4999</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16">
+        <v>20446</v>
+      </c>
+      <c r="S16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="4:38">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="F16" t="s">
+      <c r="E17" t="s">
         <v>68</v>
       </c>
-      <c r="G16">
-        <v>6999</v>
-      </c>
-      <c r="H16" s="2" t="s">
+      <c r="F17">
+        <v>3999</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K17">
+        <v>20455</v>
+      </c>
+      <c r="S17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="18" spans="4:38">
+      <c r="D18" t="s">
+        <v>52</v>
+      </c>
+      <c r="E18" t="s">
+        <v>69</v>
+      </c>
+      <c r="F18">
+        <v>3999</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L16">
-        <v>20446</v>
-      </c>
-      <c r="T16" t="s">
+      <c r="I18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K18">
+        <v>20455</v>
+      </c>
+      <c r="S18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB18" t="s">
         <v>97</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC18" t="s">
         <v>98</v>
       </c>
-      <c r="AC16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD16" t="s">
+      <c r="AD18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="4:38">
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E19" t="s">
+        <v>70</v>
+      </c>
+      <c r="F19">
+        <v>5999</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19">
+        <v>20457</v>
+      </c>
+      <c r="S19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE19" t="s">
         <v>101</v>
       </c>
-      <c r="AE16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF16" t="s">
+      <c r="AF19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH19" t="s">
         <v>109</v>
       </c>
-      <c r="AG16" t="s">
+      <c r="AI19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="4:38">
+      <c r="D20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E20" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20">
+        <v>4999</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20">
+        <v>20462</v>
+      </c>
+      <c r="S20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH20" t="s">
         <v>109</v>
       </c>
-      <c r="AI16" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK16" t="s">
+      <c r="AI20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="4:38">
+      <c r="D21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21">
+        <v>4999</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K21">
+        <v>20463</v>
+      </c>
+      <c r="S21" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL21" t="s">
         <v>120</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
-      <c r="E17" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17">
-        <v>4999</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L17">
-        <v>20446</v>
-      </c>
-      <c r="T17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
-      <c r="E18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18">
-        <v>3999</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L18">
-        <v>20455</v>
-      </c>
-      <c r="T18" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:39">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
-      <c r="E19" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" t="s">
-        <v>71</v>
-      </c>
-      <c r="G19">
-        <v>3999</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L19">
-        <v>20455</v>
-      </c>
-      <c r="T19" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK19" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="20" spans="1:39">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" t="s">
-        <v>72</v>
-      </c>
-      <c r="G20">
-        <v>5999</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L20">
-        <v>20457</v>
-      </c>
-      <c r="T20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG20" t="s">
-        <v>104</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:39">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
-      <c r="E21" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" t="s">
-        <v>73</v>
-      </c>
-      <c r="G21">
-        <v>4999</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21">
-        <v>20462</v>
-      </c>
-      <c r="T21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK21" t="s">
-        <v>118</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="22" spans="1:39">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22">
-        <v>4999</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22">
-        <v>20463</v>
-      </c>
-      <c r="T22" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AK22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="H4" r:id="rId5"/>
-    <hyperlink ref="J4" r:id="rId6"/>
-    <hyperlink ref="H5" r:id="rId7"/>
-    <hyperlink ref="J5" r:id="rId8"/>
-    <hyperlink ref="H6" r:id="rId9"/>
-    <hyperlink ref="J6" r:id="rId10"/>
-    <hyperlink ref="H7" r:id="rId11"/>
-    <hyperlink ref="J7" r:id="rId12"/>
-    <hyperlink ref="H8" r:id="rId13"/>
-    <hyperlink ref="J8" r:id="rId14"/>
-    <hyperlink ref="H9" r:id="rId15"/>
-    <hyperlink ref="J9" r:id="rId16"/>
-    <hyperlink ref="H10" r:id="rId17"/>
-    <hyperlink ref="J10" r:id="rId18"/>
-    <hyperlink ref="H11" r:id="rId19"/>
-    <hyperlink ref="J11" r:id="rId20"/>
-    <hyperlink ref="H12" r:id="rId21"/>
-    <hyperlink ref="J12" r:id="rId22"/>
-    <hyperlink ref="H13" r:id="rId23"/>
-    <hyperlink ref="J13" r:id="rId24"/>
-    <hyperlink ref="H14" r:id="rId25"/>
-    <hyperlink ref="J14" r:id="rId26"/>
-    <hyperlink ref="H15" r:id="rId27"/>
-    <hyperlink ref="J15" r:id="rId28"/>
-    <hyperlink ref="H16" r:id="rId29"/>
-    <hyperlink ref="J16" r:id="rId30"/>
-    <hyperlink ref="H17" r:id="rId31"/>
-    <hyperlink ref="J17" r:id="rId32"/>
-    <hyperlink ref="H18" r:id="rId33"/>
-    <hyperlink ref="J18" r:id="rId34"/>
-    <hyperlink ref="H19" r:id="rId35"/>
-    <hyperlink ref="J19" r:id="rId36"/>
-    <hyperlink ref="H20" r:id="rId37"/>
-    <hyperlink ref="J20" r:id="rId38"/>
-    <hyperlink ref="H21" r:id="rId39"/>
-    <hyperlink ref="J21" r:id="rId40"/>
-    <hyperlink ref="H22" r:id="rId41"/>
-    <hyperlink ref="J22" r:id="rId42"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE374AEB-1F2F-4B25-AFC4-E7CC5BFAA0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="118">
   <si>
     <t>Address</t>
   </si>
@@ -588,25 +594,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стул офисный для конференц зала
-Артикул (20462)
-Описание: Обновите свое офисное пространство с классическими стульями для конференций от известного австрийского производителя BENE. Изысканный дизайн, эргономичная форма и эффект качания делают эти стулья идеальным выбором для комфортных и продуктивных совещаний. Сочетание стильного оттенка бардо и высокого качества исполнения придадут вашему офису неповторимый шарм и элегантность.
-Цена: 5000 за 1 шт.
-Количество: 8шт (в обработке примерно 30шт).
-В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Стул-кресло для конференц зала
 Артикул (20463)
 Описание Обогатите свое рабочее пространство с уникальными офисными стульями JoinMe от Dauphin, производителя мебели из Германии. Разработанные известным дизайнером Мартином Баллендатом, эти стулья сочетают в себе комфорт и практичность, идеально подходя для современных офисных пространств.
@@ -682,9 +669,6 @@
     <t>https://disk.yandex.ru/i/p2NV328NZRV99A | https://disk.yandex.ru/i/eh70odbG8D1UmA | https://disk.yandex.ru/i/7tnVtvXkbfTsTw | https://disk.yandex.ru/i/jO2YMcrw14LrjQ | https://disk.yandex.ru/i/7NSkUeqYzcXU0g | https://disk.yandex.ru/i/HWLJd-aOSlhWDQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/SYn1o_GuQH4uJg | https://disk.yandex.ru/i/ZV2mLC996r4JAw | https://disk.yandex.ru/i/1YQ_dR2AivDsfQ | https://disk.yandex.ru/i/EVzfN0HeNHlXSA | https://disk.yandex.ru/i/PAS00s7vnPCnjQ | https://disk.yandex.ru/i/hKR7Y3J0ZfzK_w | https://disk.yandex.ru/i/Tf2mmK_LR7NzOA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/fsqVdDo-x0xbqQ | https://disk.yandex.ru/i/l4VUzFj4ptIzbA | https://disk.yandex.ru/i/fNfaOnPS-2SqMQ | https://disk.yandex.ru/i/IJpFJVJ2JUsnwQ | https://disk.yandex.ru/i/uNKf2aunGKw0wg | https://disk.yandex.ru/i/NsYKi8YpUPY6Dg | https://disk.yandex.ru/i/ksc-z-bORyfjiQ | https://disk.yandex.ru/i/p-LK5M1xVYDxkQ | https://disk.yandex.ru/i/GF2g_DKFzZ9ldw</t>
   </si>
   <si>
@@ -731,9 +715,6 @@
   </si>
   <si>
     <t>Красный</t>
-  </si>
-  <si>
-    <t>Бордовый</t>
   </si>
   <si>
     <t>Стулья</t>
@@ -775,8 +756,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,18 +828,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -896,9 +885,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -930,9 +919,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -964,9 +971,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1139,14 +1164,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1262,7 +1289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>38</v>
       </c>
@@ -1273,46 +1300,46 @@
         <v>5000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB2" t="s">
         <v>94</v>
       </c>
-      <c r="AA2" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>96</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE2" t="s">
         <v>98</v>
       </c>
-      <c r="AD2" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>100</v>
-      </c>
       <c r="AH2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ2" t="s">
         <v>110</v>
       </c>
-      <c r="AJ2" t="s">
-        <v>113</v>
-      </c>
       <c r="AL2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>39</v>
       </c>
@@ -1323,46 +1350,46 @@
         <v>5000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB3" t="s">
         <v>94</v>
       </c>
-      <c r="AA3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>96</v>
       </c>
-      <c r="AC3" t="s">
-        <v>98</v>
-      </c>
       <c r="AD3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AE3" t="s">
         <v>99</v>
       </c>
-      <c r="AE3" t="s">
-        <v>101</v>
-      </c>
       <c r="AH3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI3" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>110</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>113</v>
-      </c>
       <c r="AL3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -1373,49 +1400,49 @@
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB4" t="s">
         <v>95</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD4" t="s">
         <v>97</v>
       </c>
-      <c r="AC4" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>99</v>
-      </c>
       <c r="AE4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>111</v>
       </c>
-      <c r="AJ4" t="s">
-        <v>114</v>
-      </c>
       <c r="AL4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>41</v>
       </c>
@@ -1426,46 +1453,46 @@
         <v>4000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB5" t="s">
         <v>94</v>
       </c>
-      <c r="AA5" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>96</v>
       </c>
-      <c r="AC5" t="s">
-        <v>98</v>
-      </c>
       <c r="AD5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AH5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ5" t="s">
         <v>110</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>113</v>
-      </c>
       <c r="AL5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>42</v>
       </c>
@@ -1476,46 +1503,46 @@
         <v>2100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K6">
         <v>20379</v>
       </c>
       <c r="S6" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB6" t="s">
         <v>94</v>
       </c>
-      <c r="AA6" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>96</v>
       </c>
-      <c r="AC6" t="s">
-        <v>98</v>
-      </c>
       <c r="AD6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AH6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AL6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>43</v>
       </c>
@@ -1526,49 +1553,49 @@
         <v>2499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K7">
         <v>20379</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB7" t="s">
         <v>95</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD7" t="s">
         <v>97</v>
       </c>
-      <c r="AC7" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>99</v>
-      </c>
       <c r="AE7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>111</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>114</v>
-      </c>
       <c r="AL7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1579,49 +1606,49 @@
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K8">
         <v>20379</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA8" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB8" t="s">
         <v>95</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD8" t="s">
         <v>97</v>
       </c>
-      <c r="AC8" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>99</v>
-      </c>
       <c r="AE8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AF8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="AH8" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI8" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>111</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>114</v>
-      </c>
       <c r="AL8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>42</v>
       </c>
@@ -1632,49 +1659,49 @@
         <v>2099</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K9">
         <v>20385</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB9" t="s">
         <v>95</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD9" t="s">
         <v>97</v>
       </c>
-      <c r="AC9" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>99</v>
-      </c>
       <c r="AE9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AH9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>111</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>114</v>
-      </c>
       <c r="AL9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>45</v>
       </c>
@@ -1685,49 +1712,49 @@
         <v>2999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K10">
         <v>20387</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA10" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB10" t="s">
         <v>95</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD10" t="s">
         <v>97</v>
       </c>
-      <c r="AC10" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>99</v>
-      </c>
       <c r="AE10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH10" t="s">
         <v>106</v>
       </c>
-      <c r="AF10" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>109</v>
-      </c>
       <c r="AI10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ10" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AL10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>46</v>
       </c>
@@ -1738,49 +1765,49 @@
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K11">
         <v>20391</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA11" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB11" t="s">
         <v>95</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD11" t="s">
         <v>97</v>
       </c>
-      <c r="AC11" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>99</v>
-      </c>
       <c r="AE11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH11" t="s">
         <v>106</v>
       </c>
-      <c r="AF11" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>109</v>
-      </c>
       <c r="AI11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ11" t="s">
         <v>111</v>
       </c>
-      <c r="AJ11" t="s">
-        <v>114</v>
-      </c>
       <c r="AL11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>47</v>
       </c>
@@ -1791,49 +1818,49 @@
         <v>3499</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K12">
         <v>20391</v>
       </c>
       <c r="S12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA12" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB12" t="s">
         <v>95</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD12" t="s">
         <v>97</v>
       </c>
-      <c r="AC12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>99</v>
-      </c>
       <c r="AE12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH12" t="s">
         <v>106</v>
       </c>
-      <c r="AF12" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>109</v>
-      </c>
       <c r="AI12" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>111</v>
       </c>
-      <c r="AJ12" t="s">
-        <v>114</v>
-      </c>
       <c r="AL12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>48</v>
       </c>
@@ -1844,49 +1871,49 @@
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K13">
         <v>20433</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA13" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB13" t="s">
         <v>95</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD13" t="s">
         <v>97</v>
       </c>
-      <c r="AC13" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>99</v>
-      </c>
       <c r="AE13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH13" t="s">
         <v>106</v>
       </c>
-      <c r="AF13" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>109</v>
-      </c>
       <c r="AI13" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>111</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>114</v>
-      </c>
       <c r="AL13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>49</v>
       </c>
@@ -1897,46 +1924,46 @@
         <v>5000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K14">
         <v>20433</v>
       </c>
       <c r="S14" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB14" t="s">
         <v>94</v>
       </c>
-      <c r="AA14" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>96</v>
       </c>
-      <c r="AC14" t="s">
-        <v>98</v>
-      </c>
       <c r="AD14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AE14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH14" t="s">
         <v>106</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>109</v>
       </c>
-      <c r="AI14" t="s">
-        <v>112</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AL14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>50</v>
       </c>
@@ -1947,49 +1974,49 @@
         <v>6999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K15">
         <v>20446</v>
       </c>
       <c r="S15" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA15" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB15" t="s">
         <v>95</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD15" t="s">
         <v>97</v>
       </c>
-      <c r="AC15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>99</v>
-      </c>
       <c r="AE15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH15" t="s">
         <v>106</v>
       </c>
-      <c r="AF15" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>109</v>
-      </c>
       <c r="AI15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL15" t="s">
         <v>116</v>
       </c>
-      <c r="AL15" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>42</v>
       </c>
@@ -2000,49 +2027,49 @@
         <v>4999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K16">
         <v>20446</v>
       </c>
       <c r="S16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA16" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB16" t="s">
         <v>95</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD16" t="s">
         <v>97</v>
       </c>
-      <c r="AC16" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>99</v>
-      </c>
       <c r="AE16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AI16" t="s">
         <v>107</v>
       </c>
-      <c r="AF16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>110</v>
-      </c>
       <c r="AJ16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL16" t="s">
         <v>116</v>
       </c>
-      <c r="AL16" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="17" spans="4:38">
+    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>51</v>
       </c>
@@ -2053,49 +2080,49 @@
         <v>3999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K17">
         <v>20455</v>
       </c>
       <c r="S17" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB17" t="s">
         <v>95</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD17" t="s">
         <v>97</v>
       </c>
-      <c r="AC17" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>99</v>
-      </c>
       <c r="AE17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH17" t="s">
         <v>106</v>
       </c>
-      <c r="AF17" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>109</v>
-      </c>
       <c r="AI17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>111</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>114</v>
-      </c>
       <c r="AL17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="18" spans="4:38">
+    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>52</v>
       </c>
@@ -2106,49 +2133,49 @@
         <v>3999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K18">
         <v>20455</v>
       </c>
       <c r="S18" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA18" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB18" t="s">
         <v>95</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD18" t="s">
         <v>97</v>
       </c>
-      <c r="AC18" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>99</v>
-      </c>
       <c r="AE18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH18" t="s">
         <v>106</v>
       </c>
-      <c r="AF18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>109</v>
-      </c>
       <c r="AI18" t="s">
+        <v>108</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>111</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>114</v>
-      </c>
       <c r="AL18" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="19" spans="4:38">
+    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>48</v>
       </c>
@@ -2159,51 +2186,51 @@
         <v>5999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K19">
         <v>20457</v>
       </c>
       <c r="S19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="AA19" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB19" t="s">
         <v>95</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD19" t="s">
         <v>97</v>
       </c>
-      <c r="AC19" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>99</v>
       </c>
-      <c r="AE19" t="s">
-        <v>101</v>
-      </c>
       <c r="AF19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AH19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL19" t="s">
         <v>116</v>
       </c>
-      <c r="AL19" t="s">
-        <v>119</v>
-      </c>
     </row>
-    <row r="20" spans="4:38">
+    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
         <v>71</v>
@@ -2212,143 +2239,88 @@
         <v>4999</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20">
+        <v>20463</v>
+      </c>
+      <c r="S20" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA20" t="s">
         <v>93</v>
       </c>
-      <c r="K20">
-        <v>20462</v>
-      </c>
-      <c r="S20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>95</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AD20" t="s">
         <v>97</v>
       </c>
-      <c r="AC20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>99</v>
-      </c>
       <c r="AE20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AF20" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AH20" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AI20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AJ20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AL20" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="4:38">
-      <c r="D21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21">
-        <v>4999</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21">
-        <v>20463</v>
-      </c>
-      <c r="S21" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE374AEB-1F2F-4B25-AFC4-E7CC5BFAA0F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -756,8 +750,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -828,26 +822,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -885,9 +871,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -919,27 +905,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,27 +939,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1164,16 +1114,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AL20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1289,7 +1237,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38">
       <c r="D2" t="s">
         <v>38</v>
       </c>
@@ -1339,7 +1287,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38">
       <c r="D3" t="s">
         <v>39</v>
       </c>
@@ -1389,7 +1337,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38">
       <c r="D4" t="s">
         <v>40</v>
       </c>
@@ -1442,7 +1390,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38">
       <c r="D5" t="s">
         <v>41</v>
       </c>
@@ -1492,7 +1440,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:38">
       <c r="D6" t="s">
         <v>42</v>
       </c>
@@ -1542,7 +1490,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:38">
       <c r="D7" t="s">
         <v>43</v>
       </c>
@@ -1595,7 +1543,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="8" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:38">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1648,7 +1596,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="9" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:38">
       <c r="D9" t="s">
         <v>42</v>
       </c>
@@ -1701,7 +1649,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:38">
       <c r="D10" t="s">
         <v>45</v>
       </c>
@@ -1754,7 +1702,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:38">
       <c r="D11" t="s">
         <v>46</v>
       </c>
@@ -1807,7 +1755,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="12" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:38">
       <c r="D12" t="s">
         <v>47</v>
       </c>
@@ -1860,7 +1808,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:38">
       <c r="D13" t="s">
         <v>48</v>
       </c>
@@ -1913,7 +1861,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="14" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:38">
       <c r="D14" t="s">
         <v>49</v>
       </c>
@@ -1963,7 +1911,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="15" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:38">
       <c r="D15" t="s">
         <v>50</v>
       </c>
@@ -2016,7 +1964,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="16" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:38">
       <c r="D16" t="s">
         <v>42</v>
       </c>
@@ -2069,7 +2017,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="17" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:38">
       <c r="D17" t="s">
         <v>51</v>
       </c>
@@ -2122,7 +2070,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="18" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:38">
       <c r="D18" t="s">
         <v>52</v>
       </c>
@@ -2175,7 +2123,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="19" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:38">
       <c r="D19" t="s">
         <v>48</v>
       </c>
@@ -2228,7 +2176,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="20" spans="4:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:38">
       <c r="D20" t="s">
         <v>45</v>
       </c>
@@ -2283,44 +2231,44 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="128">
   <si>
     <t>Address</t>
   </si>
@@ -130,6 +130,9 @@
     <t>FurnitureAdditions</t>
   </si>
   <si>
+    <t>CanBeDisassembled</t>
+  </si>
+  <si>
     <t>Барный стул</t>
   </si>
   <si>
@@ -173,6 +176,12 @@
   </si>
   <si>
     <t>Стул для посетителей</t>
+  </si>
+  <si>
+    <t>Стул офисный bene</t>
+  </si>
+  <si>
+    <t>Стул офисный Haworth</t>
   </si>
   <si>
     <t xml:space="preserve">Барный стул старинный
@@ -609,6 +618,58 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t xml:space="preserve">Стул офисный bene
+Артикул 20462
+Описание 
+Цвет чёрный, коричневый
+Цена 4999 - 5999 
+Количество 22
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стул офисный Haworth
+Артикул 20467
+Описание
+Цвет зеленый
+Цена 4 999
+Количество 7
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/8qQyhp9ult7diw | https://disk.yandex.ru/i/uE-RYkadNO6TyA | https://disk.yandex.ru/i/Qx_3jFDLLFRLXw | https://disk.yandex.ru/i/o2V8urwcWcjJIg | https://disk.yandex.ru/i/tosFQ9mVA3fR3A | https://disk.yandex.ru/i/cyQHvA9Tr1vyCQ | https://disk.yandex.ru/i/KvuDWEfi_ogKTw | https://disk.yandex.ru/i/M7aGqLLzIKPEig</t>
   </si>
   <si>
@@ -666,6 +727,12 @@
     <t>https://disk.yandex.ru/i/fsqVdDo-x0xbqQ | https://disk.yandex.ru/i/l4VUzFj4ptIzbA | https://disk.yandex.ru/i/fNfaOnPS-2SqMQ | https://disk.yandex.ru/i/IJpFJVJ2JUsnwQ | https://disk.yandex.ru/i/uNKf2aunGKw0wg | https://disk.yandex.ru/i/NsYKi8YpUPY6Dg | https://disk.yandex.ru/i/ksc-z-bORyfjiQ | https://disk.yandex.ru/i/p-LK5M1xVYDxkQ | https://disk.yandex.ru/i/GF2g_DKFzZ9ldw</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/ssdWHRTXI3oQsw | https://disk.yandex.ru/i/BJaB5mUJW9Puiw | https://disk.yandex.ru/i/uk9wKJ7K9lUzSg | https://disk.yandex.ru/i/A7TBiUiooqwojg | https://disk.yandex.ru/i/gDQO3LMgYprm6w | https://disk.yandex.ru/i/dfgCdybRqFdWoA | https://disk.yandex.ru/i/qTimX8oNoWWNPw | https://disk.yandex.ru/i/yx7kRhuZgs2-9g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7biWUSx6HtkD7A | https://disk.yandex.ru/i/u6EJpqK1-D-JuQ | https://disk.yandex.ru/i/8pqpSiehD-5JAw | https://disk.yandex.ru/i/g0nHd7AtPvLZYg | https://disk.yandex.ru/i/TUUb3OUrbYjXIw | https://disk.yandex.ru/i/wbHBYSxv44Uhjg | https://disk.yandex.ru/i/h5jVPhTDhIPoUg | https://disk.yandex.ru/i/kfKT9imakawcEA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -711,6 +778,9 @@
     <t>Красный</t>
   </si>
   <si>
+    <t>Зелёный</t>
+  </si>
+  <si>
     <t>Стулья</t>
   </si>
   <si>
@@ -745,6 +815,12 @@
   </si>
   <si>
     <t>Подлокотники | Колёсики | Мягкое сидение | Мягкая спинка</t>
+  </si>
+  <si>
+    <t>b''</t>
+  </si>
+  <si>
+    <t>Нет</t>
   </si>
 </sst>
 </file>
@@ -1115,13 +1191,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AL20"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1236,997 +1312,1163 @@
       <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="AM1" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:39">
       <c r="D2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>5000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AC2" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD2" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="AH2" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI2" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AJ2" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AL2" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:39">
       <c r="D3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>5000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AC3" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD3" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE3" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AH3" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI3" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AJ3" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AL3" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="AM3" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:39">
       <c r="D4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AF4" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AH4" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI4" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ4" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL4" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:39">
       <c r="D5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>4000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA5" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AC5" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD5" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE5" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="AH5" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI5" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AJ5" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="AL5" t="s">
-        <v>114</v>
+        <v>122</v>
+      </c>
+      <c r="AM5" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:39">
       <c r="D6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>2100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>20379</v>
       </c>
       <c r="S6" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA6" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE6" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="AH6" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI6" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL6" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:39">
       <c r="D7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>2499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>20379</v>
       </c>
       <c r="S7" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AF7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AH7" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI7" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ7" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:39">
       <c r="D8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>20379</v>
       </c>
       <c r="S8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD8" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AF8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="AH8" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI8" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ8" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL8" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:39">
       <c r="D9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>2099</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>20385</v>
       </c>
       <c r="S9" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA9" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB9" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC9" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD9" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="AH9" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI9" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL9" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:39">
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>2999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>20387</v>
       </c>
       <c r="S10" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA10" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC10" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD10" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH10" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI10" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ10" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:39">
       <c r="D11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>20391</v>
       </c>
       <c r="S11" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA11" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB11" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC11" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD11" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI11" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ11" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:39">
       <c r="D12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>3499</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>20391</v>
       </c>
       <c r="S12" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA12" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC12" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD12" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH12" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI12" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ12" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL12" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:39">
       <c r="D13" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>20433</v>
       </c>
       <c r="S13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA13" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB13" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC13" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD13" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AF13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH13" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI13" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ13" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL13" t="s">
-        <v>115</v>
+        <v>123</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:39">
       <c r="D14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>5000</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>20433</v>
       </c>
       <c r="S14" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA14" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB14" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="AC14" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD14" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE14" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH14" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI14" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="AJ14" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL14" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:39">
       <c r="D15" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E15" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>6999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K15">
         <v>20446</v>
       </c>
       <c r="S15" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA15" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD15" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AF15" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH15" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI15" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AJ15" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AL15" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="16" spans="1:38">
+    <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E16" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <v>4999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K16">
         <v>20446</v>
       </c>
       <c r="S16" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA16" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC16" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD16" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AF16" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="AH16" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI16" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AJ16" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AL16" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="17" spans="4:38">
+    <row r="17" spans="4:39">
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>3999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K17">
         <v>20455</v>
       </c>
       <c r="S17" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA17" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC17" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AF17" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH17" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI17" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ17" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL17" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="18" spans="4:38">
+    <row r="18" spans="4:39">
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>3999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K18">
         <v>20455</v>
       </c>
       <c r="S18" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA18" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC18" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD18" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AF18" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="AH18" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI18" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="AJ18" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="AL18" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="19" spans="4:38">
+    <row r="19" spans="4:39">
       <c r="D19" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E19" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>5999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K19">
         <v>20457</v>
       </c>
       <c r="S19" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA19" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC19" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="AD19" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="AE19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AF19" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="AH19" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="AI19" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="AJ19" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="AL19" t="s">
-        <v>116</v>
+        <v>124</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>126</v>
       </c>
     </row>
-    <row r="20" spans="4:38">
+    <row r="20" spans="4:39">
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F20">
         <v>4999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K20">
         <v>20463</v>
       </c>
       <c r="S20" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="AA20" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="AC20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="21" spans="4:39">
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>4999</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21">
+        <v>20462</v>
+      </c>
+      <c r="S21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="4:39">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>4999</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AE20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AF20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>106</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="I22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22">
+        <v>20467</v>
+      </c>
+      <c r="S22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE22" t="s">
         <v>113</v>
       </c>
-      <c r="AL20" t="s">
-        <v>117</v>
+      <c r="AH22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2269,6 +2511,10 @@
     <hyperlink ref="I19" r:id="rId36"/>
     <hyperlink ref="G20" r:id="rId37"/>
     <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="122">
   <si>
     <t>Address</t>
   </si>
@@ -158,9 +158,6 @@
   </si>
   <si>
     <t>Офисные стулья</t>
-  </si>
-  <si>
-    <t>Стул кресло для конференций</t>
   </si>
   <si>
     <t>Офисный стул</t>
@@ -421,27 +418,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стул кресло для конференц зала 
-Артикул 20391
-Описание Стул кресло удобное и практичное конференц-кресло, которое отлично подойдет для оформления конференц-залов, офисных приемок.
-Обивка. В качестве обивки была выбрана искусственная кожа – наиболее популярный и бюджетный обивочный материал, прочный, эластичный, простой в уходе.
-Основа. П-образный каркас изогнут из металлической цельной трубы. Хромированные элементы не потеряют свою красоту со временем, ведь покрытие очень крепкое и устойчивое к всевозможным внешним факторам. Форма основания позволяет креслу немного пружинить, создавая эффект легкого покачивания.
-Цвет чёрный.
-Цена 4000, 3500 - без подлокотников
-Количество 7
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Офисный стул самба
 Артикул 20433
 Описание: Кресло для конференц зала от известного производителя Chairman. Кожаное кресло самба с деревянными подлокотниками стильное и прочное кресло зарекомендовало себя, как одно из лучших кресел для офиса.
@@ -574,29 +550,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Офисный стул для конференц зала
-Артикул 20457
-Описание: Офисные стулья для переговоров в отличном состоянии. Стулья на крепком металлическом каркасе и спинкой из мягкго пластика. Стул-кресло обладает хорошей эргономикой и создаёт полный комфорт во время сидения.
-Цвет: оранжевый
-Цена: 6000
-Количество: 22-16=6
-В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Стул-кресло для конференц зала
 Артикул (20463)
 Описание Обогатите свое рабочее пространство с уникальными офисными стульями JoinMe от Dauphin, производителя мебели из Германии. Разработанные известным дизайнером Мартином Баллендатом, эти стулья сочетают в себе комфорт и практичность, идеально подходя для современных офисных пространств.
@@ -700,9 +653,6 @@
     <t>https://disk.yandex.ru/i/CtGr-ZPkjM5Q2A | https://disk.yandex.ru/i/Boh3O8L64NCGZA | https://disk.yandex.ru/i/sbQreYOfg1OoSQ | https://disk.yandex.ru/i/WsSNsIqMk0Bfhg | https://disk.yandex.ru/i/jpTfxqGzBhHZwA | https://disk.yandex.ru/i/ix11X_Vk2xSLiQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/1TdoUhVDEW_urw | https://disk.yandex.ru/i/WP6OFB8_g8Lm2g | https://disk.yandex.ru/i/-vBvSkGwZK_LRQ | https://disk.yandex.ru/i/YN6zmmHN15mOmQ | https://disk.yandex.ru/i/aISOlpG5Vw5ZhA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/FmS1JoBXjc4FAA | https://disk.yandex.ru/i/4fHOp1u3uZQmWw | https://disk.yandex.ru/i/zq8TCxKOdBe5jA | https://disk.yandex.ru/i/bYcFAKIxE-l7fg | https://disk.yandex.ru/i/CWaG6C89S-oBCA</t>
   </si>
   <si>
@@ -721,9 +671,6 @@
     <t>https://disk.yandex.ru/i/ZTHyPWRR8U6O_Q | https://disk.yandex.ru/i/jclwedPVNGspAg | https://disk.yandex.ru/i/86K35Lc7zpR3sw | https://disk.yandex.ru/i/kskt503D7Cx8VA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/p2NV328NZRV99A | https://disk.yandex.ru/i/eh70odbG8D1UmA | https://disk.yandex.ru/i/7tnVtvXkbfTsTw | https://disk.yandex.ru/i/jO2YMcrw14LrjQ | https://disk.yandex.ru/i/7NSkUeqYzcXU0g | https://disk.yandex.ru/i/HWLJd-aOSlhWDQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/fsqVdDo-x0xbqQ | https://disk.yandex.ru/i/l4VUzFj4ptIzbA | https://disk.yandex.ru/i/fNfaOnPS-2SqMQ | https://disk.yandex.ru/i/IJpFJVJ2JUsnwQ | https://disk.yandex.ru/i/uNKf2aunGKw0wg | https://disk.yandex.ru/i/NsYKi8YpUPY6Dg | https://disk.yandex.ru/i/ksc-z-bORyfjiQ | https://disk.yandex.ru/i/p-LK5M1xVYDxkQ | https://disk.yandex.ru/i/GF2g_DKFzZ9ldw</t>
   </si>
   <si>
@@ -815,9 +762,6 @@
   </si>
   <si>
     <t>Подлокотники | Колёсики | Мягкое сидение | Мягкая спинка</t>
-  </si>
-  <si>
-    <t>b''</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1191,7 +1135,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,52 +1265,52 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>5000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AE2" t="s">
         <v>100</v>
       </c>
-      <c r="AB2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>105</v>
-      </c>
       <c r="AH2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AI2" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AJ2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AL2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AM2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1374,52 +1318,52 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>5000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD3" t="s">
         <v>99</v>
       </c>
-      <c r="AA3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB3" t="s">
+      <c r="AE3" t="s">
         <v>101</v>
       </c>
-      <c r="AC3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>106</v>
-      </c>
       <c r="AH3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AI3" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AJ3" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL3" t="s">
         <v>118</v>
       </c>
-      <c r="AL3" t="s">
-        <v>123</v>
-      </c>
       <c r="AM3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1427,55 +1371,55 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD4" t="s">
         <v>99</v>
       </c>
-      <c r="AA4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AE4" t="s">
         <v>102</v>
       </c>
-      <c r="AC4" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>107</v>
-      </c>
       <c r="AF4" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AH4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>114</v>
       </c>
-      <c r="AI4" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>119</v>
-      </c>
       <c r="AL4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1483,52 +1427,52 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>4000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD5" t="s">
         <v>99</v>
       </c>
-      <c r="AA5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC5" t="s">
+      <c r="AE5" t="s">
         <v>103</v>
       </c>
-      <c r="AD5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>108</v>
-      </c>
       <c r="AH5" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AI5" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AJ5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AL5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AM5" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1536,52 +1480,52 @@
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>2100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>20379</v>
       </c>
       <c r="S6" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD6" t="s">
         <v>99</v>
       </c>
-      <c r="AA6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>104</v>
       </c>
-      <c r="AE6" t="s">
+      <c r="AH6" t="s">
         <v>109</v>
       </c>
-      <c r="AH6" t="s">
+      <c r="AI6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ6" t="s">
         <v>114</v>
       </c>
-      <c r="AI6" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>119</v>
-      </c>
       <c r="AL6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1589,55 +1533,55 @@
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>2499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>20379</v>
       </c>
       <c r="S7" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>102</v>
       </c>
-      <c r="AC7" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>107</v>
-      </c>
       <c r="AF7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AH7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ7" t="s">
         <v>114</v>
       </c>
-      <c r="AI7" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>119</v>
-      </c>
       <c r="AL7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM7" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1645,55 +1589,55 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>20379</v>
       </c>
       <c r="S8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AA8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB8" t="s">
+      <c r="AE8" t="s">
         <v>102</v>
       </c>
-      <c r="AC8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>107</v>
-      </c>
       <c r="AF8" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="AH8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>114</v>
       </c>
-      <c r="AI8" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>119</v>
-      </c>
       <c r="AL8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM8" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1701,55 +1645,55 @@
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>2099</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>20385</v>
       </c>
       <c r="S9" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD9" t="s">
         <v>99</v>
       </c>
-      <c r="AA9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>104</v>
-      </c>
       <c r="AE9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AF9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AH9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>114</v>
       </c>
-      <c r="AI9" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>119</v>
-      </c>
       <c r="AL9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="AM9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1757,55 +1701,55 @@
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>2999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K10">
         <v>20387</v>
       </c>
       <c r="S10" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD10" t="s">
         <v>99</v>
       </c>
-      <c r="AA10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>104</v>
-      </c>
       <c r="AE10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI10" t="s">
         <v>111</v>
       </c>
-      <c r="AF10" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AL10" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="AM10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1813,55 +1757,55 @@
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K11">
         <v>20391</v>
       </c>
       <c r="S11" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD11" t="s">
         <v>99</v>
       </c>
-      <c r="AA11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>104</v>
-      </c>
       <c r="AE11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI11" t="s">
         <v>111</v>
       </c>
-      <c r="AF11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH11" t="s">
+      <c r="AJ11" t="s">
         <v>114</v>
       </c>
-      <c r="AI11" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ11" t="s">
+      <c r="AL11" t="s">
         <v>119</v>
       </c>
-      <c r="AL11" t="s">
-        <v>124</v>
-      </c>
       <c r="AM11" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1869,55 +1813,55 @@
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12">
-        <v>3499</v>
+        <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12">
+        <v>20433</v>
+      </c>
+      <c r="S12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC12" t="s">
         <v>98</v>
       </c>
-      <c r="K12">
-        <v>20391</v>
-      </c>
-      <c r="S12" t="s">
+      <c r="AD12" t="s">
         <v>99</v>
       </c>
-      <c r="AA12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>104</v>
-      </c>
       <c r="AE12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI12" t="s">
         <v>111</v>
       </c>
-      <c r="AF12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH12" t="s">
+      <c r="AJ12" t="s">
         <v>114</v>
       </c>
-      <c r="AI12" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>119</v>
-      </c>
       <c r="AL12" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="AM12" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1925,55 +1869,52 @@
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K13">
         <v>20433</v>
       </c>
       <c r="S13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD13" t="s">
         <v>99</v>
       </c>
-      <c r="AA13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>104</v>
-      </c>
       <c r="AE13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AH13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>114</v>
       </c>
-      <c r="AI13" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ13" t="s">
+      <c r="AL13" t="s">
         <v>119</v>
       </c>
-      <c r="AL13" t="s">
-        <v>123</v>
-      </c>
       <c r="AM13" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1981,164 +1922,167 @@
         <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14">
-        <v>5000</v>
+        <v>6999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14">
+        <v>20446</v>
+      </c>
+      <c r="S14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC14" t="s">
         <v>98</v>
       </c>
-      <c r="K14">
-        <v>20433</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="AD14" t="s">
         <v>99</v>
       </c>
-      <c r="AA14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>104</v>
-      </c>
       <c r="AE14" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>106</v>
       </c>
       <c r="AH14" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AI14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AJ14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL14" t="s">
         <v>119</v>
       </c>
-      <c r="AL14" t="s">
-        <v>124</v>
-      </c>
       <c r="AM14" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="D15" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15">
-        <v>6999</v>
+        <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K15">
         <v>20446</v>
       </c>
       <c r="S15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD15" t="s">
         <v>99</v>
       </c>
-      <c r="AA15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>104</v>
-      </c>
       <c r="AE15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AF15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AH15" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AI15" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="AJ15" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM15" t="s">
         <v>121</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16">
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16">
+        <v>20455</v>
+      </c>
+      <c r="S16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC16" t="s">
         <v>98</v>
       </c>
-      <c r="K16">
-        <v>20446</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="AD16" t="s">
         <v>99</v>
       </c>
-      <c r="AA16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>104</v>
-      </c>
       <c r="AE16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AF16" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="AH16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>114</v>
       </c>
-      <c r="AI16" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ16" t="s">
+      <c r="AL16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM16" t="s">
         <v>121</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="17" spans="4:39">
@@ -2146,329 +2090,217 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>3999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="K17">
         <v>20455</v>
       </c>
       <c r="S17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD17" t="s">
         <v>99</v>
       </c>
-      <c r="AA17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>104</v>
-      </c>
       <c r="AE17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI17" t="s">
         <v>111</v>
       </c>
-      <c r="AF17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH17" t="s">
+      <c r="AJ17" t="s">
         <v>114</v>
       </c>
-      <c r="AI17" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ17" t="s">
+      <c r="AL17" t="s">
         <v>119</v>
       </c>
-      <c r="AL17" t="s">
-        <v>124</v>
-      </c>
       <c r="AM17" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="18" spans="4:39">
       <c r="D18" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18">
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18">
+        <v>20463</v>
+      </c>
+      <c r="S18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC18" t="s">
         <v>98</v>
       </c>
-      <c r="K18">
-        <v>20455</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AD18" t="s">
         <v>99</v>
       </c>
-      <c r="AA18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
-        <v>111</v>
-      </c>
       <c r="AF18" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="AH18" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="AI18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>116</v>
       </c>
-      <c r="AJ18" t="s">
-        <v>119</v>
-      </c>
       <c r="AL18" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="AM18" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="4:39">
       <c r="D19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19">
-        <v>5999</v>
+        <v>4999</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K19">
+        <v>20462</v>
+      </c>
+      <c r="S19" t="s">
         <v>94</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="AA19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC19" t="s">
         <v>98</v>
       </c>
-      <c r="K19">
-        <v>20457</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AD19" t="s">
         <v>99</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>104</v>
       </c>
       <c r="AE19" t="s">
         <v>106</v>
       </c>
-      <c r="AF19" t="s">
-        <v>106</v>
-      </c>
       <c r="AH19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>114</v>
       </c>
-      <c r="AI19" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ19" t="s">
+      <c r="AL19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM19" t="s">
         <v>121</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="20" spans="4:39">
       <c r="D20" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20">
         <v>4999</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20">
+        <v>20467</v>
+      </c>
+      <c r="S20" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="AB20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC20" t="s">
         <v>98</v>
       </c>
-      <c r="K20">
-        <v>20463</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AD20" t="s">
         <v>99</v>
       </c>
-      <c r="AA20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>104</v>
-      </c>
       <c r="AE20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH20" t="s">
         <v>109</v>
       </c>
-      <c r="AF20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH20" t="s">
+      <c r="AI20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>114</v>
       </c>
-      <c r="AI20" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="AL20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM20" t="s">
         <v>121</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="21" spans="4:39">
-      <c r="D21" t="s">
-        <v>54</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21">
-        <v>4999</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K21">
-        <v>20462</v>
-      </c>
-      <c r="S21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="4:39">
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22">
-        <v>4999</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22">
-        <v>20467</v>
-      </c>
-      <c r="S22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>113</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>127</v>
       </c>
     </row>
   </sheetData>
@@ -2511,10 +2343,6 @@
     <hyperlink ref="I19" r:id="rId36"/>
     <hyperlink ref="G20" r:id="rId37"/>
     <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="125">
   <si>
     <t>Address</t>
   </si>
@@ -623,6 +623,29 @@
     </t>
   </si>
   <si>
+    <t>Стул офисный
+Артикул 20468
+Комплект офисных стульев. Стулья имеют высокий уровень удобства за счёт эргономичности и нестатичного основания. 
+Продается только комплект 5 стульев по 6 999 за шт. 
+Цвет бежевый
+Цена 6 999
+Количество 5
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/8qQyhp9ult7diw | https://disk.yandex.ru/i/uE-RYkadNO6TyA | https://disk.yandex.ru/i/Qx_3jFDLLFRLXw | https://disk.yandex.ru/i/o2V8urwcWcjJIg | https://disk.yandex.ru/i/tosFQ9mVA3fR3A | https://disk.yandex.ru/i/cyQHvA9Tr1vyCQ | https://disk.yandex.ru/i/KvuDWEfi_ogKTw | https://disk.yandex.ru/i/M7aGqLLzIKPEig</t>
   </si>
   <si>
@@ -680,6 +703,9 @@
     <t>https://disk.yandex.ru/i/7biWUSx6HtkD7A | https://disk.yandex.ru/i/u6EJpqK1-D-JuQ | https://disk.yandex.ru/i/8pqpSiehD-5JAw | https://disk.yandex.ru/i/g0nHd7AtPvLZYg | https://disk.yandex.ru/i/TUUb3OUrbYjXIw | https://disk.yandex.ru/i/wbHBYSxv44Uhjg | https://disk.yandex.ru/i/h5jVPhTDhIPoUg | https://disk.yandex.ru/i/kfKT9imakawcEA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/z_rOB6muVRrB8g | https://disk.yandex.ru/i/OKe1lZ7wuXcE7A | https://disk.yandex.ru/i/wEbF3plS51SqUQ | https://disk.yandex.ru/i/NKO5n8Vgfchx4w | https://disk.yandex.ru/i/Laaz5vi_H-zqAg | https://disk.yandex.ru/i/HMt8LJukBgtGzg</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -738,6 +764,9 @@
   </si>
   <si>
     <t>Искусственная кожа</t>
+  </si>
+  <si>
+    <t>Кожа</t>
   </si>
   <si>
     <t>Дерево</t>
@@ -1135,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1271,46 +1300,46 @@
         <v>5000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AH2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL2" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1324,46 +1353,46 @@
         <v>5000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE3" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AH3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ3" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AM3" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1377,49 +1406,49 @@
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB4" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AM4" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1433,46 +1462,46 @@
         <v>4000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AH5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ5" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="AL5" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1486,46 +1515,46 @@
         <v>2100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K6">
         <v>20379</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC6" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ6" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AM6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1539,49 +1568,49 @@
         <v>2499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K7">
         <v>20379</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ7" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1595,49 +1624,49 @@
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K8">
         <v>20379</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AF8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AH8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI8" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AM8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1651,49 +1680,49 @@
         <v>2099</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K9">
         <v>20385</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC9" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ9" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL9" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AM9" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1707,49 +1736,49 @@
         <v>2999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K10">
         <v>20387</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="AL10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AM10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1763,49 +1792,49 @@
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K11">
         <v>20391</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC11" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AM11" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1819,49 +1848,49 @@
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K12">
         <v>20433</v>
       </c>
       <c r="S12" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA12" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB12" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH12" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI12" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ12" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AM12" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1875,46 +1904,46 @@
         <v>5000</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K13">
         <v>20433</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA13" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB13" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC13" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE13" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH13" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AJ13" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL13" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AM13" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1928,49 +1957,49 @@
         <v>6999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K14">
         <v>20446</v>
       </c>
       <c r="S14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA14" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB14" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC14" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF14" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH14" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ14" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AL14" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AM14" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -1984,49 +2013,49 @@
         <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K15">
         <v>20446</v>
       </c>
       <c r="S15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA15" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB15" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC15" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF15" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH15" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI15" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ15" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AL15" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AM15" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2040,49 +2069,49 @@
         <v>3999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K16">
         <v>20455</v>
       </c>
       <c r="S16" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB16" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC16" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF16" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH16" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI16" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ16" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL16" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AM16" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="17" spans="4:39">
@@ -2096,49 +2125,49 @@
         <v>3999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K17">
         <v>20455</v>
       </c>
       <c r="S17" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA17" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB17" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC17" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH17" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AJ17" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL17" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AM17" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="4:39">
@@ -2152,49 +2181,49 @@
         <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K18">
         <v>20463</v>
       </c>
       <c r="S18" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA18" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="AC18" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AH18" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI18" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AJ18" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="AL18" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="AM18" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="4:39">
@@ -2208,46 +2237,46 @@
         <v>4999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K19">
         <v>20462</v>
       </c>
       <c r="S19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="AA19" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="AC19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AD19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE19" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH19" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AI19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AJ19" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AL19" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AM19" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="4:39">
@@ -2261,46 +2290,99 @@
         <v>4999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K20">
         <v>20467</v>
       </c>
       <c r="S20" t="s">
+        <v>96</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="21" spans="4:39">
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" t="s">
+        <v>74</v>
+      </c>
+      <c r="F21">
+        <v>6999</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="I21" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="K21">
+        <v>20468</v>
+      </c>
+      <c r="S21" t="s">
         <v>96</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AA21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB21" t="s">
         <v>98</v>
       </c>
-      <c r="AD20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AJ20" t="s">
-        <v>114</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>121</v>
+      <c r="AC21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2343,6 +2425,8 @@
     <hyperlink ref="I19" r:id="rId36"/>
     <hyperlink ref="G20" r:id="rId37"/>
     <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -246,7 +246,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -319,7 +318,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -342,7 +340,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -364,7 +361,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -386,7 +382,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -409,7 +404,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -429,7 +423,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -479,7 +472,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -501,7 +493,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -522,7 +513,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -541,7 +531,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -562,7 +551,6 @@
 ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
 ➕ При поиске нас в навигаторе наберите – 
 Офис комфорт Одинцово 
-➕ Наш телеграмм канал – office comfort es
 🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
 -------------------------------------------------------------------
 Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -198,7 +198,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -224,7 +223,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -270,7 +268,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -296,7 +293,6 @@
             ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
             ➕ При поиске нас в навигаторе наберите – 
             Офис комфорт Одинцово 
-            ➕ Наш телеграмм канал – office comfort es
             🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
             -------------------------------------------------------------------
             Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
@@ -448,7 +444,6 @@
     ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
     ➕ При поиске нас в навигаторе наберите – 
     Офис комфорт Одинцово 
-    ➕ Наш телеграмм канал – office comfort es
     🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
     -------------------------------------------------------------------
     Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F1013B-79E1-4F43-A36F-233EAD61A4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="147">
   <si>
     <t>Address</t>
   </si>
@@ -157,28 +163,46 @@
     <t>Стул кресло офисное</t>
   </si>
   <si>
+    <t>Офисный стул</t>
+  </si>
+  <si>
+    <t>Офисное стул-кресло</t>
+  </si>
+  <si>
+    <t>Стул офисный для конференций</t>
+  </si>
+  <si>
+    <t>Стуля офисные</t>
+  </si>
+  <si>
+    <t>Стул для посетителей</t>
+  </si>
+  <si>
+    <t>Стул офисный bene</t>
+  </si>
+  <si>
+    <t>Стул офисный Haworth</t>
+  </si>
+  <si>
     <t>Офисные стулья</t>
   </si>
   <si>
-    <t>Офисный стул</t>
-  </si>
-  <si>
-    <t>Офисное стул-кресло</t>
-  </si>
-  <si>
-    <t>Стул офисный для конференций</t>
-  </si>
-  <si>
-    <t>Стуля офисные</t>
-  </si>
-  <si>
-    <t>Стул для посетителей</t>
-  </si>
-  <si>
-    <t>Стул офисный bene</t>
-  </si>
-  <si>
-    <t>Стул офисный Haworth</t>
+    <t>Стул офисный Chairman</t>
+  </si>
+  <si>
+    <t>Стул-кресло</t>
+  </si>
+  <si>
+    <t>Кресло офисное</t>
+  </si>
+  <si>
+    <t>Стул для переговорной</t>
+  </si>
+  <si>
+    <t>Стул кресло офисное кожаное</t>
+  </si>
+  <si>
+    <t>Стул офисный для переговоров</t>
   </si>
   <si>
     <t xml:space="preserve">Барный стул старинный
@@ -386,28 +410,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Кресло офисное с подлокотниками
-Артикул: 20391
-Описание: кресло с кожзам обивкой и металлическим армотизирующим каркасом 
-Цвет чёрный
-Цена 4000
-Количество 7
-В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Офисный стул самба
 Артикул 20433
 Описание: Кресло для конференц зала от известного производителя Chairman. Кожаное кресло самба с деревянными подлокотниками стильное и прочное кресло зарекомендовало себя, как одно из лучших кресел для офиса.
@@ -629,6 +631,210 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Кресло офисное с подлокотниками
+Артикул: 20391
+Описание: кресло с кожзам обивкой и металлическим армотизирующим каркасом 
+Цвет чёрный
+Цена 4000
+Количество 7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стул офисный Chairman
+Артикул 20459
+Стул - кресло в обивке из кожзама. На сидушка есть небольшие потертости 
+Цвет черный
+Цена 4 999
+Количество 1 шт
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стул-кресло
+Артикул 20472
+Стул кожанный переговорный для офиса.
+Стул-кресло на деревянной основе.
+Цвет черный
+Цена 9 999
+Количество 2 шт
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Кресло офисное
+Артикул 20460
+Стул кожанный для офиса. Выполнен из натуральной кожи и основа прочные металлические ноги выдерживающих большой вес, что гарантику долгий срок службы и устойчивость к износу
+Цвет черный
+Цена 3 999
+Количество 2 шт
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стул для переговорной
+Артикул 20471
+Стул кожанный переговорный для офиса.
+Стул-кресло на деревянной основе. На ножке есть небольшой дефект 
+Цвет черный
+Цена 9 999
+Количество 1 шт
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Кресло офисное
+Артикул 20373
+Стул кожанный переговорный для офиса.
+Стул-кресло на деревянной основе.
+Цвет черный
+Цена 9 999
+Количество 1 шт
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стул кресло офисное кожаное
+Артикул 20466
+Кожанный стул на деревянном каркасе с эргономичной спинкой и подголовником, отличается мягкостью и комфортом.
+На спинке есть дефекты! 
+Цвет черный
+Цена 19 999
+Количество 1
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
+    <t>Стул офисный для переговоров
+Артикул 20470
+Презентабельные стулья для переговорной. В кожзамовой обивке на деревянном каркасе.
+Цвет черный
+Цена 4 999
+Количество 16
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t>Стул офисный
+Артикул 20469
+Стулья для переговоров в кожзамовой обивке на деревянном основании. Один стул с дефектами
+Цвет бежевый
+Цена 4 999
+Количество 4
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/8qQyhp9ult7diw | https://disk.yandex.ru/i/uE-RYkadNO6TyA | https://disk.yandex.ru/i/Qx_3jFDLLFRLXw | https://disk.yandex.ru/i/o2V8urwcWcjJIg | https://disk.yandex.ru/i/tosFQ9mVA3fR3A | https://disk.yandex.ru/i/cyQHvA9Tr1vyCQ | https://disk.yandex.ru/i/KvuDWEfi_ogKTw | https://disk.yandex.ru/i/M7aGqLLzIKPEig</t>
   </si>
   <si>
@@ -656,37 +862,61 @@
     <t>https://disk.yandex.ru/i/yDACQ-_MxWT-iA | https://disk.yandex.ru/i/CWqCHMcdvjyOnA | https://disk.yandex.ru/i/dL1Syu7s2-UPuA | https://disk.yandex.ru/i/yUaLoCVM3lR_Tw | https://disk.yandex.ru/i/p1ehepcN3NiwVQ | https://disk.yandex.ru/i/ggfA5uiuM2iMRw | https://disk.yandex.ru/i/jwDKK1Dl5SLhwQ | https://disk.yandex.ru/i/EexZKqsoeFL1rw | https://disk.yandex.ru/i/kUu89nfreRXg_Q | https://disk.yandex.ru/i/DugAW5XO_9cZpQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/FmS1JoBXjc4FAA | https://disk.yandex.ru/i/4fHOp1u3uZQmWw | https://disk.yandex.ru/i/zq8TCxKOdBe5jA | https://disk.yandex.ru/i/bYcFAKIxE-l7fg | https://disk.yandex.ru/i/CWaG6C89S-oBCA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/qkABNUdtNGvtOg | https://disk.yandex.ru/i/OBn4_H-VfLWobw | https://disk.yandex.ru/i/0rMR7zyZ9P1k-w | https://disk.yandex.ru/i/mqvIQWTRZ6j7pw | https://disk.yandex.ru/i/VZMDQzMNPJ4F1w</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/IEV1K1R1GTj15w | https://disk.yandex.ru/i/MsXVUujJ7_OZSw | https://disk.yandex.ru/i/o3UUq--qSSUS2w | https://disk.yandex.ru/i/HA_chsQLjUQg7w | https://disk.yandex.ru/i/Mw9-ouUVfhJqwA | https://disk.yandex.ru/i/O6mgGQlShnMcEA | https://disk.yandex.ru/i/o7XOOjRhS1wV3Q | https://disk.yandex.ru/i/M8EXKMjxgpeLCg | https://disk.yandex.ru/i/5UD3IjBwj3niMA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/P_p8J06Oomnk7A | https://disk.yandex.ru/i/5oITHfSBAjT20A | https://disk.yandex.ru/i/qBTL7XLtrg9Tfw | https://disk.yandex.ru/i/T-x8JOltu6b6kA | https://disk.yandex.ru/i/2sMoO6NIy-tRRw | https://disk.yandex.ru/i/veUIyKIfUEIRVA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/OaeAzWDAmvo5HQ | https://disk.yandex.ru/i/-lvf7ogjfI4iQA | https://disk.yandex.ru/i/51-rW-3ilxJTVw | https://disk.yandex.ru/i/-td07XVsNrkoDQ | https://disk.yandex.ru/i/1MdvqkNIFLrycw | https://disk.yandex.ru/i/-pWAfmNH7iJP5g | https://disk.yandex.ru/i/cbzowl4N5cBeVQ | https://disk.yandex.ru/i/LJhP50v1sEzADQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ZTHyPWRR8U6O_Q | https://disk.yandex.ru/i/jclwedPVNGspAg | https://disk.yandex.ru/i/86K35Lc7zpR3sw | https://disk.yandex.ru/i/kskt503D7Cx8VA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/fsqVdDo-x0xbqQ | https://disk.yandex.ru/i/l4VUzFj4ptIzbA | https://disk.yandex.ru/i/fNfaOnPS-2SqMQ | https://disk.yandex.ru/i/IJpFJVJ2JUsnwQ | https://disk.yandex.ru/i/uNKf2aunGKw0wg | https://disk.yandex.ru/i/NsYKi8YpUPY6Dg | https://disk.yandex.ru/i/ksc-z-bORyfjiQ | https://disk.yandex.ru/i/p-LK5M1xVYDxkQ | https://disk.yandex.ru/i/GF2g_DKFzZ9ldw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/ssdWHRTXI3oQsw | https://disk.yandex.ru/i/BJaB5mUJW9Puiw | https://disk.yandex.ru/i/uk9wKJ7K9lUzSg | https://disk.yandex.ru/i/A7TBiUiooqwojg | https://disk.yandex.ru/i/gDQO3LMgYprm6w | https://disk.yandex.ru/i/dfgCdybRqFdWoA | https://disk.yandex.ru/i/qTimX8oNoWWNPw | https://disk.yandex.ru/i/yx7kRhuZgs2-9g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/7biWUSx6HtkD7A | https://disk.yandex.ru/i/u6EJpqK1-D-JuQ | https://disk.yandex.ru/i/8pqpSiehD-5JAw | https://disk.yandex.ru/i/g0nHd7AtPvLZYg | https://disk.yandex.ru/i/TUUb3OUrbYjXIw | https://disk.yandex.ru/i/wbHBYSxv44Uhjg | https://disk.yandex.ru/i/h5jVPhTDhIPoUg | https://disk.yandex.ru/i/kfKT9imakawcEA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/z_rOB6muVRrB8g | https://disk.yandex.ru/i/OKe1lZ7wuXcE7A | https://disk.yandex.ru/i/wEbF3plS51SqUQ | https://disk.yandex.ru/i/NKO5n8Vgfchx4w | https://disk.yandex.ru/i/Laaz5vi_H-zqAg | https://disk.yandex.ru/i/HMt8LJukBgtGzg</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/CtGr-ZPkjM5Q2A | https://disk.yandex.ru/i/Boh3O8L64NCGZA | https://disk.yandex.ru/i/sbQreYOfg1OoSQ | https://disk.yandex.ru/i/WsSNsIqMk0Bfhg | https://disk.yandex.ru/i/jpTfxqGzBhHZwA | https://disk.yandex.ru/i/ix11X_Vk2xSLiQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/FmS1JoBXjc4FAA | https://disk.yandex.ru/i/4fHOp1u3uZQmWw | https://disk.yandex.ru/i/zq8TCxKOdBe5jA | https://disk.yandex.ru/i/bYcFAKIxE-l7fg | https://disk.yandex.ru/i/CWaG6C89S-oBCA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/qkABNUdtNGvtOg | https://disk.yandex.ru/i/OBn4_H-VfLWobw | https://disk.yandex.ru/i/0rMR7zyZ9P1k-w | https://disk.yandex.ru/i/mqvIQWTRZ6j7pw | https://disk.yandex.ru/i/VZMDQzMNPJ4F1w</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/IEV1K1R1GTj15w | https://disk.yandex.ru/i/MsXVUujJ7_OZSw | https://disk.yandex.ru/i/o3UUq--qSSUS2w | https://disk.yandex.ru/i/HA_chsQLjUQg7w | https://disk.yandex.ru/i/Mw9-ouUVfhJqwA | https://disk.yandex.ru/i/O6mgGQlShnMcEA | https://disk.yandex.ru/i/o7XOOjRhS1wV3Q | https://disk.yandex.ru/i/M8EXKMjxgpeLCg | https://disk.yandex.ru/i/5UD3IjBwj3niMA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/P_p8J06Oomnk7A | https://disk.yandex.ru/i/5oITHfSBAjT20A | https://disk.yandex.ru/i/qBTL7XLtrg9Tfw | https://disk.yandex.ru/i/T-x8JOltu6b6kA | https://disk.yandex.ru/i/2sMoO6NIy-tRRw | https://disk.yandex.ru/i/veUIyKIfUEIRVA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/OaeAzWDAmvo5HQ | https://disk.yandex.ru/i/-lvf7ogjfI4iQA | https://disk.yandex.ru/i/51-rW-3ilxJTVw | https://disk.yandex.ru/i/-td07XVsNrkoDQ | https://disk.yandex.ru/i/1MdvqkNIFLrycw | https://disk.yandex.ru/i/-pWAfmNH7iJP5g | https://disk.yandex.ru/i/cbzowl4N5cBeVQ | https://disk.yandex.ru/i/LJhP50v1sEzADQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/ZTHyPWRR8U6O_Q | https://disk.yandex.ru/i/jclwedPVNGspAg | https://disk.yandex.ru/i/86K35Lc7zpR3sw | https://disk.yandex.ru/i/kskt503D7Cx8VA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/fsqVdDo-x0xbqQ | https://disk.yandex.ru/i/l4VUzFj4ptIzbA | https://disk.yandex.ru/i/fNfaOnPS-2SqMQ | https://disk.yandex.ru/i/IJpFJVJ2JUsnwQ | https://disk.yandex.ru/i/uNKf2aunGKw0wg | https://disk.yandex.ru/i/NsYKi8YpUPY6Dg | https://disk.yandex.ru/i/ksc-z-bORyfjiQ | https://disk.yandex.ru/i/p-LK5M1xVYDxkQ | https://disk.yandex.ru/i/GF2g_DKFzZ9ldw</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/ssdWHRTXI3oQsw | https://disk.yandex.ru/i/BJaB5mUJW9Puiw | https://disk.yandex.ru/i/uk9wKJ7K9lUzSg | https://disk.yandex.ru/i/A7TBiUiooqwojg | https://disk.yandex.ru/i/gDQO3LMgYprm6w | https://disk.yandex.ru/i/dfgCdybRqFdWoA | https://disk.yandex.ru/i/qTimX8oNoWWNPw | https://disk.yandex.ru/i/yx7kRhuZgs2-9g</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/7biWUSx6HtkD7A | https://disk.yandex.ru/i/u6EJpqK1-D-JuQ | https://disk.yandex.ru/i/8pqpSiehD-5JAw | https://disk.yandex.ru/i/g0nHd7AtPvLZYg | https://disk.yandex.ru/i/TUUb3OUrbYjXIw | https://disk.yandex.ru/i/wbHBYSxv44Uhjg | https://disk.yandex.ru/i/h5jVPhTDhIPoUg | https://disk.yandex.ru/i/kfKT9imakawcEA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/z_rOB6muVRrB8g | https://disk.yandex.ru/i/OKe1lZ7wuXcE7A | https://disk.yandex.ru/i/wEbF3plS51SqUQ | https://disk.yandex.ru/i/NKO5n8Vgfchx4w | https://disk.yandex.ru/i/Laaz5vi_H-zqAg | https://disk.yandex.ru/i/HMt8LJukBgtGzg</t>
+    <t>https://disk.yandex.ru/i/MWmgGdpTSCKUtg | https://disk.yandex.ru/i/Ej6A5AIKeKvR1w | https://disk.yandex.ru/i/XhBrX9VMuXu9EA | https://disk.yandex.ru/i/OTQeBmJXOQMSFA | https://disk.yandex.ru/i/T2hIPqfHddBxEA | https://disk.yandex.ru/i/GToWigE_-k7ZJg | https://disk.yandex.ru/i/QEZ1Ys8jBwEDWg | https://disk.yandex.ru/i/kYlzsqo7KHF-Mg | https://disk.yandex.ru/i/5QcDCBI0C3rAxw | https://disk.yandex.ru/i/0aCnGZRcmYSo1g</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/40RK-Oz-X1nfQg | https://disk.yandex.ru/i/IJ1g6qO00WhPlg | https://disk.yandex.ru/i/EQTPDmOCnI2u9Q | https://disk.yandex.ru/i/FlusLag6-ScP6g | https://disk.yandex.ru/i/M-86YNFCgF6yLg | https://disk.yandex.ru/i/ZHg9fTE1MGPTiw | https://disk.yandex.ru/i/0IJPnOpVFQQYwA | https://disk.yandex.ru/i/pidQVjtWigmebQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/QsZ_yhjrbU7_Aw | https://disk.yandex.ru/i/f-KELCF5AYYsGA | https://disk.yandex.ru/i/9Pqbg3BRugd4PA | https://disk.yandex.ru/i/ZEkv771sotWOxA | https://disk.yandex.ru/i/LtmtzEYHkMH5xA | https://disk.yandex.ru/i/p_VIf22PcCl2Sw | https://disk.yandex.ru/i/H2GmVKPnK59gMg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/GCcsoIHTTH4RbA | https://disk.yandex.ru/i/O1oAU8DD_7dRMA | https://disk.yandex.ru/i/P-yE8AGFJ6np_A | https://disk.yandex.ru/i/GHaOkOPTwde3ug | https://disk.yandex.ru/i/5U-vBSigfS1M3w | https://disk.yandex.ru/i/W3388gxHhTV6Vw</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/l61b02rng6FWlQ | https://disk.yandex.ru/i/VCLYibir6nsP8Q | https://disk.yandex.ru/i/Q8kn-hqozEhQSg | https://disk.yandex.ru/i/MgcMsCM2ytV_GA | https://disk.yandex.ru/i/M8uzIk9zoFpfxw | https://disk.yandex.ru/i/f5p7OIzC4p_nAg | https://disk.yandex.ru/i/vsnhSj430bkGIQ | https://disk.yandex.ru/i/60dPA1Vf5ApyYA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/nKe-_AYyMDrwvA | https://disk.yandex.ru/i/SW3m7SnbBLSW2g | https://disk.yandex.ru/i/I_aPkJUSlj3XbA | https://disk.yandex.ru/i/kgmvoXyyXmf4yg | https://disk.yandex.ru/i/GQqcRHBiQcTeSw | https://disk.yandex.ru/i/6DPra0nJVzVcGA | https://disk.yandex.ru/i/SBTq_krgjBXYMw | https://disk.yandex.ru/i/npxN2Z8ao1rZFA | https://disk.yandex.ru/i/KiTS6DMYltgUYg | https://disk.yandex.ru/i/Lgdh7Tmgh99zOg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/pQzqLR-pK7sVdQ | https://disk.yandex.ru/i/IVSZ7AaD_WjtFg | https://disk.yandex.ru/i/nHurcWPQfLJGHA | https://disk.yandex.ru/i/RjoC3ujFIBrlmA | https://disk.yandex.ru/i/1k6wpUDoNozHkQ | https://disk.yandex.ru/i/_AE2zxac4CdEvQ | https://disk.yandex.ru/i/OLDAh13r3ASK8A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/BEO8KSXz_KJw3w | https://disk.yandex.ru/i/Gv0cxmcoZ75Nqg | https://disk.yandex.ru/i/KpdCAX_S0z4DzQ | https://disk.yandex.ru/i/YRTlPIZudgfifw | https://disk.yandex.ru/i/bxZm8IS-aQ_gyA | https://disk.yandex.ru/i/XFPIbSrQdSj1gQ | https://disk.yandex.ru/i/xiSRlKVUW8jvUA</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -782,8 +1012,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -854,18 +1084,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -903,9 +1141,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -937,9 +1175,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -971,9 +1227,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1146,14 +1420,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,1144 +1546,1584 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F2">
         <v>5000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA2" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB2" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AC2" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD2" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE2" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="AH2" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI2" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AJ2" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="AL2" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="AM2" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F3">
         <v>5000</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA3" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB3" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AC3" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD3" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE3" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
       <c r="AH3" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI3" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AJ3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="AL3" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AM3" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F4">
         <v>1499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="S4" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA4" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB4" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AC4" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD4" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE4" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="AF4" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="AH4" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI4" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AJ4" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AL4" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AM4" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F5">
         <v>4000</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="S5" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA5" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB5" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AC5" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD5" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE5" t="s">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="AH5" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI5" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AJ5" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="AL5" t="s">
-        <v>120</v>
+        <v>142</v>
       </c>
       <c r="AM5" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="F6">
         <v>2100</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K6">
         <v>20379</v>
       </c>
       <c r="S6" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB6" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AC6" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD6" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE6" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="AH6" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI6" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AJ6" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AL6" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AM6" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>44</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F7">
         <v>2499</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K7">
         <v>20379</v>
       </c>
       <c r="S7" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA7" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB7" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AC7" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD7" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE7" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="AF7" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="AH7" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI7" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AJ7" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AL7" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AM7" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="F8">
         <v>2499</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K8">
         <v>20379</v>
       </c>
       <c r="S8" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA8" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB8" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AC8" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD8" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE8" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="AF8" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
       <c r="AH8" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI8" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AJ8" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AL8" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AM8" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>43</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="F9">
         <v>2099</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K9">
         <v>20385</v>
       </c>
       <c r="S9" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA9" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB9" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AC9" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD9" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE9" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AF9" t="s">
-        <v>107</v>
+        <v>129</v>
       </c>
       <c r="AH9" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI9" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AJ9" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AL9" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="AM9" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="F10">
         <v>2999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K10">
         <v>20387</v>
       </c>
       <c r="S10" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA10" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB10" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AC10" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD10" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE10" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AF10" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AH10" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI10" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AJ10" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="AL10" t="s">
-        <v>122</v>
+        <v>144</v>
       </c>
       <c r="AM10" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="F11">
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>84</v>
+        <v>98</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K11">
-        <v>20391</v>
+        <v>20433</v>
       </c>
       <c r="S11" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA11" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB11" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AC11" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD11" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE11" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AF11" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AH11" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI11" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AJ11" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AL11" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="AM11" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>48</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="F12">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K12">
         <v>20433</v>
       </c>
       <c r="S12" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA12" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB12" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="AC12" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD12" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE12" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF12" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AH12" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI12" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="AJ12" t="s">
-        <v>117</v>
+        <v>139</v>
       </c>
       <c r="AL12" t="s">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="AM12" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>49</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="F13">
-        <v>5000</v>
+        <v>6999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K13">
-        <v>20433</v>
+        <v>20446</v>
       </c>
       <c r="S13" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA13" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB13" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="AC13" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14">
+        <v>4999</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AE13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ13" t="s">
+      <c r="I14" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14">
-        <v>6999</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="K14">
         <v>20446</v>
       </c>
       <c r="S14" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA14" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB14" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AC14" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD14" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE14" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="AF14" t="s">
-        <v>108</v>
+        <v>131</v>
       </c>
       <c r="AH14" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI14" t="s">
-        <v>112</v>
+        <v>134</v>
       </c>
       <c r="AJ14" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15">
+        <v>3999</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K15">
+        <v>20455</v>
+      </c>
+      <c r="S15" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA15" t="s">
         <v>119</v>
       </c>
-      <c r="AL14" t="s">
+      <c r="AB15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC15" t="s">
         <v>122</v>
       </c>
-      <c r="AM14" t="s">
-        <v>124</v>
+      <c r="AD15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F15">
-        <v>4999</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K15">
-        <v>20446</v>
-      </c>
-      <c r="S15" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="F16">
         <v>3999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K16">
         <v>20455</v>
       </c>
       <c r="S16" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA16" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB16" t="s">
-        <v>99</v>
+        <v>121</v>
       </c>
       <c r="AC16" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD16" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="AH16" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI16" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="AJ16" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17">
+        <v>4999</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="K17">
+        <v>20463</v>
+      </c>
+      <c r="S17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC17" t="s">
         <v>122</v>
       </c>
-      <c r="AM16" t="s">
-        <v>124</v>
+      <c r="AD17" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>128</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>145</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="17" spans="4:39">
-      <c r="D17" t="s">
+    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
         <v>52</v>
       </c>
-      <c r="E17" t="s">
-        <v>70</v>
-      </c>
-      <c r="F17">
-        <v>3999</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K17">
-        <v>20455</v>
-      </c>
-      <c r="S17" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>113</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>117</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="4:39">
-      <c r="D18" t="s">
-        <v>46</v>
-      </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="F18">
         <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K18">
-        <v>20463</v>
+        <v>20462</v>
       </c>
       <c r="S18" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA18" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB18" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="AC18" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD18" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE18" t="s">
-        <v>106</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="AH18" t="s">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="AI18" t="s">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="AJ18" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="AL18" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="AM18" t="s">
-        <v>124</v>
+        <v>146</v>
       </c>
     </row>
-    <row r="19" spans="4:39">
+    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="F19">
         <v>4999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
       <c r="K19">
-        <v>20462</v>
+        <v>20467</v>
       </c>
       <c r="S19" t="s">
-        <v>96</v>
+        <v>118</v>
       </c>
       <c r="AA19" t="s">
-        <v>97</v>
+        <v>119</v>
       </c>
       <c r="AB19" t="s">
-        <v>98</v>
+        <v>120</v>
       </c>
       <c r="AC19" t="s">
-        <v>100</v>
+        <v>122</v>
       </c>
       <c r="AD19" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="AE19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>134</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20">
+        <v>6999</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20">
+        <v>20468</v>
+      </c>
+      <c r="S20" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="21" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21">
+        <v>3999</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AH19" t="s">
+      <c r="I21" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K21">
+        <v>20391</v>
+      </c>
+      <c r="S21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>135</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="22" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" t="s">
+        <v>81</v>
+      </c>
+      <c r="F22">
+        <v>4999</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K22">
+        <v>20459</v>
+      </c>
+      <c r="S22" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23">
+        <v>9999</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K23">
+        <v>20472</v>
+      </c>
+      <c r="S23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24">
+        <v>3999</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AI19" t="s">
+      <c r="I24" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K24">
+        <v>20460</v>
+      </c>
+      <c r="S24" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25">
+        <v>9999</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K25">
+        <v>20471</v>
+      </c>
+      <c r="S25" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26">
+        <v>9999</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="K26">
+        <v>20373</v>
+      </c>
+      <c r="S26" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>86</v>
+      </c>
+      <c r="F27">
+        <v>19999</v>
+      </c>
+      <c r="G27" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AJ19" t="s">
+      <c r="I27" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AL19" t="s">
+      <c r="K27">
+        <v>20466</v>
+      </c>
+      <c r="S27" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC27" t="s">
         <v>122</v>
       </c>
-      <c r="AM19" t="s">
-        <v>124</v>
+      <c r="AD27" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>137</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="20" spans="4:39">
-      <c r="D20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E20" t="s">
-        <v>73</v>
-      </c>
-      <c r="F20">
+    <row r="28" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28">
         <v>4999</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K20">
-        <v>20467</v>
-      </c>
-      <c r="S20" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="G28" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AL20" t="s">
+      <c r="K28">
+        <v>20470</v>
+      </c>
+      <c r="S28" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC28" t="s">
         <v>122</v>
       </c>
-      <c r="AM20" t="s">
-        <v>124</v>
+      <c r="AD28" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>130</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>146</v>
       </c>
     </row>
-    <row r="21" spans="4:39">
-      <c r="D21" t="s">
+    <row r="29" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
         <v>43</v>
       </c>
-      <c r="E21" t="s">
-        <v>74</v>
-      </c>
-      <c r="F21">
-        <v>6999</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21">
-        <v>20468</v>
-      </c>
-      <c r="S21" t="s">
-        <v>96</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ21" t="s">
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+      <c r="F29">
+        <v>4999</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="I29" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AL21" t="s">
+      <c r="K29">
+        <v>20469</v>
+      </c>
+      <c r="S29" t="s">
+        <v>118</v>
+      </c>
+      <c r="AA29" t="s">
+        <v>119</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC29" t="s">
         <v>122</v>
       </c>
-      <c r="AM21" t="s">
-        <v>124</v>
+      <c r="AD29" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE29" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>133</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>136</v>
+      </c>
+      <c r="AJ29" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL29" t="s">
+        <v>144</v>
+      </c>
+      <c r="AM29" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F1013B-79E1-4F43-A36F-233EAD61A4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -1012,8 +1006,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1084,26 +1078,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1141,9 +1127,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1175,27 +1161,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1227,27 +1195,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1420,14 +1370,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1546,7 +1496,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="D2" t="s">
         <v>39</v>
       </c>
@@ -1599,7 +1549,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="D3" t="s">
         <v>40</v>
       </c>
@@ -1652,7 +1602,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="D4" t="s">
         <v>41</v>
       </c>
@@ -1708,7 +1658,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -1761,7 +1711,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="D6" t="s">
         <v>43</v>
       </c>
@@ -1814,7 +1764,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="D7" t="s">
         <v>44</v>
       </c>
@@ -1870,7 +1820,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="D8" t="s">
         <v>45</v>
       </c>
@@ -1926,7 +1876,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="D9" t="s">
         <v>43</v>
       </c>
@@ -1982,7 +1932,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="D10" t="s">
         <v>46</v>
       </c>
@@ -2038,7 +1988,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="D11" t="s">
         <v>47</v>
       </c>
@@ -2094,7 +2044,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="D12" t="s">
         <v>48</v>
       </c>
@@ -2147,7 +2097,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="D13" t="s">
         <v>49</v>
       </c>
@@ -2203,7 +2153,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="D14" t="s">
         <v>43</v>
       </c>
@@ -2259,7 +2209,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="D15" t="s">
         <v>50</v>
       </c>
@@ -2315,7 +2265,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="D16" t="s">
         <v>51</v>
       </c>
@@ -2371,7 +2321,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:39">
       <c r="D17" t="s">
         <v>46</v>
       </c>
@@ -2427,7 +2377,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:39">
       <c r="D18" t="s">
         <v>52</v>
       </c>
@@ -2480,7 +2430,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:39">
       <c r="D19" t="s">
         <v>53</v>
       </c>
@@ -2533,7 +2483,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:39">
       <c r="D20" t="s">
         <v>43</v>
       </c>
@@ -2586,7 +2536,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="21" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:39">
       <c r="D21" t="s">
         <v>54</v>
       </c>
@@ -2642,7 +2592,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="22" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:39">
       <c r="D22" t="s">
         <v>55</v>
       </c>
@@ -2695,7 +2645,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:39">
       <c r="D23" t="s">
         <v>56</v>
       </c>
@@ -2748,7 +2698,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="24" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:39">
       <c r="D24" t="s">
         <v>57</v>
       </c>
@@ -2801,7 +2751,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="25" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:39">
       <c r="D25" t="s">
         <v>58</v>
       </c>
@@ -2854,7 +2804,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="26" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:39">
       <c r="D26" t="s">
         <v>57</v>
       </c>
@@ -2907,7 +2857,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="27" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:39">
       <c r="D27" t="s">
         <v>59</v>
       </c>
@@ -2960,7 +2910,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="4:39">
       <c r="D28" t="s">
         <v>60</v>
       </c>
@@ -3013,7 +2963,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:39">
       <c r="D29" t="s">
         <v>43</v>
       </c>
@@ -3068,62 +3018,62 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="G27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="I27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="G28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="I28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="G29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="I29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
+    <hyperlink ref="G27" r:id="rId51"/>
+    <hyperlink ref="I27" r:id="rId52"/>
+    <hyperlink ref="G28" r:id="rId53"/>
+    <hyperlink ref="I28" r:id="rId54"/>
+    <hyperlink ref="G29" r:id="rId55"/>
+    <hyperlink ref="I29" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D68A1-3A31-4440-8A4C-28F97BE2C412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="139">
   <si>
     <t>Address</t>
   </si>
@@ -136,67 +142,58 @@
     <t>Барный стул</t>
   </si>
   <si>
-    <t xml:space="preserve">Стулья банкетные </t>
-  </si>
-  <si>
     <t>Стул офисный для посетителей</t>
   </si>
   <si>
+    <t>Стул офисный</t>
+  </si>
+  <si>
+    <t>Стул офисный Изо</t>
+  </si>
+  <si>
+    <t>Офисные стулья Изо</t>
+  </si>
+  <si>
+    <t>Стул кресло офисное</t>
+  </si>
+  <si>
+    <t>Офисный стул</t>
+  </si>
+  <si>
+    <t>Офисное стул-кресло</t>
+  </si>
+  <si>
+    <t>Стул офисный для конференций</t>
+  </si>
+  <si>
+    <t>Стул для посетителей</t>
+  </si>
+  <si>
+    <t>Стул офисный bene</t>
+  </si>
+  <si>
+    <t>Стул офисный Haworth</t>
+  </si>
+  <si>
+    <t>Офисные стулья</t>
+  </si>
+  <si>
+    <t>Стул офисный Chairman</t>
+  </si>
+  <si>
+    <t>Стул-кресло</t>
+  </si>
+  <si>
+    <t>Кресло офисное</t>
+  </si>
+  <si>
+    <t>Стул для переговорной</t>
+  </si>
+  <si>
+    <t>Стул кресло офисное кожаное</t>
+  </si>
+  <si>
     <t>Стулья кухонные</t>
-  </si>
-  <si>
-    <t>Стул офисный</t>
-  </si>
-  <si>
-    <t>Стул офисный Изо</t>
-  </si>
-  <si>
-    <t>Офисные стулья Изо</t>
-  </si>
-  <si>
-    <t>Стул кресло офисное</t>
-  </si>
-  <si>
-    <t>Офисный стул</t>
-  </si>
-  <si>
-    <t>Офисное стул-кресло</t>
-  </si>
-  <si>
-    <t>Стул офисный для конференций</t>
-  </si>
-  <si>
-    <t>Стуля офисные</t>
-  </si>
-  <si>
-    <t>Стул для посетителей</t>
-  </si>
-  <si>
-    <t>Стул офисный bene</t>
-  </si>
-  <si>
-    <t>Стул офисный Haworth</t>
-  </si>
-  <si>
-    <t>Офисные стулья</t>
-  </si>
-  <si>
-    <t>Стул офисный Chairman</t>
-  </si>
-  <si>
-    <t>Стул-кресло</t>
-  </si>
-  <si>
-    <t>Кресло офисное</t>
-  </si>
-  <si>
-    <t>Стул для переговорной</t>
-  </si>
-  <si>
-    <t>Стул кресло офисное кожаное</t>
-  </si>
-  <si>
-    <t>Стул офисный для переговоров</t>
   </si>
   <si>
     <t xml:space="preserve">Барный стул старинный
@@ -225,31 +222,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Стулья банкетные 
-Изысканные банкетные стулья в стиле барокко станут ярким украшением вашего интерьера, добавив ему роскоши и изящества. Стулья выполнены на прочном деревянном каркасе, а мягкие сиденье и спинка, обтянутые тканью с элегантными узорами, обеспечивают комфорт и стильный вид. Барочные изгибы, плавные линии и декоративные детали подчеркивают классический дизайн, идеально подходящий для банкетных залов, ресторанов и особых мероприятий. Эти стулья создадут атмосферу утонченности и королевской элегантности, делая каждое событие незабываемым.
-Цвет коричневый 
-Цена 5 000
-Количество уточняйте
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Стулья для посетителей
 Описание Удобные и стильные кресла для офисов они хорошо впишутся в любые современные дизаны офисных помещений и будут подчеркивать ваш хороший вкус и заботу о посетителях.
 Размеры сидения: Ширина - 60 см
@@ -268,31 +240,6 @@
 На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
 Работаем уже 6 лет, развиваясь и улучшая сервисный центр
 Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Стулья кухонные
-Банкетные стулья в стиле барокко на деревянном каркасе — идеальный выбор для тех, кто ценит роскошь и элегантность. Мягкое сиденье обеспечивает комфорт, а прочная деревянная спинка с классическими изгибами подчеркивает изысканность и статус интерьера. Барочные детали и плавные линии каркаса создают атмосферу королевской роскоши, делая эти стулья отличным дополнением для банкетных залов, ресторанов или залов для торжественных мероприятий. Они не только эстетически привлекательны, но и долговечны, благодаря использованию натуральных материалов и качественной отделки.
-Цвет: бежевый
-Цена 4 000
-Количество уточняйте
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
   </si>
   <si>
     <t>Стул офисный
@@ -477,26 +424,6 @@
 Цена 5000
 Количество 4
 В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Стул офисный
-Артикул 20455
-Описание: Стул для посетителей и гостей от компании Haworth. Офисные стулья выполнены и качественного материала с продвинутыми технологиями производства. Несмотря на их простоту они очень удобные, мягкий пластик и эргономика стула сделаны для поддержания вашего естественного положения. Так же на стульях есть пластиковая защита от царапин, что бы ножки не изнашивались когда стулья стоят друг на друге 
-Цена 4000
-Количество 15 шт
 Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
 🔥 Система больших скидок действует при опте и в праздничные дни 
 ✔ Самовывоз
@@ -785,28 +712,6 @@
     </t>
   </si>
   <si>
-    <t>Стул офисный для переговоров
-Артикул 20470
-Презентабельные стулья для переговорной. В кожзамовой обивке на деревянном каркасе.
-Цвет черный
-Цена 4 999
-Количество 16
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Стул офисный
 Артикул 20469
 Стулья для переговоров в кожзамовой обивке на деревянном основании. Один стул с дефектами
@@ -829,18 +734,34 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Стулья кухонные
+Артикул 20473
+Стулья пластиковые, комфортные и стильные. Подойдут для дома и кафе. На стульях есть небольшие царапины
+Цвет черный
+Цена 999
+Количество 20 (уточняйте)
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/8qQyhp9ult7diw | https://disk.yandex.ru/i/uE-RYkadNO6TyA | https://disk.yandex.ru/i/Qx_3jFDLLFRLXw | https://disk.yandex.ru/i/o2V8urwcWcjJIg | https://disk.yandex.ru/i/tosFQ9mVA3fR3A | https://disk.yandex.ru/i/cyQHvA9Tr1vyCQ | https://disk.yandex.ru/i/KvuDWEfi_ogKTw | https://disk.yandex.ru/i/M7aGqLLzIKPEig</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/YWdl65lMCegdMA | https://disk.yandex.ru/i/JOf3YXjaKaUyuQ | https://disk.yandex.ru/i/uATDwnGmvEEDFA | https://disk.yandex.ru/i/C7ji38jspxLYZg | https://disk.yandex.ru/i/usJJZ2PsXpgpkA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/9MJAZWihFff__A | https://disk.yandex.ru/i/BVmp-9BevPVH4Q | https://disk.yandex.ru/i/1zQp-Ok_knDY7g | https://disk.yandex.ru/i/RfaYfeS-_6losg | https://disk.yandex.ru/i/LA_p9xPDQ1NRfA | https://disk.yandex.ru/i/k_FfmYzumnv8cw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/WOJF7EXecYod8g | https://disk.yandex.ru/i/EZG7wqDbUEWe-g | https://disk.yandex.ru/i/9jVzshCPuJfy7g | https://disk.yandex.ru/i/NIAFSSyOZEabkA | https://disk.yandex.ru/i/J4jB8FnMqRTwDg | https://disk.yandex.ru/i/iAScFT85u0QQoQ</t>
   </si>
   <si>
@@ -868,9 +789,6 @@
     <t>https://disk.yandex.ru/i/P_p8J06Oomnk7A | https://disk.yandex.ru/i/5oITHfSBAjT20A | https://disk.yandex.ru/i/qBTL7XLtrg9Tfw | https://disk.yandex.ru/i/T-x8JOltu6b6kA | https://disk.yandex.ru/i/2sMoO6NIy-tRRw | https://disk.yandex.ru/i/veUIyKIfUEIRVA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/OaeAzWDAmvo5HQ | https://disk.yandex.ru/i/-lvf7ogjfI4iQA | https://disk.yandex.ru/i/51-rW-3ilxJTVw | https://disk.yandex.ru/i/-td07XVsNrkoDQ | https://disk.yandex.ru/i/1MdvqkNIFLrycw | https://disk.yandex.ru/i/-pWAfmNH7iJP5g | https://disk.yandex.ru/i/cbzowl4N5cBeVQ | https://disk.yandex.ru/i/LJhP50v1sEzADQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/ZTHyPWRR8U6O_Q | https://disk.yandex.ru/i/jclwedPVNGspAg | https://disk.yandex.ru/i/86K35Lc7zpR3sw | https://disk.yandex.ru/i/kskt503D7Cx8VA</t>
   </si>
   <si>
@@ -907,12 +825,12 @@
     <t>https://disk.yandex.ru/i/nKe-_AYyMDrwvA | https://disk.yandex.ru/i/SW3m7SnbBLSW2g | https://disk.yandex.ru/i/I_aPkJUSlj3XbA | https://disk.yandex.ru/i/kgmvoXyyXmf4yg | https://disk.yandex.ru/i/GQqcRHBiQcTeSw | https://disk.yandex.ru/i/6DPra0nJVzVcGA | https://disk.yandex.ru/i/SBTq_krgjBXYMw | https://disk.yandex.ru/i/npxN2Z8ao1rZFA | https://disk.yandex.ru/i/KiTS6DMYltgUYg | https://disk.yandex.ru/i/Lgdh7Tmgh99zOg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/pQzqLR-pK7sVdQ | https://disk.yandex.ru/i/IVSZ7AaD_WjtFg | https://disk.yandex.ru/i/nHurcWPQfLJGHA | https://disk.yandex.ru/i/RjoC3ujFIBrlmA | https://disk.yandex.ru/i/1k6wpUDoNozHkQ | https://disk.yandex.ru/i/_AE2zxac4CdEvQ | https://disk.yandex.ru/i/OLDAh13r3ASK8A</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/BEO8KSXz_KJw3w | https://disk.yandex.ru/i/Gv0cxmcoZ75Nqg | https://disk.yandex.ru/i/KpdCAX_S0z4DzQ | https://disk.yandex.ru/i/YRTlPIZudgfifw | https://disk.yandex.ru/i/bxZm8IS-aQ_gyA | https://disk.yandex.ru/i/XFPIbSrQdSj1gQ | https://disk.yandex.ru/i/xiSRlKVUW8jvUA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/GTqWLDl4RDiTxQ | https://disk.yandex.ru/i/2Ss5SGbkzWYXgQ | https://disk.yandex.ru/i/d41gsAs_n_juDg | https://disk.yandex.ru/i/lFoI8JAIXeAszA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -937,30 +855,27 @@
     <t>Коричневый</t>
   </si>
   <si>
-    <t>Оранжевый</t>
-  </si>
-  <si>
     <t>Разноцветный</t>
   </si>
   <si>
+    <t>Серый</t>
+  </si>
+  <si>
+    <t>Другой</t>
+  </si>
+  <si>
+    <t>Чёрный</t>
+  </si>
+  <si>
+    <t>Красный</t>
+  </si>
+  <si>
+    <t>Зелёный</t>
+  </si>
+  <si>
     <t>Бежевый</t>
   </si>
   <si>
-    <t>Серый</t>
-  </si>
-  <si>
-    <t>Другой</t>
-  </si>
-  <si>
-    <t>Чёрный</t>
-  </si>
-  <si>
-    <t>Красный</t>
-  </si>
-  <si>
-    <t>Зелёный</t>
-  </si>
-  <si>
     <t>Стулья</t>
   </si>
   <si>
@@ -1000,14 +915,20 @@
     <t>Подлокотники | Колёсики | Мягкое сидение | Мягкая спинка</t>
   </si>
   <si>
+    <t>Мягкая спинка</t>
+  </si>
+  <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t>Пластик</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1078,18 +999,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1127,9 +1056,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1161,9 +1090,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1195,9 +1142,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1370,14 +1335,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P16" workbookViewId="0">
+      <selection activeCell="AL30" sqref="AL30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1496,1584 +1463,1416 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F2">
         <v>5000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AA2" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AB2" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="AC2" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="AD2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH2" t="s">
         <v>123</v>
       </c>
-      <c r="AE2" t="s">
+      <c r="AI2" t="s">
         <v>124</v>
       </c>
-      <c r="AH2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>134</v>
-      </c>
       <c r="AJ2" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="AL2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="AM2" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F3">
-        <v>5000</v>
+        <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AA3" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AB3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AC3" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="AD3" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH3" t="s">
         <v>123</v>
       </c>
-      <c r="AE3" t="s">
+      <c r="AI3" t="s">
         <v>125</v>
       </c>
-      <c r="AH3" t="s">
+      <c r="AJ3" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL3" t="s">
         <v>133</v>
       </c>
-      <c r="AI3" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>143</v>
-      </c>
       <c r="AM3" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4">
-        <v>1499</v>
+        <v>2100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4">
+        <v>20379</v>
+      </c>
+      <c r="S4" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE4" t="s">
         <v>117</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="S4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD4" t="s">
+      <c r="AH4" t="s">
         <v>123</v>
       </c>
-      <c r="AE4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH4" t="s">
+      <c r="AI4" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL4" t="s">
         <v>133</v>
       </c>
-      <c r="AI4" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL4" t="s">
-        <v>143</v>
-      </c>
       <c r="AM4" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F5">
-        <v>4000</v>
+        <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>20379</v>
       </c>
       <c r="S5" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AA5" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="AB5" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="AC5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="AD5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH5" t="s">
         <v>123</v>
       </c>
-      <c r="AE5" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH5" t="s">
+      <c r="AI5" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL5" t="s">
         <v>133</v>
       </c>
-      <c r="AI5" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>142</v>
-      </c>
       <c r="AM5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>43</v>
       </c>
       <c r="E6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F6">
-        <v>2100</v>
+        <v>2499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K6">
         <v>20379</v>
       </c>
       <c r="S6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>116</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM6" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F7">
+        <v>2099</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7">
+        <v>20385</v>
+      </c>
+      <c r="S7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE7" t="s">
         <v>118</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AF7" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8">
+        <v>2999</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K8">
+        <v>20387</v>
+      </c>
+      <c r="S8" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE8" t="s">
         <v>119</v>
       </c>
-      <c r="AB6" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AF8" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH8" t="s">
         <v>123</v>
       </c>
-      <c r="AE6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH6" t="s">
+      <c r="AI8" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>130</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9">
+        <v>4999</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9">
+        <v>20433</v>
+      </c>
+      <c r="S9" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ9" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL9" t="s">
         <v>133</v>
       </c>
-      <c r="AI6" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM6" t="s">
-        <v>146</v>
+      <c r="AM9" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
-      <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7">
-        <v>2499</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K7">
-        <v>20379</v>
-      </c>
-      <c r="S7" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB7" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH7" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:39">
-      <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8">
-        <v>2499</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K8">
-        <v>20379</v>
-      </c>
-      <c r="S8" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>126</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL8" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39">
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9">
-        <v>2099</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K9">
-        <v>20385</v>
-      </c>
-      <c r="S9" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>129</v>
-      </c>
-      <c r="AH9" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F10">
-        <v>2999</v>
+        <v>5000</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K10">
-        <v>20387</v>
+        <v>20433</v>
       </c>
       <c r="S10" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AA10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE10" t="s">
         <v>119</v>
       </c>
-      <c r="AB10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD10" t="s">
+      <c r="AH10" t="s">
         <v>123</v>
       </c>
-      <c r="AE10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>133</v>
-      </c>
       <c r="AI10" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="AJ10" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AM10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>47</v>
       </c>
       <c r="E11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11">
+        <v>6999</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11">
+        <v>20446</v>
+      </c>
+      <c r="S11" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD11" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12">
+        <v>4999</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12">
+        <v>20446</v>
+      </c>
+      <c r="S12" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ12" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13">
+        <v>3999</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13">
+        <v>20455</v>
+      </c>
+      <c r="S13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" t="s">
         <v>70</v>
-      </c>
-      <c r="F11">
-        <v>4999</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K11">
-        <v>20433</v>
-      </c>
-      <c r="S11" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH11" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL11" t="s">
-        <v>143</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39">
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12">
-        <v>5000</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K12">
-        <v>20433</v>
-      </c>
-      <c r="S12" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA12" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB12" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH12" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL12" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39">
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13">
-        <v>6999</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K13">
-        <v>20446</v>
-      </c>
-      <c r="S13" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH13" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL13" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39">
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>73</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14">
+        <v>20463</v>
+      </c>
+      <c r="S14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD14" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE14" t="s">
         <v>117</v>
       </c>
-      <c r="K14">
-        <v>20446</v>
-      </c>
-      <c r="S14" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA14" t="s">
+      <c r="AF14" t="s">
+        <v>117</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>131</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F15">
+        <v>4999</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15">
+        <v>20462</v>
+      </c>
+      <c r="S15" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD15" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE15" t="s">
         <v>119</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AH15" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" t="s">
+        <v>72</v>
+      </c>
+      <c r="F16">
+        <v>4999</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16">
+        <v>20467</v>
+      </c>
+      <c r="S16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE16" t="s">
         <v>121</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AH16" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ16" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>41</v>
+      </c>
+      <c r="E17" t="s">
+        <v>73</v>
+      </c>
+      <c r="F17">
+        <v>6999</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17">
+        <v>20468</v>
+      </c>
+      <c r="S17" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD17" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE17" t="s">
         <v>122</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AH17" t="s">
         <v>123</v>
       </c>
-      <c r="AE14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>131</v>
-      </c>
-      <c r="AH14" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI14" t="s">
+      <c r="AI17" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL17" t="s">
         <v>134</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM14" t="s">
-        <v>146</v>
+      <c r="AM17" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E15" t="s">
+    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" t="s">
         <v>74</v>
       </c>
-      <c r="F15">
+      <c r="F18">
         <v>3999</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K15">
-        <v>20455</v>
-      </c>
-      <c r="S15" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="G18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18">
+        <v>20391</v>
+      </c>
+      <c r="S18" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE18" t="s">
         <v>119</v>
       </c>
-      <c r="AB15" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD15" t="s">
+      <c r="AF18" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH18" t="s">
         <v>123</v>
       </c>
-      <c r="AE15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF15" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH15" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL15" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>146</v>
+      <c r="AI18" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ18" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>137</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
-      <c r="D16" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" t="s">
+    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19" t="s">
         <v>75</v>
-      </c>
-      <c r="F16">
-        <v>3999</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K16">
-        <v>20455</v>
-      </c>
-      <c r="S16" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF16" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH16" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>135</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="4:39">
-      <c r="D17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E17" t="s">
-        <v>76</v>
-      </c>
-      <c r="F17">
-        <v>4999</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K17">
-        <v>20463</v>
-      </c>
-      <c r="S17" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AF17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AH17" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI17" t="s">
-        <v>134</v>
-      </c>
-      <c r="AJ17" t="s">
-        <v>141</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>145</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="4:39">
-      <c r="D18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18">
-        <v>4999</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K18">
-        <v>20462</v>
-      </c>
-      <c r="S18" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE18" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH18" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI18" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ18" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="4:39">
-      <c r="D19" t="s">
-        <v>53</v>
-      </c>
-      <c r="E19" t="s">
-        <v>78</v>
       </c>
       <c r="F19">
         <v>4999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K19">
-        <v>20467</v>
+        <v>20459</v>
       </c>
       <c r="S19" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AA19" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE19" t="s">
         <v>119</v>
       </c>
-      <c r="AB19" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD19" t="s">
+      <c r="AH19" t="s">
         <v>123</v>
       </c>
-      <c r="AE19" t="s">
-        <v>132</v>
-      </c>
-      <c r="AH19" t="s">
-        <v>133</v>
-      </c>
       <c r="AI19" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ19" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL19" t="s">
         <v>134</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>144</v>
-      </c>
       <c r="AM19" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="20" spans="4:39">
+    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F20">
-        <v>6999</v>
+        <v>9999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="K20">
-        <v>20468</v>
+        <v>20472</v>
       </c>
       <c r="S20" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AA20" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE20" t="s">
         <v>119</v>
       </c>
-      <c r="AB20" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD20" t="s">
+      <c r="AH20" t="s">
         <v>123</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AI20" t="s">
         <v>127</v>
       </c>
-      <c r="AH20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI20" t="s">
+      <c r="AJ20" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM20" t="s">
         <v>137</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="21" spans="4:39">
+    <row r="21" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F21">
         <v>3999</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="K21">
-        <v>20391</v>
+        <v>20460</v>
       </c>
       <c r="S21" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="AA21" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE21" t="s">
         <v>119</v>
       </c>
-      <c r="AB21" t="s">
-        <v>121</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD21" t="s">
+      <c r="AH21" t="s">
         <v>123</v>
       </c>
-      <c r="AE21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AF21" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>133</v>
-      </c>
       <c r="AI21" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AJ21" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="AL21" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AM21" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="22" spans="4:39">
+    <row r="22" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F22">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K22">
+        <v>20471</v>
+      </c>
+      <c r="S22" t="s">
         <v>109</v>
       </c>
-      <c r="I22" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K22">
-        <v>20459</v>
-      </c>
-      <c r="S22" t="s">
-        <v>118</v>
-      </c>
       <c r="AA22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE22" t="s">
         <v>119</v>
       </c>
-      <c r="AB22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AH22" t="s">
         <v>123</v>
       </c>
-      <c r="AE22" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>133</v>
-      </c>
       <c r="AI22" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="AJ22" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="AL22" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="AM22" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
-    <row r="23" spans="4:39">
+    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E23" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F23">
         <v>9999</v>
       </c>
       <c r="G23" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K23">
+        <v>20373</v>
+      </c>
+      <c r="S23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA23" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K23">
-        <v>20472</v>
-      </c>
-      <c r="S23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA23" t="s">
+      <c r="AB23" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE23" t="s">
         <v>119</v>
       </c>
-      <c r="AB23" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC23" t="s">
+      <c r="AH23" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="24" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24">
+        <v>19999</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24">
+        <v>20466</v>
+      </c>
+      <c r="S24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>127</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25">
+        <v>4999</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25">
+        <v>20469</v>
+      </c>
+      <c r="S25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE25" t="s">
         <v>122</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AH25" t="s">
         <v>123</v>
       </c>
-      <c r="AE23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AI25" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM25" t="s">
         <v>137</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>146</v>
-      </c>
     </row>
-    <row r="24" spans="4:39">
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F24">
-        <v>3999</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K24">
-        <v>20460</v>
-      </c>
-      <c r="S24" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>139</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="4:39">
-      <c r="D25" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" t="s">
-        <v>84</v>
-      </c>
-      <c r="F25">
-        <v>9999</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K25">
-        <v>20471</v>
-      </c>
-      <c r="S25" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="4:39">
+    <row r="26" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F26">
-        <v>9999</v>
+        <v>999</v>
       </c>
       <c r="G26" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="K26">
+        <v>20473</v>
+      </c>
+      <c r="S26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>111</v>
+      </c>
+      <c r="AC26" t="s">
         <v>113</v>
       </c>
-      <c r="I26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K26">
-        <v>20373</v>
-      </c>
-      <c r="S26" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA26" t="s">
+      <c r="AD26" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE26" t="s">
         <v>119</v>
       </c>
-      <c r="AB26" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD26" t="s">
+      <c r="AH26" t="s">
         <v>123</v>
       </c>
-      <c r="AE26" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>133</v>
-      </c>
       <c r="AI26" t="s">
+        <v>138</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>136</v>
+      </c>
+      <c r="AM26" t="s">
         <v>137</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="4:39">
-      <c r="D27" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" t="s">
-        <v>86</v>
-      </c>
-      <c r="F27">
-        <v>19999</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K27">
-        <v>20466</v>
-      </c>
-      <c r="S27" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB27" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC27" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD27" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE27" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH27" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI27" t="s">
-        <v>137</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL27" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="4:39">
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28">
-        <v>4999</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K28">
-        <v>20470</v>
-      </c>
-      <c r="S28" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA28" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC28" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD28" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE28" t="s">
-        <v>130</v>
-      </c>
-      <c r="AH28" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI28" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ28" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL28" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="4:39">
-      <c r="D29" t="s">
-        <v>43</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29">
-        <v>4999</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="K29">
-        <v>20469</v>
-      </c>
-      <c r="S29" t="s">
-        <v>118</v>
-      </c>
-      <c r="AA29" t="s">
-        <v>119</v>
-      </c>
-      <c r="AB29" t="s">
-        <v>120</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>122</v>
-      </c>
-      <c r="AD29" t="s">
-        <v>123</v>
-      </c>
-      <c r="AE29" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH29" t="s">
-        <v>133</v>
-      </c>
-      <c r="AI29" t="s">
-        <v>136</v>
-      </c>
-      <c r="AJ29" t="s">
-        <v>138</v>
-      </c>
-      <c r="AL29" t="s">
-        <v>144</v>
-      </c>
-      <c r="AM29" t="s">
-        <v>146</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
-    <hyperlink ref="G26" r:id="rId49"/>
-    <hyperlink ref="I26" r:id="rId50"/>
-    <hyperlink ref="G27" r:id="rId51"/>
-    <hyperlink ref="I27" r:id="rId52"/>
-    <hyperlink ref="G28" r:id="rId53"/>
-    <hyperlink ref="I28" r:id="rId54"/>
-    <hyperlink ref="G29" r:id="rId55"/>
-    <hyperlink ref="I29" r:id="rId56"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{370D68A1-3A31-4440-8A4C-28F97BE2C412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -891,6 +885,9 @@
     <t>Кожа</t>
   </si>
   <si>
+    <t>Пластик</t>
+  </si>
+  <si>
     <t>Дерево</t>
   </si>
   <si>
@@ -919,16 +916,13 @@
   </si>
   <si>
     <t>Нет</t>
-  </si>
-  <si>
-    <t>Пластик</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -999,26 +993,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1056,9 +1042,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,27 +1076,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1142,27 +1110,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1335,16 +1285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P16" workbookViewId="0">
-      <selection activeCell="AL30" sqref="AL30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1463,7 +1411,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="D2" t="s">
         <v>39</v>
       </c>
@@ -1507,16 +1455,16 @@
         <v>124</v>
       </c>
       <c r="AJ2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AM2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="D3" t="s">
         <v>40</v>
       </c>
@@ -1563,16 +1511,16 @@
         <v>125</v>
       </c>
       <c r="AJ3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="D4" t="s">
         <v>41</v>
       </c>
@@ -1616,16 +1564,16 @@
         <v>124</v>
       </c>
       <c r="AJ4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM4" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -1672,16 +1620,16 @@
         <v>125</v>
       </c>
       <c r="AJ5" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM5" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="D6" t="s">
         <v>43</v>
       </c>
@@ -1728,16 +1676,16 @@
         <v>125</v>
       </c>
       <c r="AJ6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="D7" t="s">
         <v>41</v>
       </c>
@@ -1784,16 +1732,16 @@
         <v>125</v>
       </c>
       <c r="AJ7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1840,16 +1788,16 @@
         <v>125</v>
       </c>
       <c r="AJ8" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="AL8" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM8" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="D9" t="s">
         <v>45</v>
       </c>
@@ -1896,16 +1844,16 @@
         <v>125</v>
       </c>
       <c r="AJ9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL9" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AM9" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="D10" t="s">
         <v>46</v>
       </c>
@@ -1949,16 +1897,16 @@
         <v>126</v>
       </c>
       <c r="AJ10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="D11" t="s">
         <v>47</v>
       </c>
@@ -2005,16 +1953,16 @@
         <v>124</v>
       </c>
       <c r="AJ11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL11" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="D12" t="s">
         <v>41</v>
       </c>
@@ -2061,16 +2009,16 @@
         <v>124</v>
       </c>
       <c r="AJ12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL12" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM12" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="D13" t="s">
         <v>48</v>
       </c>
@@ -2117,16 +2065,16 @@
         <v>125</v>
       </c>
       <c r="AJ13" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM13" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="D14" t="s">
         <v>44</v>
       </c>
@@ -2173,16 +2121,16 @@
         <v>124</v>
       </c>
       <c r="AJ14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="AL14" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="AM14" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="D15" t="s">
         <v>49</v>
       </c>
@@ -2226,16 +2174,16 @@
         <v>126</v>
       </c>
       <c r="AJ15" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="D16" t="s">
         <v>50</v>
       </c>
@@ -2279,16 +2227,16 @@
         <v>124</v>
       </c>
       <c r="AJ16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM16" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:39">
       <c r="D17" t="s">
         <v>41</v>
       </c>
@@ -2332,16 +2280,16 @@
         <v>127</v>
       </c>
       <c r="AJ17" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM17" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:39">
       <c r="D18" t="s">
         <v>51</v>
       </c>
@@ -2388,16 +2336,16 @@
         <v>125</v>
       </c>
       <c r="AJ18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:39">
       <c r="D19" t="s">
         <v>52</v>
       </c>
@@ -2441,16 +2389,16 @@
         <v>126</v>
       </c>
       <c r="AJ19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM19" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:39">
       <c r="D20" t="s">
         <v>53</v>
       </c>
@@ -2494,16 +2442,16 @@
         <v>127</v>
       </c>
       <c r="AJ20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL20" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="21" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:39">
       <c r="D21" t="s">
         <v>54</v>
       </c>
@@ -2547,16 +2495,16 @@
         <v>127</v>
       </c>
       <c r="AJ21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="AL21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM21" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="22" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:39">
       <c r="D22" t="s">
         <v>55</v>
       </c>
@@ -2600,16 +2548,16 @@
         <v>127</v>
       </c>
       <c r="AJ22" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL22" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:39">
       <c r="D23" t="s">
         <v>54</v>
       </c>
@@ -2653,16 +2601,16 @@
         <v>127</v>
       </c>
       <c r="AJ23" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="24" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:39">
       <c r="D24" t="s">
         <v>56</v>
       </c>
@@ -2706,16 +2654,16 @@
         <v>127</v>
       </c>
       <c r="AJ24" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM24" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="25" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:39">
       <c r="D25" t="s">
         <v>41</v>
       </c>
@@ -2759,16 +2707,16 @@
         <v>126</v>
       </c>
       <c r="AJ25" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AL25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AM25" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
-    <row r="26" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:39">
       <c r="D26" t="s">
         <v>57</v>
       </c>
@@ -2809,70 +2757,70 @@
         <v>123</v>
       </c>
       <c r="AI26" t="s">
+        <v>128</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>137</v>
+      </c>
+      <c r="AM26" t="s">
         <v>138</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>136</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="G24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="I24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="G25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="I25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="G26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="I26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G24" r:id="rId45"/>
+    <hyperlink ref="I24" r:id="rId46"/>
+    <hyperlink ref="G25" r:id="rId47"/>
+    <hyperlink ref="I25" r:id="rId48"/>
+    <hyperlink ref="G26" r:id="rId49"/>
+    <hyperlink ref="I26" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="136">
   <si>
     <t>Address</t>
   </si>
@@ -148,30 +148,27 @@
     <t>Офисные стулья Изо</t>
   </si>
   <si>
+    <t>Офисный стул</t>
+  </si>
+  <si>
+    <t>Офисное стул-кресло</t>
+  </si>
+  <si>
+    <t>Стул офисный для конференций</t>
+  </si>
+  <si>
+    <t>Стул для посетителей</t>
+  </si>
+  <si>
     <t>Стул кресло офисное</t>
   </si>
   <si>
-    <t>Офисный стул</t>
-  </si>
-  <si>
-    <t>Офисное стул-кресло</t>
-  </si>
-  <si>
-    <t>Стул офисный для конференций</t>
-  </si>
-  <si>
-    <t>Стул для посетителей</t>
-  </si>
-  <si>
     <t>Стул офисный bene</t>
   </si>
   <si>
     <t>Стул офисный Haworth</t>
   </si>
   <si>
-    <t>Офисные стулья</t>
-  </si>
-  <si>
     <t>Стул офисный Chairman</t>
   </si>
   <si>
@@ -188,6 +185,9 @@
   </si>
   <si>
     <t>Стулья кухонные</t>
+  </si>
+  <si>
+    <t>Конференц кресло bene</t>
   </si>
   <si>
     <t xml:space="preserve">Барный стул старинный
@@ -324,27 +324,6 @@
 Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Конференц кресло bene
-Артикул 20387
-Описание современное кресло - стул на колёсиках отлично подойдёт для конференц зала и работы в офисе. Выполнено из качественного кожзама.
-Цена 3000
-Количество черных-11, коричневых-3
-В нашем магазине вы найдете стулья для любой цели использования. Удобные стулья-кресла для конференций или обычные изо стулья в офис, так же есть стулья для кухни разных цветов, для любого интерьера. Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-🔥 Система больших скидок действует при опте и в праздничные дни 
-✔ Самовывоз
-✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-➕ При поиске нас в навигаторе наберите – 
-Офис комфорт Одинцово 
-🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
--------------------------------------------------------------------
-Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Офисный стул самба
 Артикул 20433
 Описание: Кресло для конференц зала от известного производителя Chairman. Кожаное кресло самба с деревянными подлокотниками стильное и прочное кресло зарекомендовало себя, как одно из лучших кресел для офиса.
@@ -544,14 +523,6 @@
             На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
             Работаем уже 6 лет, развиваясь и улучшая сервисный центр
             Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло офисное с подлокотниками
-Артикул: 20391
-Описание: кресло с кожзам обивкой и металлическим армотизирующим каркасом 
-Цвет чёрный
-Цена 4000
-Количество 7</t>
   </si>
   <si>
     <t xml:space="preserve">Стул офисный Chairman
@@ -750,6 +721,28 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Конференц кресло bene
+Артикул 20387
+Современное кресло - стул отлично подойдёт для конференц зала и работы в офисе. Выполнено из качественного кожзама.
+Цвет черный 
+Цена 3 499
+Количество 3
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/8qQyhp9ult7diw | https://disk.yandex.ru/i/uE-RYkadNO6TyA | https://disk.yandex.ru/i/Qx_3jFDLLFRLXw | https://disk.yandex.ru/i/o2V8urwcWcjJIg | https://disk.yandex.ru/i/tosFQ9mVA3fR3A | https://disk.yandex.ru/i/cyQHvA9Tr1vyCQ | https://disk.yandex.ru/i/KvuDWEfi_ogKTw | https://disk.yandex.ru/i/M7aGqLLzIKPEig</t>
   </si>
   <si>
@@ -768,9 +761,6 @@
     <t>https://disk.yandex.ru/i/rdPNqyJ7D1L1fw | https://disk.yandex.ru/i/InQAvyQOYJM_bQ | https://disk.yandex.ru/i/FALBWBd2gTWvHw | https://disk.yandex.ru/i/k-IJX1nraxqpKw</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/yDACQ-_MxWT-iA | https://disk.yandex.ru/i/CWqCHMcdvjyOnA | https://disk.yandex.ru/i/dL1Syu7s2-UPuA | https://disk.yandex.ru/i/yUaLoCVM3lR_Tw | https://disk.yandex.ru/i/p1ehepcN3NiwVQ | https://disk.yandex.ru/i/ggfA5uiuM2iMRw | https://disk.yandex.ru/i/jwDKK1Dl5SLhwQ | https://disk.yandex.ru/i/EexZKqsoeFL1rw | https://disk.yandex.ru/i/kUu89nfreRXg_Q | https://disk.yandex.ru/i/DugAW5XO_9cZpQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/FmS1JoBXjc4FAA | https://disk.yandex.ru/i/4fHOp1u3uZQmWw | https://disk.yandex.ru/i/zq8TCxKOdBe5jA | https://disk.yandex.ru/i/bYcFAKIxE-l7fg | https://disk.yandex.ru/i/CWaG6C89S-oBCA</t>
   </si>
   <si>
@@ -798,9 +788,6 @@
     <t>https://disk.yandex.ru/i/z_rOB6muVRrB8g | https://disk.yandex.ru/i/OKe1lZ7wuXcE7A | https://disk.yandex.ru/i/wEbF3plS51SqUQ | https://disk.yandex.ru/i/NKO5n8Vgfchx4w | https://disk.yandex.ru/i/Laaz5vi_H-zqAg | https://disk.yandex.ru/i/HMt8LJukBgtGzg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/CtGr-ZPkjM5Q2A | https://disk.yandex.ru/i/Boh3O8L64NCGZA | https://disk.yandex.ru/i/sbQreYOfg1OoSQ | https://disk.yandex.ru/i/WsSNsIqMk0Bfhg | https://disk.yandex.ru/i/jpTfxqGzBhHZwA | https://disk.yandex.ru/i/ix11X_Vk2xSLiQ</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/MWmgGdpTSCKUtg | https://disk.yandex.ru/i/Ej6A5AIKeKvR1w | https://disk.yandex.ru/i/XhBrX9VMuXu9EA | https://disk.yandex.ru/i/OTQeBmJXOQMSFA | https://disk.yandex.ru/i/T2hIPqfHddBxEA | https://disk.yandex.ru/i/GToWigE_-k7ZJg | https://disk.yandex.ru/i/QEZ1Ys8jBwEDWg | https://disk.yandex.ru/i/kYlzsqo7KHF-Mg | https://disk.yandex.ru/i/5QcDCBI0C3rAxw | https://disk.yandex.ru/i/0aCnGZRcmYSo1g</t>
   </si>
   <si>
@@ -825,6 +812,9 @@
     <t>https://disk.yandex.ru/i/GTqWLDl4RDiTxQ | https://disk.yandex.ru/i/2Ss5SGbkzWYXgQ | https://disk.yandex.ru/i/d41gsAs_n_juDg | https://disk.yandex.ru/i/lFoI8JAIXeAszA</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/NfZ4z3b1eRsznw | https://disk.yandex.ru/i/c-jQvAa7cvy86A | https://disk.yandex.ru/i/QACNJlq4QXVzwA | https://disk.yandex.ru/i/Nt_yZBU0s806Ig | https://disk.yandex.ru/i/t4YtK3VWiBOpCA | https://disk.yandex.ru/i/wirBWg96mMOa0w | https://disk.yandex.ru/i/U1KV9Mw81foo5Q | https://disk.yandex.ru/i/wzt3oUqxGbW9vQ</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -892,9 +882,6 @@
   </si>
   <si>
     <t>Металл</t>
-  </si>
-  <si>
-    <t>Металл | ДСП</t>
   </si>
   <si>
     <t>Металл | Пластик</t>
@@ -1286,7 +1273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1422,46 +1409,46 @@
         <v>5000</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB2" t="s">
         <v>109</v>
       </c>
-      <c r="AA2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>111</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE2" t="s">
         <v>113</v>
       </c>
-      <c r="AD2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>115</v>
-      </c>
       <c r="AH2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AJ2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AL2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AM2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1475,49 +1462,49 @@
         <v>1499</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB3" t="s">
         <v>110</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD3" t="s">
         <v>112</v>
       </c>
-      <c r="AC3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>114</v>
       </c>
-      <c r="AE3" t="s">
-        <v>116</v>
-      </c>
       <c r="AF3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AH3" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI3" t="s">
         <v>123</v>
       </c>
-      <c r="AI3" t="s">
-        <v>125</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AM3" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1531,46 +1518,46 @@
         <v>2100</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K4">
         <v>20379</v>
       </c>
       <c r="S4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB4" t="s">
         <v>109</v>
       </c>
-      <c r="AA4" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>111</v>
       </c>
-      <c r="AC4" t="s">
-        <v>113</v>
-      </c>
       <c r="AD4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AH4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AJ4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AM4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1584,49 +1571,49 @@
         <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K5">
         <v>20379</v>
       </c>
       <c r="S5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA5" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB5" t="s">
         <v>110</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD5" t="s">
         <v>112</v>
       </c>
-      <c r="AC5" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>114</v>
       </c>
-      <c r="AE5" t="s">
-        <v>116</v>
-      </c>
       <c r="AF5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AH5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI5" t="s">
         <v>123</v>
       </c>
-      <c r="AI5" t="s">
-        <v>125</v>
-      </c>
       <c r="AJ5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AM5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1640,49 +1627,49 @@
         <v>2499</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K6">
         <v>20379</v>
       </c>
       <c r="S6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA6" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB6" t="s">
         <v>110</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD6" t="s">
         <v>112</v>
       </c>
-      <c r="AC6" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>114</v>
       </c>
-      <c r="AE6" t="s">
-        <v>116</v>
-      </c>
       <c r="AF6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AH6" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI6" t="s">
         <v>123</v>
       </c>
-      <c r="AI6" t="s">
-        <v>125</v>
-      </c>
       <c r="AJ6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AM6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1696,49 +1683,49 @@
         <v>2099</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K7">
         <v>20385</v>
       </c>
       <c r="S7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA7" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB7" t="s">
         <v>110</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD7" t="s">
         <v>112</v>
       </c>
-      <c r="AC7" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>114</v>
-      </c>
       <c r="AE7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AH7" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI7" t="s">
         <v>123</v>
       </c>
-      <c r="AI7" t="s">
-        <v>125</v>
-      </c>
       <c r="AJ7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="AM7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1749,52 +1736,52 @@
         <v>64</v>
       </c>
       <c r="F8">
-        <v>2999</v>
+        <v>4999</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8">
+        <v>20433</v>
+      </c>
+      <c r="S8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA8" t="s">
         <v>108</v>
       </c>
-      <c r="K8">
-        <v>20387</v>
-      </c>
-      <c r="S8" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>110</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD8" t="s">
         <v>112</v>
       </c>
-      <c r="AC8" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>114</v>
-      </c>
       <c r="AE8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AF8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI8" t="s">
         <v>123</v>
       </c>
-      <c r="AI8" t="s">
-        <v>125</v>
-      </c>
       <c r="AJ8" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL8" t="s">
         <v>131</v>
       </c>
-      <c r="AL8" t="s">
+      <c r="AM8" t="s">
         <v>135</v>
-      </c>
-      <c r="AM8" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1805,52 +1792,49 @@
         <v>65</v>
       </c>
       <c r="F9">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K9">
         <v>20433</v>
       </c>
       <c r="S9" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB9" t="s">
         <v>109</v>
       </c>
-      <c r="AA9" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD9" t="s">
         <v>112</v>
       </c>
-      <c r="AC9" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>114</v>
-      </c>
       <c r="AE9" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH9" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI9" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AJ9" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AM9" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1861,161 +1845,164 @@
         <v>66</v>
       </c>
       <c r="F10">
-        <v>5000</v>
+        <v>6999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K10">
+        <v>20446</v>
+      </c>
+      <c r="S10" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA10" t="s">
         <v>108</v>
       </c>
-      <c r="K10">
-        <v>20433</v>
-      </c>
-      <c r="S10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>110</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>111</v>
       </c>
-      <c r="AC10" t="s">
-        <v>113</v>
-      </c>
       <c r="AD10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE10" t="s">
-        <v>119</v>
+        <v>117</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>117</v>
       </c>
       <c r="AH10" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AJ10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL10" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM10" t="s">
         <v>135</v>
-      </c>
-      <c r="AM10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="D11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
         <v>67</v>
       </c>
       <c r="F11">
-        <v>6999</v>
+        <v>4999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K11">
         <v>20446</v>
       </c>
       <c r="S11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AA11" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB11" t="s">
         <v>110</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD11" t="s">
         <v>112</v>
       </c>
-      <c r="AC11" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>114</v>
-      </c>
       <c r="AE11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AF11" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AH11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AJ11" t="s">
+        <v>129</v>
+      </c>
+      <c r="AL11" t="s">
         <v>132</v>
       </c>
-      <c r="AL11" t="s">
+      <c r="AM11" t="s">
         <v>135</v>
-      </c>
-      <c r="AM11" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:39">
       <c r="D12" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
         <v>68</v>
       </c>
       <c r="F12">
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K12">
+        <v>20455</v>
+      </c>
+      <c r="S12" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA12" t="s">
         <v>108</v>
       </c>
-      <c r="K12">
-        <v>20446</v>
-      </c>
-      <c r="S12" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>110</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD12" t="s">
         <v>112</v>
       </c>
-      <c r="AC12" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>114</v>
-      </c>
       <c r="AE12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AH12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI12" t="s">
         <v>123</v>
       </c>
-      <c r="AI12" t="s">
-        <v>124</v>
-      </c>
       <c r="AJ12" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL12" t="s">
         <v>132</v>
       </c>
-      <c r="AL12" t="s">
+      <c r="AM12" t="s">
         <v>135</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -2026,57 +2013,57 @@
         <v>69</v>
       </c>
       <c r="F13">
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K13">
+        <v>20463</v>
+      </c>
+      <c r="S13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA13" t="s">
         <v>108</v>
       </c>
-      <c r="K13">
-        <v>20455</v>
-      </c>
-      <c r="S13" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>110</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD13" t="s">
         <v>112</v>
       </c>
-      <c r="AC13" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>114</v>
-      </c>
       <c r="AE13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AF13" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AH13" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="AJ13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AL13" t="s">
+        <v>133</v>
+      </c>
+      <c r="AM13" t="s">
         <v>135</v>
-      </c>
-      <c r="AM13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:39">
       <c r="D14" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
         <v>70</v>
@@ -2085,54 +2072,51 @@
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14">
+        <v>20462</v>
+      </c>
+      <c r="S14" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA14" t="s">
         <v>108</v>
       </c>
-      <c r="K14">
-        <v>20463</v>
-      </c>
-      <c r="S14" t="s">
+      <c r="AB14" t="s">
         <v>109</v>
       </c>
-      <c r="AA14" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD14" t="s">
         <v>112</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>114</v>
       </c>
       <c r="AE14" t="s">
         <v>117</v>
       </c>
-      <c r="AF14" t="s">
-        <v>117</v>
-      </c>
       <c r="AH14" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI14" t="s">
         <v>124</v>
       </c>
       <c r="AJ14" t="s">
+        <v>128</v>
+      </c>
+      <c r="AL14" t="s">
         <v>132</v>
       </c>
-      <c r="AL14" t="s">
-        <v>136</v>
-      </c>
       <c r="AM14" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>71</v>
@@ -2141,266 +2125,263 @@
         <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15">
+        <v>20467</v>
+      </c>
+      <c r="S15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA15" t="s">
         <v>108</v>
       </c>
-      <c r="K15">
-        <v>20462</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="AB15" t="s">
         <v>109</v>
       </c>
-      <c r="AA15" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>111</v>
       </c>
-      <c r="AC15" t="s">
-        <v>113</v>
-      </c>
       <c r="AD15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE15" t="s">
         <v>119</v>
       </c>
       <c r="AH15" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AJ15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL15" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM15" t="s">
         <v>135</v>
-      </c>
-      <c r="AM15" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="E16" t="s">
         <v>72</v>
       </c>
       <c r="F16">
-        <v>4999</v>
+        <v>6999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16">
+        <v>20468</v>
+      </c>
+      <c r="S16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA16" t="s">
         <v>108</v>
       </c>
-      <c r="K16">
-        <v>20467</v>
-      </c>
-      <c r="S16" t="s">
+      <c r="AB16" t="s">
         <v>109</v>
       </c>
-      <c r="AA16" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>111</v>
       </c>
-      <c r="AC16" t="s">
-        <v>113</v>
-      </c>
       <c r="AD16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AH16" t="s">
         <v>121</v>
       </c>
-      <c r="AH16" t="s">
-        <v>123</v>
-      </c>
       <c r="AI16" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AJ16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL16" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM16" t="s">
         <v>135</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="4:39">
       <c r="D17" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>73</v>
       </c>
       <c r="F17">
-        <v>6999</v>
+        <v>4999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K17">
+        <v>20459</v>
+      </c>
+      <c r="S17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA17" t="s">
         <v>108</v>
       </c>
-      <c r="K17">
-        <v>20468</v>
-      </c>
-      <c r="S17" t="s">
+      <c r="AB17" t="s">
         <v>109</v>
       </c>
-      <c r="AA17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>111</v>
       </c>
-      <c r="AC17" t="s">
-        <v>113</v>
-      </c>
       <c r="AD17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AH17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI17" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AJ17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL17" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM17" t="s">
         <v>135</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="18" spans="4:39">
       <c r="D18" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>74</v>
       </c>
       <c r="F18">
-        <v>3999</v>
+        <v>9999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K18">
+        <v>20472</v>
+      </c>
+      <c r="S18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA18" t="s">
         <v>108</v>
       </c>
-      <c r="K18">
-        <v>20391</v>
-      </c>
-      <c r="S18" t="s">
+      <c r="AB18" t="s">
         <v>109</v>
       </c>
-      <c r="AA18" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD18" t="s">
         <v>112</v>
       </c>
-      <c r="AC18" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>114</v>
-      </c>
       <c r="AE18" t="s">
-        <v>119</v>
-      </c>
-      <c r="AF18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI18" t="s">
         <v>125</v>
       </c>
       <c r="AJ18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AL18" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM18" t="s">
         <v>135</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="4:39">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>75</v>
       </c>
       <c r="F19">
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19">
+        <v>20460</v>
+      </c>
+      <c r="S19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA19" t="s">
         <v>108</v>
       </c>
-      <c r="K19">
-        <v>20459</v>
-      </c>
-      <c r="S19" t="s">
+      <c r="AB19" t="s">
         <v>109</v>
       </c>
-      <c r="AA19" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
         <v>111</v>
       </c>
-      <c r="AC19" t="s">
-        <v>113</v>
-      </c>
       <c r="AD19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE19" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AJ19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AL19" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM19" t="s">
         <v>135</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="4:39">
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>76</v>
@@ -2409,99 +2390,99 @@
         <v>9999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K20">
+        <v>20471</v>
+      </c>
+      <c r="S20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA20" t="s">
         <v>108</v>
       </c>
-      <c r="K20">
-        <v>20472</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AB20" t="s">
         <v>109</v>
       </c>
-      <c r="AA20" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
         <v>111</v>
       </c>
-      <c r="AC20" t="s">
-        <v>113</v>
-      </c>
       <c r="AD20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ20" t="s">
         <v>127</v>
       </c>
-      <c r="AJ20" t="s">
-        <v>129</v>
-      </c>
       <c r="AL20" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM20" t="s">
         <v>135</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="21" spans="4:39">
       <c r="D21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" t="s">
         <v>77</v>
       </c>
       <c r="F21">
-        <v>3999</v>
+        <v>9999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K21">
+        <v>20373</v>
+      </c>
+      <c r="S21" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA21" t="s">
         <v>108</v>
       </c>
-      <c r="K21">
-        <v>20460</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="AB21" t="s">
         <v>109</v>
       </c>
-      <c r="AA21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
         <v>111</v>
       </c>
-      <c r="AC21" t="s">
-        <v>113</v>
-      </c>
       <c r="AD21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE21" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI21" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>127</v>
       </c>
-      <c r="AJ21" t="s">
-        <v>130</v>
-      </c>
       <c r="AL21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM21" t="s">
         <v>135</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="22" spans="4:39">
@@ -2512,102 +2493,102 @@
         <v>78</v>
       </c>
       <c r="F22">
-        <v>9999</v>
+        <v>19999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I22" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22">
+        <v>20466</v>
+      </c>
+      <c r="S22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA22" t="s">
         <v>108</v>
       </c>
-      <c r="K22">
-        <v>20471</v>
-      </c>
-      <c r="S22" t="s">
+      <c r="AB22" t="s">
         <v>109</v>
       </c>
-      <c r="AA22" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
         <v>111</v>
       </c>
-      <c r="AC22" t="s">
-        <v>113</v>
-      </c>
       <c r="AD22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI22" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>127</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>129</v>
-      </c>
       <c r="AL22" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM22" t="s">
         <v>135</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="23" spans="4:39">
       <c r="D23" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E23" t="s">
         <v>79</v>
       </c>
       <c r="F23">
-        <v>9999</v>
+        <v>4999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K23">
+        <v>20469</v>
+      </c>
+      <c r="S23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA23" t="s">
         <v>108</v>
       </c>
-      <c r="K23">
-        <v>20373</v>
-      </c>
-      <c r="S23" t="s">
+      <c r="AB23" t="s">
         <v>109</v>
       </c>
-      <c r="AA23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB23" t="s">
+      <c r="AC23" t="s">
         <v>111</v>
       </c>
-      <c r="AC23" t="s">
-        <v>113</v>
-      </c>
       <c r="AD23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE23" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AH23" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI23" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>127</v>
       </c>
-      <c r="AJ23" t="s">
-        <v>129</v>
-      </c>
       <c r="AL23" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM23" t="s">
         <v>135</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="24" spans="4:39">
@@ -2618,155 +2599,102 @@
         <v>80</v>
       </c>
       <c r="F24">
-        <v>19999</v>
+        <v>999</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I24" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="K24">
+        <v>20473</v>
+      </c>
+      <c r="S24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA24" t="s">
         <v>108</v>
       </c>
-      <c r="K24">
-        <v>20466</v>
-      </c>
-      <c r="S24" t="s">
+      <c r="AB24" t="s">
         <v>109</v>
       </c>
-      <c r="AA24" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB24" t="s">
+      <c r="AC24" t="s">
         <v>111</v>
       </c>
-      <c r="AC24" t="s">
-        <v>113</v>
-      </c>
       <c r="AD24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE24" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AH24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI24" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ24" t="s">
         <v>127</v>
       </c>
-      <c r="AJ24" t="s">
-        <v>129</v>
-      </c>
       <c r="AL24" t="s">
+        <v>134</v>
+      </c>
+      <c r="AM24" t="s">
         <v>135</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="25" spans="4:39">
       <c r="D25" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E25" t="s">
         <v>81</v>
       </c>
       <c r="F25">
-        <v>4999</v>
+        <v>3499</v>
       </c>
       <c r="G25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="K25">
+        <v>20387</v>
+      </c>
+      <c r="S25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA25" t="s">
         <v>108</v>
       </c>
-      <c r="K25">
-        <v>20469</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="AB25" t="s">
         <v>109</v>
       </c>
-      <c r="AA25" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB25" t="s">
+      <c r="AC25" t="s">
         <v>111</v>
       </c>
-      <c r="AC25" t="s">
-        <v>113</v>
-      </c>
       <c r="AD25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AE25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AH25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI25" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="AJ25" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AL25" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM25" t="s">
         <v>135</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="4:39">
-      <c r="D26" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26">
-        <v>999</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="K26">
-        <v>20473</v>
-      </c>
-      <c r="S26" t="s">
-        <v>109</v>
-      </c>
-      <c r="AA26" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB26" t="s">
-        <v>111</v>
-      </c>
-      <c r="AC26" t="s">
-        <v>113</v>
-      </c>
-      <c r="AD26" t="s">
-        <v>114</v>
-      </c>
-      <c r="AE26" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH26" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI26" t="s">
-        <v>128</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>129</v>
-      </c>
-      <c r="AL26" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM26" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2819,8 +2747,6 @@
     <hyperlink ref="I24" r:id="rId46"/>
     <hyperlink ref="G25" r:id="rId47"/>
     <hyperlink ref="I25" r:id="rId48"/>
-    <hyperlink ref="G26" r:id="rId49"/>
-    <hyperlink ref="I26" r:id="rId50"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="128">
   <si>
     <t>Address</t>
   </si>
@@ -133,9 +133,6 @@
     <t>CanBeDisassembled</t>
   </si>
   <si>
-    <t>Барный стул</t>
-  </si>
-  <si>
     <t>Стул офисный для посетителей</t>
   </si>
   <si>
@@ -178,42 +175,13 @@
     <t>Кресло офисное</t>
   </si>
   <si>
-    <t>Стул для переговорной</t>
-  </si>
-  <si>
-    <t>Стул кресло офисное кожаное</t>
-  </si>
-  <si>
     <t>Стулья кухонные</t>
   </si>
   <si>
     <t>Конференц кресло bene</t>
   </si>
   <si>
-    <t xml:space="preserve">Барный стул старинный
-Описание
-Высота сидения: 73 см
-Цвет: коричневый
-Цена: 5 000
-Количество: 8 шт
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
+    <t>Стул офисный Sitland</t>
   </si>
   <si>
     <t>Стулья для посетителей
@@ -600,33 +568,6 @@
     </t>
   </si>
   <si>
-    <t xml:space="preserve">Стул для переговорной
-Артикул 20471
-Стул кожанный переговорный для офиса.
-Стул-кресло на деревянной основе. На ножке есть небольшой дефект 
-Цвет черный
-Цена 9 999
-Количество 1 шт
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Кресло офисное
 Артикул 20373
 Стул кожанный переговорный для офиса.
@@ -650,33 +591,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Стул кресло офисное кожаное
-Артикул 20466
-Кожанный стул на деревянном каркасе с эргономичной спинкой и подголовником, отличается мягкостью и комфортом.
-На спинке есть дефекты! 
-Цвет черный
-Цена 19 999
-Количество 1
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Стул офисный
 Артикул 20469
 Стулья для переговоров в кожзамовой обивке на деревянном основании. Один стул с дефектами
@@ -743,7 +657,27 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/8qQyhp9ult7diw | https://disk.yandex.ru/i/uE-RYkadNO6TyA | https://disk.yandex.ru/i/Qx_3jFDLLFRLXw | https://disk.yandex.ru/i/o2V8urwcWcjJIg | https://disk.yandex.ru/i/tosFQ9mVA3fR3A | https://disk.yandex.ru/i/cyQHvA9Tr1vyCQ | https://disk.yandex.ru/i/KvuDWEfi_ogKTw | https://disk.yandex.ru/i/M7aGqLLzIKPEig</t>
+    <t>Стул офисный Sitland
+Артикул 20475
+Офисные стулья Sitland: стиль и комфорт из Италии
+Обновите ваш офис с элегантными стульями от итальянского бренда Sitland! Прочный каркас из высококачественной трубчатой стали обеспечивает надежность, а мягкое сиденье и спинка в кожаной обивке дарят непревзойденный комфорт. Идеальное сочетание итальянского дизайна, эргономики и долговечности. Выберите Sitland — создайте атмосферу уюта и статуса в вашем офисе!
+Цвет чёрный
+Цена 7 999
+Количество 7
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
@@ -797,15 +731,9 @@
     <t>https://disk.yandex.ru/i/QsZ_yhjrbU7_Aw | https://disk.yandex.ru/i/f-KELCF5AYYsGA | https://disk.yandex.ru/i/9Pqbg3BRugd4PA | https://disk.yandex.ru/i/ZEkv771sotWOxA | https://disk.yandex.ru/i/LtmtzEYHkMH5xA | https://disk.yandex.ru/i/p_VIf22PcCl2Sw | https://disk.yandex.ru/i/H2GmVKPnK59gMg</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/GCcsoIHTTH4RbA | https://disk.yandex.ru/i/O1oAU8DD_7dRMA | https://disk.yandex.ru/i/P-yE8AGFJ6np_A | https://disk.yandex.ru/i/GHaOkOPTwde3ug | https://disk.yandex.ru/i/5U-vBSigfS1M3w | https://disk.yandex.ru/i/W3388gxHhTV6Vw</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/l61b02rng6FWlQ | https://disk.yandex.ru/i/VCLYibir6nsP8Q | https://disk.yandex.ru/i/Q8kn-hqozEhQSg | https://disk.yandex.ru/i/MgcMsCM2ytV_GA | https://disk.yandex.ru/i/M8uzIk9zoFpfxw | https://disk.yandex.ru/i/f5p7OIzC4p_nAg | https://disk.yandex.ru/i/vsnhSj430bkGIQ | https://disk.yandex.ru/i/60dPA1Vf5ApyYA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/nKe-_AYyMDrwvA | https://disk.yandex.ru/i/SW3m7SnbBLSW2g | https://disk.yandex.ru/i/I_aPkJUSlj3XbA | https://disk.yandex.ru/i/kgmvoXyyXmf4yg | https://disk.yandex.ru/i/GQqcRHBiQcTeSw | https://disk.yandex.ru/i/6DPra0nJVzVcGA | https://disk.yandex.ru/i/SBTq_krgjBXYMw | https://disk.yandex.ru/i/npxN2Z8ao1rZFA | https://disk.yandex.ru/i/KiTS6DMYltgUYg | https://disk.yandex.ru/i/Lgdh7Tmgh99zOg</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/BEO8KSXz_KJw3w | https://disk.yandex.ru/i/Gv0cxmcoZ75Nqg | https://disk.yandex.ru/i/KpdCAX_S0z4DzQ | https://disk.yandex.ru/i/YRTlPIZudgfifw | https://disk.yandex.ru/i/bxZm8IS-aQ_gyA | https://disk.yandex.ru/i/XFPIbSrQdSj1gQ | https://disk.yandex.ru/i/xiSRlKVUW8jvUA</t>
   </si>
   <si>
@@ -815,6 +743,9 @@
     <t>https://disk.yandex.ru/i/NfZ4z3b1eRsznw | https://disk.yandex.ru/i/c-jQvAa7cvy86A | https://disk.yandex.ru/i/QACNJlq4QXVzwA | https://disk.yandex.ru/i/Nt_yZBU0s806Ig | https://disk.yandex.ru/i/t4YtK3VWiBOpCA | https://disk.yandex.ru/i/wirBWg96mMOa0w | https://disk.yandex.ru/i/U1KV9Mw81foo5Q | https://disk.yandex.ru/i/wzt3oUqxGbW9vQ</t>
   </si>
   <si>
+    <t>https://disk.yandex.ru/i/Jz1ZZnAOLvoRng | https://disk.yandex.ru/i/TA3ulTLDuOk2KQ | https://disk.yandex.ru/i/nhmFP9LIYumkfg | https://disk.yandex.ru/i/yuiR678GRcYTmw | https://disk.yandex.ru/i/Mh2SLwi-ZDdRPQ | https://disk.yandex.ru/i/haZ77dm2vTDWeA | https://disk.yandex.ru/i/O9SxsOEVJMYzWA</t>
+  </si>
+  <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
   </si>
   <si>
@@ -824,21 +755,18 @@
     <t>Столы и стулья</t>
   </si>
   <si>
+    <t>Товар приобретен на продажу</t>
+  </si>
+  <si>
     <t>Товар приобретен на продажу</t>
   </si>
   <si>
-    <t>Товар приобретен на продажу</t>
-  </si>
-  <si>
     <t>Б/у</t>
   </si>
   <si>
     <t>В наличии</t>
   </si>
   <si>
-    <t>Коричневый</t>
-  </si>
-  <si>
     <t>Разноцветный</t>
   </si>
   <si>
@@ -863,12 +791,12 @@
     <t>Стулья</t>
   </si>
   <si>
+    <t>Замша</t>
+  </si>
+  <si>
     <t>Ткань</t>
   </si>
   <si>
-    <t>Замша</t>
-  </si>
-  <si>
     <t>Искусственная кожа</t>
   </si>
   <si>
@@ -878,16 +806,13 @@
     <t>Пластик</t>
   </si>
   <si>
+    <t>Металл</t>
+  </si>
+  <si>
+    <t>Металл | Пластик</t>
+  </si>
+  <si>
     <t>Дерево</t>
-  </si>
-  <si>
-    <t>Металл</t>
-  </si>
-  <si>
-    <t>Металл | Пластик</t>
-  </si>
-  <si>
-    <t>Мягкое сидение</t>
   </si>
   <si>
     <t>Мягкое сидение | Мягкая спинка</t>
@@ -1273,7 +1198,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM25"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1403,52 +1328,55 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F2">
-        <v>5000</v>
+        <v>1499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE2" t="s">
         <v>107</v>
       </c>
-      <c r="AA2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>113</v>
+      <c r="AF2" t="s">
+        <v>107</v>
       </c>
       <c r="AH2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AJ2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM2" t="s">
         <v>127</v>
-      </c>
-      <c r="AL2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AM2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1456,55 +1384,52 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>1499</v>
+        <v>2100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>20379</v>
+      </c>
+      <c r="S3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD3" t="s">
         <v>106</v>
       </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA3" t="s">
+      <c r="AE3" t="s">
         <v>108</v>
       </c>
-      <c r="AB3" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC3" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD3" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE3" t="s">
+      <c r="AH3" t="s">
         <v>114</v>
       </c>
-      <c r="AF3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH3" t="s">
-        <v>121</v>
-      </c>
       <c r="AI3" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL3" t="s">
         <v>123</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL3" t="s">
-        <v>131</v>
-      </c>
       <c r="AM3" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1512,52 +1437,55 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F4">
-        <v>2100</v>
+        <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>20379</v>
       </c>
       <c r="S4" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE4" t="s">
         <v>107</v>
       </c>
-      <c r="AA4" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI4" t="s">
         <v>115</v>
       </c>
-      <c r="AH4" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>122</v>
-      </c>
       <c r="AJ4" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AL4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="AM4" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1565,167 +1493,167 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>20379</v>
       </c>
       <c r="S5" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE5" t="s">
         <v>107</v>
       </c>
-      <c r="AA5" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB5" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC5" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE5" t="s">
+      <c r="AF5" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH5" t="s">
         <v>114</v>
       </c>
-      <c r="AF5" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH5" t="s">
-        <v>121</v>
-      </c>
       <c r="AI5" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL5" t="s">
         <v>123</v>
       </c>
-      <c r="AJ5" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL5" t="s">
-        <v>131</v>
-      </c>
       <c r="AM5" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:39">
       <c r="D6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F6">
-        <v>2499</v>
+        <v>2099</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K6">
+        <v>20385</v>
+      </c>
+      <c r="S6" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD6" t="s">
         <v>106</v>
       </c>
-      <c r="K6">
-        <v>20379</v>
-      </c>
-      <c r="S6" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA6" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB6" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC6" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD6" t="s">
-        <v>112</v>
-      </c>
       <c r="AE6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH6" t="s">
         <v>114</v>
       </c>
-      <c r="AF6" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH6" t="s">
-        <v>121</v>
-      </c>
       <c r="AI6" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL6" t="s">
         <v>123</v>
       </c>
-      <c r="AJ6" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL6" t="s">
-        <v>131</v>
-      </c>
       <c r="AM6" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:39">
       <c r="D7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F7">
-        <v>2099</v>
+        <v>4999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>20433</v>
+      </c>
+      <c r="S7" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD7" t="s">
         <v>106</v>
       </c>
-      <c r="K7">
-        <v>20385</v>
-      </c>
-      <c r="S7" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA7" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AE7" t="s">
         <v>110</v>
       </c>
-      <c r="AC7" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE7" t="s">
-        <v>116</v>
-      </c>
       <c r="AF7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AH7" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI7" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL7" t="s">
         <v>123</v>
       </c>
-      <c r="AJ7" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL7" t="s">
-        <v>131</v>
-      </c>
       <c r="AM7" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1733,55 +1661,52 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8">
-        <v>4999</v>
+        <v>5000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>20433</v>
       </c>
       <c r="S8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB8" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD8" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE8" t="s">
         <v>110</v>
       </c>
-      <c r="AC8" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE8" t="s">
+      <c r="AH8" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI8" t="s">
         <v>117</v>
       </c>
-      <c r="AF8" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH8" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>123</v>
-      </c>
       <c r="AJ8" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AL8" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="AM8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1789,164 +1714,167 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F9">
-        <v>5000</v>
+        <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K9">
+        <v>20446</v>
+      </c>
+      <c r="S9" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD9" t="s">
         <v>106</v>
       </c>
-      <c r="K9">
-        <v>20433</v>
-      </c>
-      <c r="S9" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA9" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB9" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC9" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>112</v>
-      </c>
       <c r="AE9" t="s">
-        <v>117</v>
+        <v>110</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>110</v>
       </c>
       <c r="AH9" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>121</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AL9" t="s">
         <v>124</v>
       </c>
-      <c r="AJ9" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL9" t="s">
-        <v>132</v>
-      </c>
       <c r="AM9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:39">
       <c r="D10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10">
-        <v>6999</v>
+        <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>20446</v>
       </c>
       <c r="S10" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="AA10" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="AB10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="AC10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE10" t="s">
         <v>111</v>
       </c>
-      <c r="AD10" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>117</v>
-      </c>
       <c r="AF10" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="AH10" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>121</v>
       </c>
-      <c r="AI10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>129</v>
-      </c>
       <c r="AL10" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AM10" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:39">
       <c r="D11" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F11">
-        <v>4999</v>
+        <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11">
+        <v>20455</v>
+      </c>
+      <c r="S11" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD11" t="s">
         <v>106</v>
       </c>
-      <c r="K11">
-        <v>20446</v>
-      </c>
-      <c r="S11" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AE11" t="s">
         <v>110</v>
       </c>
-      <c r="AC11" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>118</v>
-      </c>
       <c r="AF11" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="AH11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="AJ11" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AL11" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AM11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1954,55 +1882,55 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F12">
-        <v>3999</v>
+        <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K12">
+        <v>20463</v>
+      </c>
+      <c r="S12" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD12" t="s">
         <v>106</v>
       </c>
-      <c r="K12">
-        <v>20455</v>
-      </c>
-      <c r="S12" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA12" t="s">
+      <c r="AE12" t="s">
         <v>108</v>
       </c>
-      <c r="AB12" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC12" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD12" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>117</v>
-      </c>
       <c r="AF12" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="AH12" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ12" t="s">
         <v>121</v>
       </c>
-      <c r="AI12" t="s">
-        <v>123</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>128</v>
-      </c>
       <c r="AL12" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="AM12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -2010,55 +1938,52 @@
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="I13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13">
+        <v>20462</v>
+      </c>
+      <c r="S13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB13" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD13" t="s">
         <v>106</v>
       </c>
-      <c r="K13">
-        <v>20463</v>
-      </c>
-      <c r="S13" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB13" t="s">
+      <c r="AE13" t="s">
         <v>110</v>
       </c>
-      <c r="AC13" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF13" t="s">
-        <v>115</v>
-      </c>
       <c r="AH13" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="AJ13" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="AL13" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="AM13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -2066,158 +1991,158 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="I14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K14">
+        <v>20467</v>
+      </c>
+      <c r="S14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD14" t="s">
         <v>106</v>
       </c>
-      <c r="K14">
-        <v>20462</v>
-      </c>
-      <c r="S14" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>112</v>
       </c>
-      <c r="AE14" t="s">
-        <v>117</v>
-      </c>
       <c r="AH14" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI14" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL14" t="s">
         <v>124</v>
       </c>
-      <c r="AJ14" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL14" t="s">
-        <v>132</v>
-      </c>
       <c r="AM14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="D15" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F15">
-        <v>4999</v>
+        <v>6999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15">
+        <v>20468</v>
+      </c>
+      <c r="S15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD15" t="s">
         <v>106</v>
       </c>
-      <c r="K15">
-        <v>20467</v>
-      </c>
-      <c r="S15" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB15" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>112</v>
-      </c>
       <c r="AE15" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="AH15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="AJ15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="AL15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AM15" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>6999</v>
+        <v>4999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16">
+        <v>20459</v>
+      </c>
+      <c r="S16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD16" t="s">
         <v>106</v>
       </c>
-      <c r="K16">
-        <v>20468</v>
-      </c>
-      <c r="S16" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>112</v>
-      </c>
       <c r="AE16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>120</v>
       </c>
-      <c r="AH16" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI16" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ16" t="s">
-        <v>128</v>
-      </c>
       <c r="AL16" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AM16" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="17" spans="4:39">
@@ -2225,52 +2150,52 @@
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F17">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17">
+        <v>20472</v>
+      </c>
+      <c r="S17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD17" t="s">
         <v>106</v>
       </c>
-      <c r="K17">
-        <v>20459</v>
-      </c>
-      <c r="S17" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA17" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB17" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>112</v>
-      </c>
       <c r="AE17" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI17" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ17" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL17" t="s">
         <v>124</v>
       </c>
-      <c r="AJ17" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>132</v>
-      </c>
       <c r="AM17" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="4:39">
@@ -2278,158 +2203,158 @@
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F18">
-        <v>9999</v>
+        <v>3999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K18">
+        <v>20460</v>
+      </c>
+      <c r="S18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD18" t="s">
         <v>106</v>
       </c>
-      <c r="K18">
-        <v>20472</v>
-      </c>
-      <c r="S18" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA18" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB18" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>112</v>
-      </c>
       <c r="AE18" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AH18" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI18" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AJ18" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM18" t="s">
         <v>127</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="19" spans="4:39">
       <c r="D19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F19">
-        <v>3999</v>
+        <v>9999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K19">
+        <v>20373</v>
+      </c>
+      <c r="S19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD19" t="s">
         <v>106</v>
       </c>
-      <c r="K19">
-        <v>20460</v>
-      </c>
-      <c r="S19" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA19" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB19" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>112</v>
-      </c>
       <c r="AE19" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AH19" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI19" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AJ19" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="AL19" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="AM19" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
     </row>
     <row r="20" spans="4:39">
       <c r="D20" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F20">
-        <v>9999</v>
+        <v>4999</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20">
+        <v>20469</v>
+      </c>
+      <c r="S20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD20" t="s">
         <v>106</v>
       </c>
-      <c r="K20">
-        <v>20471</v>
-      </c>
-      <c r="S20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA20" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB20" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>112</v>
-      </c>
       <c r="AE20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI20" t="s">
         <v>117</v>
       </c>
-      <c r="AH20" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>125</v>
-      </c>
       <c r="AJ20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM20" t="s">
         <v>127</v>
-      </c>
-      <c r="AL20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="21" spans="4:39">
@@ -2437,264 +2362,158 @@
         <v>53</v>
       </c>
       <c r="E21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F21">
-        <v>9999</v>
+        <v>999</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K21">
+        <v>20473</v>
+      </c>
+      <c r="S21" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="AA21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD21" t="s">
         <v>106</v>
       </c>
-      <c r="K21">
-        <v>20373</v>
-      </c>
-      <c r="S21" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>112</v>
-      </c>
       <c r="AE21" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="AH21" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="AI21" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="AJ21" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM21" t="s">
         <v>127</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="22" spans="4:39">
       <c r="D22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E22" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F22">
-        <v>19999</v>
+        <v>3499</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K22">
+        <v>20387</v>
+      </c>
+      <c r="S22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA22" t="s">
         <v>102</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="AB22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD22" t="s">
         <v>106</v>
       </c>
-      <c r="K22">
-        <v>20466</v>
-      </c>
-      <c r="S22" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>112</v>
-      </c>
       <c r="AE22" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI22" t="s">
         <v>117</v>
       </c>
-      <c r="AH22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>125</v>
-      </c>
       <c r="AJ22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM22" t="s">
         <v>127</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="23" spans="4:39">
       <c r="D23" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F23">
-        <v>4999</v>
+        <v>7999</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I23" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23">
+        <v>20475</v>
+      </c>
+      <c r="S23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD23" t="s">
         <v>106</v>
       </c>
-      <c r="K23">
-        <v>20469</v>
-      </c>
-      <c r="S23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>112</v>
-      </c>
       <c r="AE23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>118</v>
+      </c>
+      <c r="AJ23" t="s">
         <v>120</v>
       </c>
-      <c r="AH23" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI23" t="s">
+      <c r="AL23" t="s">
         <v>124</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AM23" t="s">
         <v>127</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="24" spans="4:39">
-      <c r="D24" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>80</v>
-      </c>
-      <c r="F24">
-        <v>999</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24">
-        <v>20473</v>
-      </c>
-      <c r="S24" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA24" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB24" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC24" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD24" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE24" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>126</v>
-      </c>
-      <c r="AJ24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>134</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="25" spans="4:39">
-      <c r="D25" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25">
-        <v>3499</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="K25">
-        <v>20387</v>
-      </c>
-      <c r="S25" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA25" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB25" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC25" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD25" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE25" t="s">
-        <v>117</v>
-      </c>
-      <c r="AH25" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI25" t="s">
-        <v>124</v>
-      </c>
-      <c r="AJ25" t="s">
-        <v>128</v>
-      </c>
-      <c r="AL25" t="s">
-        <v>132</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2743,10 +2562,6 @@
     <hyperlink ref="I22" r:id="rId42"/>
     <hyperlink ref="G23" r:id="rId43"/>
     <hyperlink ref="I23" r:id="rId44"/>
-    <hyperlink ref="G24" r:id="rId45"/>
-    <hyperlink ref="I24" r:id="rId46"/>
-    <hyperlink ref="G25" r:id="rId47"/>
-    <hyperlink ref="I25" r:id="rId48"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="126">
   <si>
     <t>Address</t>
   </si>
@@ -470,29 +470,6 @@
     </t>
   </si>
   <si>
-    <t>Стул офисный
-Артикул 20468
-Комплект офисных стульев. Стулья имеют высокий уровень удобства за счёт эргономичности и нестатичного основания. 
-Продается только комплект 5 стульев по 6 999 за шт. 
-Цвет бежевый
-Цена 6 999
-Количество 5
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Стул офисный Chairman
 Артикул 20459
 Стул - кресло в обивке из кожзама. На сидушка есть небольшие потертости 
@@ -717,9 +694,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/7biWUSx6HtkD7A | https://disk.yandex.ru/i/u6EJpqK1-D-JuQ | https://disk.yandex.ru/i/8pqpSiehD-5JAw | https://disk.yandex.ru/i/g0nHd7AtPvLZYg | https://disk.yandex.ru/i/TUUb3OUrbYjXIw | https://disk.yandex.ru/i/wbHBYSxv44Uhjg | https://disk.yandex.ru/i/h5jVPhTDhIPoUg | https://disk.yandex.ru/i/kfKT9imakawcEA</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/z_rOB6muVRrB8g | https://disk.yandex.ru/i/OKe1lZ7wuXcE7A | https://disk.yandex.ru/i/wEbF3plS51SqUQ | https://disk.yandex.ru/i/NKO5n8Vgfchx4w | https://disk.yandex.ru/i/Laaz5vi_H-zqAg | https://disk.yandex.ru/i/HMt8LJukBgtGzg</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/MWmgGdpTSCKUtg | https://disk.yandex.ru/i/Ej6A5AIKeKvR1w | https://disk.yandex.ru/i/XhBrX9VMuXu9EA | https://disk.yandex.ru/i/OTQeBmJXOQMSFA | https://disk.yandex.ru/i/T2hIPqfHddBxEA | https://disk.yandex.ru/i/GToWigE_-k7ZJg | https://disk.yandex.ru/i/QEZ1Ys8jBwEDWg | https://disk.yandex.ru/i/kYlzsqo7KHF-Mg | https://disk.yandex.ru/i/5QcDCBI0C3rAxw | https://disk.yandex.ru/i/0aCnGZRcmYSo1g</t>
@@ -1198,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1334,49 +1308,49 @@
         <v>1499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
         <v>101</v>
       </c>
-      <c r="AA2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>103</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>107</v>
-      </c>
       <c r="AF2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AM2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1390,46 +1364,46 @@
         <v>2100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>20379</v>
       </c>
       <c r="S3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD3" t="s">
         <v>104</v>
       </c>
-      <c r="AC3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>106</v>
       </c>
-      <c r="AE3" t="s">
-        <v>108</v>
-      </c>
       <c r="AH3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI3" t="s">
         <v>114</v>
       </c>
-      <c r="AI3" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL3" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AM3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1443,49 +1417,49 @@
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>20379</v>
       </c>
       <c r="S4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="s">
         <v>101</v>
       </c>
-      <c r="AA4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>103</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE4" t="s">
         <v>105</v>
       </c>
-      <c r="AD4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>107</v>
-      </c>
       <c r="AF4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AM4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1499,49 +1473,49 @@
         <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>20379</v>
       </c>
       <c r="S5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="s">
         <v>101</v>
       </c>
-      <c r="AA5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>103</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE5" t="s">
         <v>105</v>
       </c>
-      <c r="AD5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>107</v>
-      </c>
       <c r="AF5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AM5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1555,49 +1529,49 @@
         <v>2099</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>20385</v>
       </c>
       <c r="S6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB6" t="s">
         <v>101</v>
       </c>
-      <c r="AA6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>103</v>
       </c>
-      <c r="AC6" t="s">
-        <v>105</v>
-      </c>
       <c r="AD6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AM6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1611,49 +1585,49 @@
         <v>4999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>20433</v>
       </c>
       <c r="S7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB7" t="s">
         <v>101</v>
       </c>
-      <c r="AA7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" t="s">
-        <v>105</v>
-      </c>
       <c r="AD7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AM7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1667,46 +1641,46 @@
         <v>5000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>20433</v>
       </c>
       <c r="S8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="s">
         <v>102</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD8" t="s">
         <v>104</v>
       </c>
-      <c r="AC8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>106</v>
-      </c>
       <c r="AE8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AJ8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1720,49 +1694,49 @@
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>20446</v>
       </c>
       <c r="S9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" t="s">
         <v>101</v>
       </c>
-      <c r="AA9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>103</v>
       </c>
-      <c r="AC9" t="s">
-        <v>105</v>
-      </c>
       <c r="AD9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI9" t="s">
         <v>114</v>
       </c>
-      <c r="AI9" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AL9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1776,49 +1750,49 @@
         <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>20446</v>
       </c>
       <c r="S10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB10" t="s">
         <v>101</v>
       </c>
-      <c r="AA10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>103</v>
       </c>
-      <c r="AC10" t="s">
-        <v>105</v>
-      </c>
       <c r="AD10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI10" t="s">
         <v>114</v>
       </c>
-      <c r="AI10" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AL10" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1832,49 +1806,49 @@
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>20455</v>
       </c>
       <c r="S11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB11" t="s">
         <v>101</v>
       </c>
-      <c r="AA11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>103</v>
       </c>
-      <c r="AC11" t="s">
-        <v>105</v>
-      </c>
       <c r="AD11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM11" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1888,49 +1862,49 @@
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>20463</v>
       </c>
       <c r="S12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
-        <v>105</v>
-      </c>
       <c r="AD12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE12" t="s">
         <v>106</v>
       </c>
-      <c r="AE12" t="s">
-        <v>108</v>
-      </c>
       <c r="AF12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI12" t="s">
         <v>114</v>
       </c>
-      <c r="AI12" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AL12" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM12" t="s">
         <v>125</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1944,46 +1918,46 @@
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>20462</v>
       </c>
       <c r="S13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB13" t="s">
         <v>102</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD13" t="s">
         <v>104</v>
       </c>
-      <c r="AC13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>106</v>
-      </c>
       <c r="AE13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="AJ13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1997,205 +1971,205 @@
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>20467</v>
       </c>
       <c r="S14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>106</v>
-      </c>
       <c r="AE14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH14" t="s">
         <v>112</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>114</v>
       </c>
-      <c r="AI14" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM14" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:39">
       <c r="D15" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
         <v>69</v>
       </c>
       <c r="F15">
-        <v>6999</v>
+        <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15">
+        <v>20459</v>
+      </c>
+      <c r="S15" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA15" t="s">
         <v>100</v>
       </c>
-      <c r="K15">
-        <v>20468</v>
-      </c>
-      <c r="S15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>102</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD15" t="s">
         <v>104</v>
       </c>
-      <c r="AC15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>106</v>
-      </c>
       <c r="AE15" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AH15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>118</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>120</v>
-      </c>
       <c r="AL15" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM15" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:39">
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
         <v>70</v>
       </c>
       <c r="F16">
-        <v>4999</v>
+        <v>9999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K16">
+        <v>20472</v>
+      </c>
+      <c r="S16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA16" t="s">
         <v>100</v>
       </c>
-      <c r="K16">
-        <v>20459</v>
-      </c>
-      <c r="S16" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>102</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD16" t="s">
         <v>104</v>
       </c>
-      <c r="AC16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>106</v>
-      </c>
       <c r="AE16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ16" t="s">
         <v>120</v>
       </c>
       <c r="AL16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="4:39">
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
       </c>
       <c r="F17">
-        <v>9999</v>
+        <v>3999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17">
+        <v>20460</v>
+      </c>
+      <c r="S17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA17" t="s">
         <v>100</v>
       </c>
-      <c r="K17">
-        <v>20472</v>
-      </c>
-      <c r="S17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>102</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD17" t="s">
         <v>104</v>
       </c>
-      <c r="AC17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>106</v>
-      </c>
       <c r="AE17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>118</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AL17" t="s">
         <v>122</v>
       </c>
-      <c r="AL17" t="s">
-        <v>124</v>
-      </c>
       <c r="AM17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="4:39">
@@ -2206,314 +2180,261 @@
         <v>72</v>
       </c>
       <c r="F18">
-        <v>3999</v>
+        <v>9999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18">
+        <v>20373</v>
+      </c>
+      <c r="S18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA18" t="s">
         <v>100</v>
       </c>
-      <c r="K18">
-        <v>20460</v>
-      </c>
-      <c r="S18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>102</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>106</v>
-      </c>
       <c r="AE18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI18" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AJ18" t="s">
         <v>120</v>
       </c>
       <c r="AL18" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="4:39">
       <c r="D19" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E19" t="s">
         <v>73</v>
       </c>
       <c r="F19">
-        <v>9999</v>
+        <v>4999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19">
+        <v>20469</v>
+      </c>
+      <c r="S19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA19" t="s">
         <v>100</v>
       </c>
-      <c r="K19">
-        <v>20373</v>
-      </c>
-      <c r="S19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>102</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD19" t="s">
         <v>104</v>
       </c>
-      <c r="AC19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>106</v>
-      </c>
       <c r="AE19" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AJ19" t="s">
+        <v>120</v>
+      </c>
+      <c r="AL19" t="s">
         <v>122</v>
       </c>
-      <c r="AL19" t="s">
-        <v>124</v>
-      </c>
       <c r="AM19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="4:39">
       <c r="D20" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
       </c>
       <c r="F20">
-        <v>4999</v>
+        <v>999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20">
+        <v>20473</v>
+      </c>
+      <c r="S20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA20" t="s">
         <v>100</v>
       </c>
-      <c r="K20">
-        <v>20469</v>
-      </c>
-      <c r="S20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD20" t="s">
         <v>104</v>
       </c>
-      <c r="AC20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>106</v>
-      </c>
       <c r="AE20" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AH20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI20" t="s">
         <v>117</v>
       </c>
       <c r="AJ20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AL20" t="s">
         <v>124</v>
       </c>
       <c r="AM20" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="4:39">
       <c r="D21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
       </c>
       <c r="F21">
-        <v>999</v>
+        <v>3499</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21">
+        <v>20387</v>
+      </c>
+      <c r="S21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA21" t="s">
         <v>100</v>
       </c>
-      <c r="K21">
-        <v>20473</v>
-      </c>
-      <c r="S21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>102</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD21" t="s">
         <v>104</v>
       </c>
-      <c r="AC21" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>106</v>
-      </c>
       <c r="AE21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI21" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AJ21" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL21" t="s">
         <v>122</v>
       </c>
-      <c r="AL21" t="s">
-        <v>126</v>
-      </c>
       <c r="AM21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="4:39">
       <c r="D22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
         <v>76</v>
       </c>
       <c r="F22">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="K22">
+        <v>20475</v>
+      </c>
+      <c r="S22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA22" t="s">
         <v>100</v>
       </c>
-      <c r="K22">
-        <v>20387</v>
-      </c>
-      <c r="S22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>102</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD22" t="s">
         <v>104</v>
       </c>
-      <c r="AC22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>106</v>
-      </c>
       <c r="AE22" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AJ22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL22" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="4:39">
-      <c r="D23" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23">
-        <v>7999</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23">
-        <v>20475</v>
-      </c>
-      <c r="S23" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>118</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>120</v>
-      </c>
-      <c r="AL23" t="s">
-        <v>124</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2560,8 +2481,6 @@
     <hyperlink ref="I21" r:id="rId40"/>
     <hyperlink ref="G22" r:id="rId41"/>
     <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="124">
   <si>
     <t>Address</t>
   </si>
@@ -519,32 +519,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t xml:space="preserve">Кресло офисное
-Артикул 20460
-Стул кожанный для офиса. Выполнен из натуральной кожи и основа прочные металлические ноги выдерживающих большой вес, что гарантику долгий срок службы и устойчивость к износу
-Цвет черный
-Цена 3 999
-Количество 2 шт
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-    🔥 Система больших скидок действует при опте и в праздничные дни 
-    ✔ Самовывоз
-    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
-    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-    ➕ При поиске нас в навигаторе наберите – 
-    Офис комфорт Одинцово 
-    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-    -------------------------------------------------------------------
-    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-    Можем укомплектовать 100-200 рабочих мест.
-    </t>
-  </si>
-  <si>
     <t>Кресло офисное
 Артикул 20373
 Стул кожанный переговорный для офиса.
@@ -700,9 +674,6 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/40RK-Oz-X1nfQg | https://disk.yandex.ru/i/IJ1g6qO00WhPlg | https://disk.yandex.ru/i/EQTPDmOCnI2u9Q | https://disk.yandex.ru/i/FlusLag6-ScP6g | https://disk.yandex.ru/i/M-86YNFCgF6yLg | https://disk.yandex.ru/i/ZHg9fTE1MGPTiw | https://disk.yandex.ru/i/0IJPnOpVFQQYwA | https://disk.yandex.ru/i/pidQVjtWigmebQ</t>
-  </si>
-  <si>
-    <t>https://disk.yandex.ru/i/QsZ_yhjrbU7_Aw | https://disk.yandex.ru/i/f-KELCF5AYYsGA | https://disk.yandex.ru/i/9Pqbg3BRugd4PA | https://disk.yandex.ru/i/ZEkv771sotWOxA | https://disk.yandex.ru/i/LtmtzEYHkMH5xA | https://disk.yandex.ru/i/p_VIf22PcCl2Sw | https://disk.yandex.ru/i/H2GmVKPnK59gMg</t>
   </si>
   <si>
     <t>https://disk.yandex.ru/i/l61b02rng6FWlQ | https://disk.yandex.ru/i/VCLYibir6nsP8Q | https://disk.yandex.ru/i/Q8kn-hqozEhQSg | https://disk.yandex.ru/i/MgcMsCM2ytV_GA | https://disk.yandex.ru/i/M8uzIk9zoFpfxw | https://disk.yandex.ru/i/f5p7OIzC4p_nAg | https://disk.yandex.ru/i/vsnhSj430bkGIQ | https://disk.yandex.ru/i/60dPA1Vf5ApyYA</t>
@@ -1172,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1308,49 +1279,49 @@
         <v>1499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" t="s">
         <v>99</v>
       </c>
-      <c r="AA2" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>101</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE2" t="s">
         <v>103</v>
       </c>
-      <c r="AD2" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>105</v>
-      </c>
       <c r="AF2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AH2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1364,46 +1335,46 @@
         <v>2100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K3">
         <v>20379</v>
       </c>
       <c r="S3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB3" t="s">
         <v>100</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD3" t="s">
         <v>102</v>
       </c>
-      <c r="AC3" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>104</v>
       </c>
-      <c r="AE3" t="s">
-        <v>106</v>
-      </c>
       <c r="AH3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI3" t="s">
         <v>112</v>
       </c>
-      <c r="AI3" t="s">
-        <v>114</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1417,49 +1388,49 @@
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K4">
         <v>20379</v>
       </c>
       <c r="S4" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB4" t="s">
         <v>99</v>
       </c>
-      <c r="AA4" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>101</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE4" t="s">
         <v>103</v>
       </c>
-      <c r="AD4" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>105</v>
-      </c>
       <c r="AF4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AH4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1473,49 +1444,49 @@
         <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K5">
         <v>20379</v>
       </c>
       <c r="S5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5" t="s">
         <v>99</v>
       </c>
-      <c r="AA5" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>101</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE5" t="s">
         <v>103</v>
       </c>
-      <c r="AD5" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>105</v>
-      </c>
       <c r="AF5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AH5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1529,49 +1500,49 @@
         <v>2099</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K6">
         <v>20385</v>
       </c>
       <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB6" t="s">
         <v>99</v>
       </c>
-      <c r="AA6" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>101</v>
       </c>
-      <c r="AC6" t="s">
-        <v>103</v>
-      </c>
       <c r="AD6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AF6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1585,49 +1556,49 @@
         <v>4999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K7">
         <v>20433</v>
       </c>
       <c r="S7" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB7" t="s">
         <v>99</v>
       </c>
-      <c r="AA7" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>101</v>
       </c>
-      <c r="AC7" t="s">
-        <v>103</v>
-      </c>
       <c r="AD7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1641,46 +1612,46 @@
         <v>5000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K8">
         <v>20433</v>
       </c>
       <c r="S8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA8" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB8" t="s">
         <v>100</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD8" t="s">
         <v>102</v>
       </c>
-      <c r="AC8" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>104</v>
-      </c>
       <c r="AE8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1694,49 +1665,49 @@
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K9">
         <v>20446</v>
       </c>
       <c r="S9" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB9" t="s">
         <v>99</v>
       </c>
-      <c r="AA9" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>101</v>
       </c>
-      <c r="AC9" t="s">
-        <v>103</v>
-      </c>
       <c r="AD9" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH9" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI9" t="s">
         <v>112</v>
       </c>
-      <c r="AI9" t="s">
-        <v>114</v>
-      </c>
       <c r="AJ9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL9" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1750,49 +1721,49 @@
         <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K10">
         <v>20446</v>
       </c>
       <c r="S10" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB10" t="s">
         <v>99</v>
       </c>
-      <c r="AA10" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>101</v>
       </c>
-      <c r="AC10" t="s">
-        <v>103</v>
-      </c>
       <c r="AD10" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF10" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI10" t="s">
         <v>112</v>
       </c>
-      <c r="AI10" t="s">
-        <v>114</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1806,49 +1777,49 @@
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K11">
         <v>20455</v>
       </c>
       <c r="S11" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB11" t="s">
         <v>99</v>
       </c>
-      <c r="AA11" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>101</v>
       </c>
-      <c r="AC11" t="s">
-        <v>103</v>
-      </c>
       <c r="AD11" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="AE11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM11" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1862,49 +1833,49 @@
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K12">
         <v>20463</v>
       </c>
       <c r="S12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB12" t="s">
         <v>99</v>
       </c>
-      <c r="AA12" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
-        <v>103</v>
-      </c>
       <c r="AD12" t="s">
+        <v>102</v>
+      </c>
+      <c r="AE12" t="s">
         <v>104</v>
       </c>
-      <c r="AE12" t="s">
-        <v>106</v>
-      </c>
       <c r="AF12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AH12" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI12" t="s">
         <v>112</v>
       </c>
-      <c r="AI12" t="s">
-        <v>114</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL12" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM12" t="s">
         <v>123</v>
-      </c>
-      <c r="AM12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1918,46 +1889,46 @@
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K13">
         <v>20462</v>
       </c>
       <c r="S13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA13" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB13" t="s">
         <v>100</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD13" t="s">
         <v>102</v>
       </c>
-      <c r="AC13" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>104</v>
-      </c>
       <c r="AE13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1971,46 +1942,46 @@
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K14">
         <v>20467</v>
       </c>
       <c r="S14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA14" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB14" t="s">
         <v>100</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>104</v>
-      </c>
       <c r="AE14" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH14" t="s">
         <v>110</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>112</v>
       </c>
-      <c r="AI14" t="s">
-        <v>114</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL14" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM14" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -2024,46 +1995,46 @@
         <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K15">
         <v>20459</v>
       </c>
       <c r="S15" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB15" t="s">
         <v>100</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD15" t="s">
         <v>102</v>
       </c>
-      <c r="AC15" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>104</v>
-      </c>
       <c r="AE15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI15" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ15" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL15" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM15" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2077,46 +2048,46 @@
         <v>9999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K16">
         <v>20472</v>
       </c>
       <c r="S16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="AA16" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB16" t="s">
         <v>100</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD16" t="s">
         <v>102</v>
       </c>
-      <c r="AC16" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>104</v>
-      </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AJ16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL16" t="s">
         <v>120</v>
       </c>
-      <c r="AL16" t="s">
-        <v>122</v>
-      </c>
       <c r="AM16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="4:39">
@@ -2127,314 +2098,261 @@
         <v>71</v>
       </c>
       <c r="F17">
-        <v>3999</v>
+        <v>9999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K17">
+        <v>20373</v>
+      </c>
+      <c r="S17" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA17" t="s">
         <v>98</v>
       </c>
-      <c r="K17">
-        <v>20460</v>
-      </c>
-      <c r="S17" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>100</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD17" t="s">
         <v>102</v>
       </c>
-      <c r="AC17" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>104</v>
-      </c>
       <c r="AE17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="AJ17" t="s">
         <v>118</v>
       </c>
       <c r="AL17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="4:39">
       <c r="D18" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
       </c>
       <c r="F18">
-        <v>9999</v>
+        <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K18">
+        <v>20469</v>
+      </c>
+      <c r="S18" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA18" t="s">
         <v>98</v>
       </c>
-      <c r="K18">
-        <v>20373</v>
-      </c>
-      <c r="S18" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>100</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD18" t="s">
         <v>102</v>
       </c>
-      <c r="AC18" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>104</v>
-      </c>
       <c r="AE18" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AH18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI18" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AJ18" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL18" t="s">
         <v>120</v>
       </c>
-      <c r="AL18" t="s">
-        <v>122</v>
-      </c>
       <c r="AM18" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="4:39">
       <c r="D19" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>73</v>
       </c>
       <c r="F19">
-        <v>4999</v>
+        <v>999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K19">
+        <v>20473</v>
+      </c>
+      <c r="S19" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA19" t="s">
         <v>98</v>
       </c>
-      <c r="K19">
-        <v>20469</v>
-      </c>
-      <c r="S19" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>100</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD19" t="s">
         <v>102</v>
       </c>
-      <c r="AC19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>104</v>
-      </c>
       <c r="AE19" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AH19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI19" t="s">
         <v>115</v>
       </c>
       <c r="AJ19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL19" t="s">
         <v>122</v>
       </c>
       <c r="AM19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="4:39">
       <c r="D20" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>74</v>
       </c>
       <c r="F20">
-        <v>999</v>
+        <v>3499</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K20">
+        <v>20387</v>
+      </c>
+      <c r="S20" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA20" t="s">
         <v>98</v>
       </c>
-      <c r="K20">
-        <v>20473</v>
-      </c>
-      <c r="S20" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>100</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD20" t="s">
         <v>102</v>
       </c>
-      <c r="AC20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>104</v>
-      </c>
       <c r="AE20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AJ20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL20" t="s">
         <v>120</v>
       </c>
-      <c r="AL20" t="s">
-        <v>124</v>
-      </c>
       <c r="AM20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="21" spans="4:39">
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>75</v>
       </c>
       <c r="F21">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="G21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="K21">
+        <v>20475</v>
+      </c>
+      <c r="S21" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA21" t="s">
         <v>98</v>
       </c>
-      <c r="K21">
-        <v>20387</v>
-      </c>
-      <c r="S21" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>100</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
+        <v>101</v>
+      </c>
+      <c r="AD21" t="s">
         <v>102</v>
       </c>
-      <c r="AC21" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>104</v>
-      </c>
       <c r="AE21" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AI21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AJ21" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AL21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM21" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="22" spans="4:39">
-      <c r="D22" t="s">
-        <v>55</v>
-      </c>
-      <c r="E22" t="s">
-        <v>76</v>
-      </c>
-      <c r="F22">
-        <v>7999</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="K22">
-        <v>20475</v>
-      </c>
-      <c r="S22" t="s">
-        <v>99</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>100</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC22" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>104</v>
-      </c>
-      <c r="AE22" t="s">
-        <v>108</v>
-      </c>
-      <c r="AH22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ22" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL22" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2479,8 +2397,6 @@
     <hyperlink ref="I20" r:id="rId38"/>
     <hyperlink ref="G21" r:id="rId39"/>
     <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="119">
   <si>
     <t>Address</t>
   </si>
@@ -173,9 +173,6 @@
   </si>
   <si>
     <t>Кресло офисное</t>
-  </si>
-  <si>
-    <t>Стулья кухонные</t>
   </si>
   <si>
     <t>Конференц кресло bene</t>
@@ -564,28 +561,6 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
-    <t>Стулья кухонные
-Артикул 20473
-Стулья пластиковые, комфортные и стильные. Подойдут для дома и кафе. На стульях есть небольшие царапины
-Цвет черный
-Цена 999
-Количество 20 (уточняйте)
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
     <t>Конференц кресло bene
 Артикул 20387
 Современное кресло - стул отлично подойдёт для конференц зала и работы в офисе. Выполнено из качественного кожзама.
@@ -682,9 +657,6 @@
     <t>https://disk.yandex.ru/i/BEO8KSXz_KJw3w | https://disk.yandex.ru/i/Gv0cxmcoZ75Nqg | https://disk.yandex.ru/i/KpdCAX_S0z4DzQ | https://disk.yandex.ru/i/YRTlPIZudgfifw | https://disk.yandex.ru/i/bxZm8IS-aQ_gyA | https://disk.yandex.ru/i/XFPIbSrQdSj1gQ | https://disk.yandex.ru/i/xiSRlKVUW8jvUA</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/GTqWLDl4RDiTxQ | https://disk.yandex.ru/i/2Ss5SGbkzWYXgQ | https://disk.yandex.ru/i/d41gsAs_n_juDg | https://disk.yandex.ru/i/lFoI8JAIXeAszA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/NfZ4z3b1eRsznw | https://disk.yandex.ru/i/c-jQvAa7cvy86A | https://disk.yandex.ru/i/QACNJlq4QXVzwA | https://disk.yandex.ru/i/Nt_yZBU0s806Ig | https://disk.yandex.ru/i/t4YtK3VWiBOpCA | https://disk.yandex.ru/i/wirBWg96mMOa0w | https://disk.yandex.ru/i/U1KV9Mw81foo5Q | https://disk.yandex.ru/i/wzt3oUqxGbW9vQ</t>
   </si>
   <si>
@@ -748,9 +720,6 @@
     <t>Кожа</t>
   </si>
   <si>
-    <t>Пластик</t>
-  </si>
-  <si>
     <t>Металл</t>
   </si>
   <si>
@@ -767,9 +736,6 @@
   </si>
   <si>
     <t>Подлокотники | Колёсики | Мягкое сидение | Мягкая спинка</t>
-  </si>
-  <si>
-    <t>Мягкая спинка</t>
   </si>
   <si>
     <t>Нет</t>
@@ -1143,7 +1109,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM21"/>
+  <dimension ref="A1:AM20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1273,55 +1239,55 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>1499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC2" t="s">
         <v>98</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AD2" t="s">
         <v>99</v>
       </c>
-      <c r="AC2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>102</v>
-      </c>
       <c r="AE2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AF2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AH2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AM2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1329,52 +1295,52 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>2100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K3">
         <v>20379</v>
       </c>
       <c r="S3" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB3" t="s">
         <v>97</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AC3" t="s">
         <v>98</v>
       </c>
-      <c r="AB3" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE3" t="s">
         <v>101</v>
       </c>
-      <c r="AD3" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE3" t="s">
-        <v>104</v>
-      </c>
       <c r="AH3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ3" t="s">
         <v>112</v>
       </c>
-      <c r="AJ3" t="s">
-        <v>116</v>
-      </c>
       <c r="AL3" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AM3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1382,55 +1348,55 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F4">
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K4">
         <v>20379</v>
       </c>
       <c r="S4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA4" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC4" t="s">
         <v>98</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" t="s">
         <v>99</v>
       </c>
-      <c r="AC4" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>102</v>
-      </c>
       <c r="AE4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AF4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AH4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL4" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AM4" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1438,55 +1404,55 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F5">
         <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K5">
         <v>20379</v>
       </c>
       <c r="S5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA5" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC5" t="s">
         <v>98</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AD5" t="s">
         <v>99</v>
       </c>
-      <c r="AC5" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>102</v>
-      </c>
       <c r="AE5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AF5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="AH5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ5" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AM5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1494,55 +1460,55 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F6">
         <v>2099</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K6">
         <v>20385</v>
       </c>
       <c r="S6" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA6" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC6" t="s">
         <v>98</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AD6" t="s">
         <v>99</v>
       </c>
-      <c r="AC6" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>102</v>
       </c>
-      <c r="AE6" t="s">
-        <v>105</v>
-      </c>
       <c r="AF6" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="AH6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL6" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AM6" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1550,55 +1516,55 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7">
         <v>4999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K7">
         <v>20433</v>
       </c>
       <c r="S7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA7" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC7" t="s">
         <v>98</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AD7" t="s">
         <v>99</v>
       </c>
-      <c r="AC7" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD7" t="s">
-        <v>102</v>
-      </c>
       <c r="AE7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AF7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AL7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AM7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1606,52 +1572,52 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8">
         <v>5000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K8">
         <v>20433</v>
       </c>
       <c r="S8" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AC8" t="s">
         <v>98</v>
       </c>
-      <c r="AB8" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>101</v>
-      </c>
       <c r="AD8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH8" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI8" t="s">
         <v>110</v>
       </c>
-      <c r="AI8" t="s">
-        <v>113</v>
-      </c>
       <c r="AJ8" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL8" t="s">
         <v>116</v>
       </c>
-      <c r="AL8" t="s">
-        <v>120</v>
-      </c>
       <c r="AM8" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1659,55 +1625,55 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F9">
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K9">
         <v>20446</v>
       </c>
       <c r="S9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC9" t="s">
         <v>98</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AD9" t="s">
         <v>99</v>
       </c>
-      <c r="AC9" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD9" t="s">
-        <v>102</v>
-      </c>
       <c r="AE9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AF9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AJ9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AL9" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AM9" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1715,55 +1681,55 @@
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F10">
         <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K10">
         <v>20446</v>
       </c>
       <c r="S10" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA10" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC10" t="s">
         <v>98</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AD10" t="s">
         <v>99</v>
       </c>
-      <c r="AC10" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>102</v>
-      </c>
       <c r="AE10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>104</v>
+      </c>
+      <c r="AH10" t="s">
         <v>107</v>
       </c>
-      <c r="AF10" t="s">
-        <v>107</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>110</v>
-      </c>
       <c r="AI10" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AJ10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AL10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AM10" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1771,55 +1737,55 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F11">
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K11">
         <v>20455</v>
       </c>
       <c r="S11" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA11" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC11" t="s">
         <v>98</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AD11" t="s">
         <v>99</v>
       </c>
-      <c r="AC11" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>102</v>
-      </c>
       <c r="AE11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AF11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="AJ11" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL11" t="s">
         <v>116</v>
       </c>
-      <c r="AL11" t="s">
-        <v>120</v>
-      </c>
       <c r="AM11" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1827,55 +1793,55 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F12">
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K12">
         <v>20463</v>
       </c>
       <c r="S12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="AA12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AC12" t="s">
         <v>98</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AD12" t="s">
         <v>99</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AE12" t="s">
         <v>101</v>
       </c>
-      <c r="AD12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE12" t="s">
-        <v>104</v>
-      </c>
       <c r="AF12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI12" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="AJ12" t="s">
+        <v>113</v>
+      </c>
+      <c r="AL12" t="s">
         <v>117</v>
       </c>
-      <c r="AL12" t="s">
-        <v>121</v>
-      </c>
       <c r="AM12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1883,52 +1849,52 @@
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F13">
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K13">
         <v>20462</v>
       </c>
       <c r="S13" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB13" t="s">
         <v>97</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AC13" t="s">
         <v>98</v>
       </c>
-      <c r="AB13" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>101</v>
-      </c>
       <c r="AD13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH13" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI13" t="s">
         <v>110</v>
       </c>
-      <c r="AI13" t="s">
-        <v>113</v>
-      </c>
       <c r="AJ13" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL13" t="s">
         <v>116</v>
       </c>
-      <c r="AL13" t="s">
-        <v>120</v>
-      </c>
       <c r="AM13" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1936,52 +1902,52 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K14">
         <v>20467</v>
       </c>
       <c r="S14" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14" t="s">
         <v>97</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AC14" t="s">
         <v>98</v>
       </c>
-      <c r="AB14" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC14" t="s">
-        <v>101</v>
-      </c>
       <c r="AD14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AH14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI14" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ14" t="s">
         <v>112</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AL14" t="s">
         <v>116</v>
       </c>
-      <c r="AL14" t="s">
-        <v>120</v>
-      </c>
       <c r="AM14" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -1989,52 +1955,52 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F15">
         <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K15">
         <v>20459</v>
       </c>
       <c r="S15" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB15" t="s">
         <v>97</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AC15" t="s">
         <v>98</v>
       </c>
-      <c r="AB15" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC15" t="s">
-        <v>101</v>
-      </c>
       <c r="AD15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH15" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI15" t="s">
         <v>110</v>
       </c>
-      <c r="AI15" t="s">
-        <v>113</v>
-      </c>
       <c r="AJ15" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL15" t="s">
         <v>116</v>
       </c>
-      <c r="AL15" t="s">
-        <v>120</v>
-      </c>
       <c r="AM15" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2042,52 +2008,52 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16">
         <v>9999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K16">
         <v>20472</v>
       </c>
       <c r="S16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB16" t="s">
         <v>97</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AC16" t="s">
         <v>98</v>
       </c>
-      <c r="AB16" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC16" t="s">
-        <v>101</v>
-      </c>
       <c r="AD16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ16" t="s">
         <v>114</v>
       </c>
-      <c r="AJ16" t="s">
+      <c r="AL16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM16" t="s">
         <v>118</v>
-      </c>
-      <c r="AL16" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM16" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="17" spans="4:39">
@@ -2095,52 +2061,52 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F17">
         <v>9999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K17">
         <v>20373</v>
       </c>
       <c r="S17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB17" t="s">
         <v>97</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AC17" t="s">
         <v>98</v>
       </c>
-      <c r="AB17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC17" t="s">
-        <v>101</v>
-      </c>
       <c r="AD17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI17" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ17" t="s">
         <v>114</v>
       </c>
-      <c r="AJ17" t="s">
+      <c r="AL17" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM17" t="s">
         <v>118</v>
-      </c>
-      <c r="AL17" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="18" spans="4:39">
@@ -2148,52 +2114,52 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F18">
         <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="K18">
         <v>20469</v>
       </c>
       <c r="S18" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB18" t="s">
         <v>97</v>
       </c>
-      <c r="AA18" t="s">
+      <c r="AC18" t="s">
         <v>98</v>
       </c>
-      <c r="AB18" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC18" t="s">
-        <v>101</v>
-      </c>
       <c r="AD18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AH18" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI18" t="s">
         <v>110</v>
       </c>
-      <c r="AI18" t="s">
-        <v>113</v>
-      </c>
       <c r="AJ18" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM18" t="s">
         <v>118</v>
-      </c>
-      <c r="AL18" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM18" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="19" spans="4:39">
@@ -2201,52 +2167,52 @@
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F19">
-        <v>999</v>
+        <v>3499</v>
       </c>
       <c r="G19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I19" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="K19">
-        <v>20473</v>
+        <v>20387</v>
       </c>
       <c r="S19" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB19" t="s">
         <v>97</v>
       </c>
-      <c r="AA19" t="s">
+      <c r="AC19" t="s">
         <v>98</v>
       </c>
-      <c r="AB19" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC19" t="s">
-        <v>101</v>
-      </c>
       <c r="AD19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH19" t="s">
+        <v>107</v>
+      </c>
+      <c r="AI19" t="s">
         <v>110</v>
       </c>
-      <c r="AI19" t="s">
-        <v>115</v>
-      </c>
       <c r="AJ19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM19" t="s">
         <v>118</v>
-      </c>
-      <c r="AL19" t="s">
-        <v>122</v>
-      </c>
-      <c r="AM19" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="4:39">
@@ -2254,105 +2220,52 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F20">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K20">
+        <v>20475</v>
+      </c>
+      <c r="S20" t="s">
         <v>94</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K20">
-        <v>20387</v>
-      </c>
-      <c r="S20" t="s">
+      <c r="AA20" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB20" t="s">
         <v>97</v>
       </c>
-      <c r="AA20" t="s">
+      <c r="AC20" t="s">
         <v>98</v>
       </c>
-      <c r="AB20" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC20" t="s">
-        <v>101</v>
-      </c>
       <c r="AD20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="AE20" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="AH20" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AI20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AJ20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AL20" t="s">
         <v>116</v>
       </c>
-      <c r="AL20" t="s">
-        <v>120</v>
-      </c>
       <c r="AM20" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="21" spans="4:39">
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
-      <c r="E21" t="s">
-        <v>75</v>
-      </c>
-      <c r="F21">
-        <v>7999</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="K21">
-        <v>20475</v>
-      </c>
-      <c r="S21" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB21" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AD21" t="s">
-        <v>102</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>106</v>
-      </c>
-      <c r="AH21" t="s">
-        <v>110</v>
-      </c>
-      <c r="AI21" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ21" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL21" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2395,8 +2308,6 @@
     <hyperlink ref="I19" r:id="rId36"/>
     <hyperlink ref="G20" r:id="rId37"/>
     <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="124">
   <si>
     <t>Address</t>
   </si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>Стул офисный Sitland</t>
+  </si>
+  <si>
+    <t>Стул кресло Chairman</t>
   </si>
   <si>
     <t>Стулья для посетителей
@@ -606,6 +609,59 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Стул кресло Chairman
+Артикул 20477
+Элитное кожаное кресло для офиса с красным деревом.
+Цвет: Чёрный
+Цена: 14999
+Количество: 4
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Стул-кресло
+Артикул 20499
+Удобные и стильные пуфик, стул-кресла для офисов по выгодной цене! 
+Они хорошо впишутся в любые современные дизаны офисных помещений и будут подчеркивать ваш хороший вкус и заботу о посетителях.
+Размеры сидения: Ширина - 60 см
+Глубина - 50 см
+Высота - 45
+Цвет: серый, бежевый, оливковый, антрацит
+Цвет: Разноцветный
+Цена: 1999
+Количество: 40
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+    🔥 Система больших скидок действует при опте и в праздничные дни 
+    ✔ Самовывоз
+    ✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+    ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+    ➕ При поиске нас в навигаторе наберите – 
+    Офис комфорт Одинцово 
+    🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+    -------------------------------------------------------------------
+    Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+    На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+    Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+    Можем укомплектовать 100-200 рабочих мест.
+    </t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
   </si>
   <si>
@@ -661,6 +717,12 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/Jz1ZZnAOLvoRng | https://disk.yandex.ru/i/TA3ulTLDuOk2KQ | https://disk.yandex.ru/i/nhmFP9LIYumkfg | https://disk.yandex.ru/i/yuiR678GRcYTmw | https://disk.yandex.ru/i/Mh2SLwi-ZDdRPQ | https://disk.yandex.ru/i/haZ77dm2vTDWeA | https://disk.yandex.ru/i/O9SxsOEVJMYzWA</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/3HP8699MiEkCPQ | https://disk.yandex.ru/i/wcNdx-EiJVoohw | https://disk.yandex.ru/i/pUdk_Jwz1JQO4Q | https://disk.yandex.ru/i/Vxfw9iyGiylOUw | https://disk.yandex.ru/i/l3y5JnFy7jGdcA | https://disk.yandex.ru/i/3i7EDjZGXafrTQ</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/wFDd1WzugFDD4Q | https://disk.yandex.ru/i/yFXfDw5TUiRcLw | https://disk.yandex.ru/i/0oZa0X0b83HtAw | https://disk.yandex.ru/i/R-WnDRYmZ5eRhw | https://disk.yandex.ru/i/jIXkbF1oZ3Ofxg | https://disk.yandex.ru/i/8VEniwXB3CGSEQ | https://disk.yandex.ru/i/cXwy4iGUUYMoWg | https://disk.yandex.ru/i/fZ-ZdZCq9B8DoA | https://disk.yandex.ru/i/eWSvnRHpzRnTTA | https://disk.yandex.ru/i/OqiI0AMbFbBt4A</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1109,7 +1171,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM20"/>
+  <dimension ref="A1:AM22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1239,55 +1301,55 @@
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2">
         <v>1499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AC2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AF2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AH2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AJ2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL2" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1295,52 +1357,52 @@
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F3">
         <v>2100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>20379</v>
       </c>
       <c r="S3" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA3" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB3" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AC3" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE3" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AH3" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI3" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AJ3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL3" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1348,55 +1410,55 @@
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4">
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>20379</v>
       </c>
       <c r="S4" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA4" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB4" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AC4" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AF4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AH4" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI4" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AJ4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL4" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1404,55 +1466,55 @@
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F5">
         <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>20379</v>
       </c>
       <c r="S5" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA5" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB5" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AC5" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AF5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AH5" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI5" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AJ5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL5" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1460,55 +1522,55 @@
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6">
         <v>2099</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>20385</v>
       </c>
       <c r="S6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA6" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB6" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AC6" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AF6" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AH6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI6" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL6" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1516,55 +1578,55 @@
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F7">
         <v>4999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>20433</v>
       </c>
       <c r="S7" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB7" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AC7" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AF7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH7" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AJ7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1572,52 +1634,52 @@
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F8">
         <v>5000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>20433</v>
       </c>
       <c r="S8" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB8" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AC8" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH8" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI8" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AJ8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL8" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM8" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1625,55 +1687,55 @@
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F9">
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>20446</v>
       </c>
       <c r="S9" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA9" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AC9" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AF9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH9" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI9" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AJ9" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AL9" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1681,55 +1743,55 @@
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10">
         <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>20446</v>
       </c>
       <c r="S10" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA10" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB10" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AC10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AH10" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AJ10" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AL10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1737,55 +1799,55 @@
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F11">
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>20455</v>
       </c>
       <c r="S11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA11" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB11" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AC11" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH11" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AJ11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM11" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1793,55 +1855,55 @@
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12">
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>20463</v>
       </c>
       <c r="S12" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="AC12" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AF12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AH12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI12" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AJ12" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AM12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1849,52 +1911,52 @@
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F13">
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>20462</v>
       </c>
       <c r="S13" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA13" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB13" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AC13" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH13" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI13" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AJ13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL13" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM13" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1902,52 +1964,52 @@
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>20467</v>
       </c>
       <c r="S14" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA14" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB14" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AC14" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AH14" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI14" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AJ14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL14" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM14" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -1955,52 +2017,52 @@
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F15">
         <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K15">
         <v>20459</v>
       </c>
       <c r="S15" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA15" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB15" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AC15" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH15" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI15" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AJ15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL15" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM15" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2008,52 +2070,52 @@
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F16">
         <v>9999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K16">
         <v>20472</v>
       </c>
       <c r="S16" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA16" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB16" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AC16" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH16" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI16" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AJ16" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AL16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM16" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="4:39">
@@ -2061,52 +2123,52 @@
         <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F17">
         <v>9999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K17">
         <v>20373</v>
       </c>
       <c r="S17" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA17" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB17" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AC17" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD17" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH17" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AJ17" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AL17" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM17" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="4:39">
@@ -2114,52 +2176,52 @@
         <v>40</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18">
         <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K18">
         <v>20469</v>
       </c>
       <c r="S18" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA18" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB18" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AC18" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE18" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AH18" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI18" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AJ18" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AL18" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM18" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="19" spans="4:39">
@@ -2167,52 +2229,52 @@
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F19">
         <v>3499</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K19">
         <v>20387</v>
       </c>
       <c r="S19" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA19" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB19" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="AC19" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="AD19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AE19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AH19" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AI19" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AJ19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AL19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AM19" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="4:39">
@@ -2220,52 +2282,158 @@
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F20">
         <v>7999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="K20">
         <v>20475</v>
       </c>
       <c r="S20" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="AA20" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="AB20" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ20" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="21" spans="4:39">
+      <c r="D21" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21">
+        <v>14999</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21">
+        <v>20477</v>
+      </c>
+      <c r="S21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>108</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="4:39">
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22">
+        <v>1999</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="I22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="K22">
+        <v>20499</v>
+      </c>
+      <c r="S22" t="s">
         <v>99</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AA22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC22" t="s">
         <v>103</v>
       </c>
-      <c r="AH20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AI20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AJ20" t="s">
+      <c r="AD22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AH22" t="s">
         <v>112</v>
       </c>
-      <c r="AL20" t="s">
-        <v>116</v>
-      </c>
-      <c r="AM20" t="s">
-        <v>118</v>
+      <c r="AI22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2308,6 +2476,10 @@
     <hyperlink ref="I19" r:id="rId36"/>
     <hyperlink ref="G20" r:id="rId37"/>
     <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="126">
   <si>
     <t>Address</t>
   </si>
@@ -662,6 +662,28 @@
     </t>
   </si>
   <si>
+    <t>Стул-кресло
+Артикул 20464
+Стулья офисные для посетителей на хромированных полозьях в обивке кажзам
+Цвет: Чёрный
+Цена: 6999
+Количество: 8 шт
+    В нашем магазине вы найдете стулья для любой цели использования. 
+    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
+    так же есть стулья для кухни разных цветов, для любого интерьера. 
+    Самая низкая цена стула 799
+Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
+            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
+            ➕ При поиске нас в навигаторе наберите – 
+            Офис комфорт Одинцово 
+            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
+            -------------------------------------------------------------------
+            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
+            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
+            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
+            Можем укомплектовать 100-200 рабочих мест.</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
   </si>
   <si>
@@ -723,6 +745,9 @@
   </si>
   <si>
     <t>https://disk.yandex.ru/i/wFDd1WzugFDD4Q | https://disk.yandex.ru/i/yFXfDw5TUiRcLw | https://disk.yandex.ru/i/0oZa0X0b83HtAw | https://disk.yandex.ru/i/R-WnDRYmZ5eRhw | https://disk.yandex.ru/i/jIXkbF1oZ3Ofxg | https://disk.yandex.ru/i/8VEniwXB3CGSEQ | https://disk.yandex.ru/i/cXwy4iGUUYMoWg | https://disk.yandex.ru/i/fZ-ZdZCq9B8DoA | https://disk.yandex.ru/i/eWSvnRHpzRnTTA | https://disk.yandex.ru/i/OqiI0AMbFbBt4A</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/i/0IeNc4N-6FhLiA | https://disk.yandex.ru/i/ufEd8OL9Lhau6A | https://disk.yandex.ru/i/aQ9SmDkPcT8IHw | https://disk.yandex.ru/i/obuceomz-cZBZg | https://disk.yandex.ru/i/ZeaY5UpAI8ZuYQ | https://disk.yandex.ru/i/prP7ZFiqcHGgCA | https://disk.yandex.ru/i/3iAusNGKQfLZOw</t>
   </si>
   <si>
     <t>https://youtu.be/ycYx204IpKc?si=5z8-v1fOQP2SdfR_</t>
@@ -1171,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1307,49 +1332,49 @@
         <v>1499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:39">
@@ -1363,46 +1388,46 @@
         <v>2100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K3">
         <v>20379</v>
       </c>
       <c r="S3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH3" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI3" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJ3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:39">
@@ -1416,49 +1441,49 @@
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K4">
         <v>20379</v>
       </c>
       <c r="S4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA4" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:39">
@@ -1472,49 +1497,49 @@
         <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K5">
         <v>20379</v>
       </c>
       <c r="S5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AF5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="AH5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ5" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1528,49 +1553,49 @@
         <v>2099</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K6">
         <v>20385</v>
       </c>
       <c r="S6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA6" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="AH6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:39">
@@ -1584,49 +1609,49 @@
         <v>4999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K7">
         <v>20433</v>
       </c>
       <c r="S7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AM7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:39">
@@ -1640,46 +1665,46 @@
         <v>5000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K8">
         <v>20433</v>
       </c>
       <c r="S8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AJ8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:39">
@@ -1693,49 +1718,49 @@
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K9">
         <v>20446</v>
       </c>
       <c r="S9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC9" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD9" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJ9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AL9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:39">
@@ -1749,49 +1774,49 @@
         <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K10">
         <v>20446</v>
       </c>
       <c r="S10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC10" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AH10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJ10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AL10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:39">
@@ -1805,49 +1830,49 @@
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K11">
         <v>20455</v>
       </c>
       <c r="S11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA11" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AF11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="AJ11" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:39">
@@ -1861,49 +1886,49 @@
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K12">
         <v>20463</v>
       </c>
       <c r="S12" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA12" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB12" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="AC12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD12" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AF12" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="AH12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJ12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="AL12" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="AM12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:39">
@@ -1917,46 +1942,46 @@
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K13">
         <v>20462</v>
       </c>
       <c r="S13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB13" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD13" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE13" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH13" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI13" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AJ13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL13" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM13" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:39">
@@ -1970,46 +1995,46 @@
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K14">
         <v>20467</v>
       </c>
       <c r="S14" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA14" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB14" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD14" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AH14" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI14" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AJ14" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL14" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM14" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:39">
@@ -2023,46 +2048,46 @@
         <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15">
         <v>20459</v>
       </c>
       <c r="S15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA15" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC15" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD15" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE15" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH15" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI15" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AJ15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL15" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM15" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:39">
@@ -2076,46 +2101,46 @@
         <v>9999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K16">
         <v>20472</v>
       </c>
       <c r="S16" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA16" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB16" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH16" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI16" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AJ16" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL16" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM16" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="17" spans="4:39">
@@ -2129,46 +2154,46 @@
         <v>9999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K17">
         <v>20373</v>
       </c>
       <c r="S17" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB17" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC17" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE17" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH17" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI17" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AJ17" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL17" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM17" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="18" spans="4:39">
@@ -2182,46 +2207,46 @@
         <v>4999</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K18">
         <v>20469</v>
       </c>
       <c r="S18" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA18" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB18" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC18" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD18" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE18" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="AH18" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI18" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AJ18" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL18" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM18" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="4:39">
@@ -2235,46 +2260,46 @@
         <v>3499</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K19">
         <v>20387</v>
       </c>
       <c r="S19" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC19" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD19" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH19" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI19" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AJ19" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL19" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM19" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="20" spans="4:39">
@@ -2288,46 +2313,46 @@
         <v>7999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K20">
         <v>20475</v>
       </c>
       <c r="S20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB20" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC20" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD20" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE20" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH20" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI20" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AJ20" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AL20" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM20" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="4:39">
@@ -2341,46 +2366,46 @@
         <v>14999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K21">
         <v>20477</v>
       </c>
       <c r="S21" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AA21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AB21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="AC21" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AE21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="AH21" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="AI21" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AJ21" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="AL21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="AM21" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="4:39">
@@ -2394,46 +2419,99 @@
         <v>1999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K22">
         <v>20499</v>
       </c>
       <c r="S22" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>105</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>107</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="23" spans="4:39">
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23">
+        <v>6999</v>
+      </c>
+      <c r="G23" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="AA22" t="s">
+      <c r="I23" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="K23">
+        <v>20464</v>
+      </c>
+      <c r="S23" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA23" t="s">
         <v>102</v>
       </c>
-      <c r="AC22" t="s">
-        <v>103</v>
-      </c>
-      <c r="AD22" t="s">
+      <c r="AB23" t="s">
         <v>104</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AC23" t="s">
         <v>105</v>
       </c>
-      <c r="AH22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ22" t="s">
+      <c r="AD23" t="s">
+        <v>106</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>114</v>
+      </c>
+      <c r="AI23" t="s">
         <v>117</v>
       </c>
-      <c r="AL22" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM22" t="s">
+      <c r="AJ23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL23" t="s">
         <v>123</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -2480,6 +2558,8 @@
     <hyperlink ref="I21" r:id="rId40"/>
     <hyperlink ref="G22" r:id="rId41"/>
     <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G23" r:id="rId43"/>
+    <hyperlink ref="I23" r:id="rId44"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797EA43-F47A-4E21-9F06-B8105E005D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="127">
   <si>
     <t>Address</t>
   </si>
@@ -827,12 +833,15 @@
   <si>
     <t>Нет</t>
   </si>
+  <si>
+    <t>Стул кресло</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -903,18 +912,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -952,9 +969,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -986,9 +1003,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1020,9 +1055,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1195,14 +1248,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1321,7 +1376,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>39</v>
       </c>
@@ -1377,7 +1432,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>40</v>
       </c>
@@ -1430,7 +1485,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>41</v>
       </c>
@@ -1486,7 +1541,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -1542,7 +1597,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -1598,7 +1653,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>43</v>
       </c>
@@ -1654,7 +1709,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1707,7 +1762,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>45</v>
       </c>
@@ -1763,7 +1818,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>40</v>
       </c>
@@ -1819,7 +1874,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>46</v>
       </c>
@@ -1875,7 +1930,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>47</v>
       </c>
@@ -1931,7 +1986,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>48</v>
       </c>
@@ -1984,7 +2039,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>49</v>
       </c>
@@ -2037,7 +2092,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>50</v>
       </c>
@@ -2090,7 +2145,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>51</v>
       </c>
@@ -2143,7 +2198,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="4:39">
+    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>52</v>
       </c>
@@ -2196,7 +2251,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="4:39">
+    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>40</v>
       </c>
@@ -2249,7 +2304,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="19" spans="4:39">
+    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>53</v>
       </c>
@@ -2302,7 +2357,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="4:39">
+    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>54</v>
       </c>
@@ -2355,7 +2410,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="21" spans="4:39">
+    <row r="21" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>55</v>
       </c>
@@ -2408,9 +2463,9 @@
         <v>125</v>
       </c>
     </row>
-    <row r="22" spans="4:39">
+    <row r="22" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="E22" t="s">
         <v>76</v>
@@ -2461,7 +2516,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="23" spans="4:39">
+    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>51</v>
       </c>
@@ -2516,50 +2571,50 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
-    <hyperlink ref="G23" r:id="rId43"/>
-    <hyperlink ref="I23" r:id="rId44"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F797EA43-F47A-4E21-9F06-B8105E005D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="124">
   <si>
     <t>Address</t>
   </si>
@@ -178,9 +172,6 @@
     <t>Стул-кресло</t>
   </si>
   <si>
-    <t>Кресло офисное</t>
-  </si>
-  <si>
     <t>Конференц кресло bene</t>
   </si>
   <si>
@@ -188,6 +179,9 @@
   </si>
   <si>
     <t>Стул кресло Chairman</t>
+  </si>
+  <si>
+    <t>Стул кресло</t>
   </si>
   <si>
     <t>Стулья для посетителей
@@ -509,29 +503,6 @@
 Цвет черный
 Цена 9 999
 Количество 2 шт
-    В нашем магазине вы найдете стулья для любой цели использования. 
-    Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
-    так же есть стулья для кухни разных цветов, для любого интерьера. 
-    Самая низкая цена стула 799
-Для того, чтобы получить больше предложений и подобрать мебель под ваши личные нужды напишите или позвоните нам----&gt;
-            ➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. Ориентир ворота с вывеской Офис Комфорт
-            ➕ При поиске нас в навигаторе наберите – 
-            Офис комфорт Одинцово 
-            🕒 График: Часы работы склада с 10 до 19, Выходной Вс. 
-            -------------------------------------------------------------------
-            Oфис Комфорт — это большой склад офисной мебели, после закрытия больших организаций, в городе Одинцово М.О.
-            На нашем складе вы найдете мебель на любой вкус. У много как дешевой бу мебели, так и мебель известных производителей представительного класса. 
-            Работаем уже 6 лет, развиваясь и улучшая сервисный центр
-            Можем укомплектовать 100-200 рабочих мест.</t>
-  </si>
-  <si>
-    <t>Кресло офисное
-Артикул 20373
-Стул кожанный переговорный для офиса.
-Стул-кресло на деревянной основе.
-Цвет черный
-Цена 9 999
-Количество 1 шт
     В нашем магазине вы найдете стулья для любой цели использования. 
     Удобные стулья-кресла для конференций или обычные изо стулья в офис, 
     так же есть стулья для кухни разных цветов, для любого интерьера. 
@@ -735,9 +706,6 @@
     <t>https://disk.yandex.ru/i/40RK-Oz-X1nfQg | https://disk.yandex.ru/i/IJ1g6qO00WhPlg | https://disk.yandex.ru/i/EQTPDmOCnI2u9Q | https://disk.yandex.ru/i/FlusLag6-ScP6g | https://disk.yandex.ru/i/M-86YNFCgF6yLg | https://disk.yandex.ru/i/ZHg9fTE1MGPTiw | https://disk.yandex.ru/i/0IJPnOpVFQQYwA | https://disk.yandex.ru/i/pidQVjtWigmebQ</t>
   </si>
   <si>
-    <t>https://disk.yandex.ru/i/l61b02rng6FWlQ | https://disk.yandex.ru/i/VCLYibir6nsP8Q | https://disk.yandex.ru/i/Q8kn-hqozEhQSg | https://disk.yandex.ru/i/MgcMsCM2ytV_GA | https://disk.yandex.ru/i/M8uzIk9zoFpfxw | https://disk.yandex.ru/i/f5p7OIzC4p_nAg | https://disk.yandex.ru/i/vsnhSj430bkGIQ | https://disk.yandex.ru/i/60dPA1Vf5ApyYA</t>
-  </si>
-  <si>
     <t>https://disk.yandex.ru/i/BEO8KSXz_KJw3w | https://disk.yandex.ru/i/Gv0cxmcoZ75Nqg | https://disk.yandex.ru/i/KpdCAX_S0z4DzQ | https://disk.yandex.ru/i/YRTlPIZudgfifw | https://disk.yandex.ru/i/bxZm8IS-aQ_gyA | https://disk.yandex.ru/i/XFPIbSrQdSj1gQ | https://disk.yandex.ru/i/xiSRlKVUW8jvUA</t>
   </si>
   <si>
@@ -832,16 +800,13 @@
   </si>
   <si>
     <t>Нет</t>
-  </si>
-  <si>
-    <t>Стул кресло</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -912,26 +877,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -969,9 +926,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1003,27 +960,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1055,27 +994,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1248,16 +1169,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AM23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1295,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39">
       <c r="D2" t="s">
         <v>39</v>
       </c>
@@ -1387,52 +1306,52 @@
         <v>1499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB2" t="s">
         <v>101</v>
       </c>
-      <c r="AA2" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>103</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE2" t="s">
         <v>105</v>
       </c>
-      <c r="AD2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>107</v>
-      </c>
       <c r="AF2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39">
       <c r="D3" t="s">
         <v>40</v>
       </c>
@@ -1443,49 +1362,49 @@
         <v>2100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K3">
         <v>20379</v>
       </c>
       <c r="S3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA3" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB3" t="s">
         <v>102</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD3" t="s">
         <v>104</v>
       </c>
-      <c r="AC3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>106</v>
       </c>
-      <c r="AE3" t="s">
-        <v>108</v>
-      </c>
       <c r="AH3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI3" t="s">
         <v>114</v>
       </c>
-      <c r="AI3" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39">
       <c r="D4" t="s">
         <v>41</v>
       </c>
@@ -1496,52 +1415,52 @@
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K4">
         <v>20379</v>
       </c>
       <c r="S4" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB4" t="s">
         <v>101</v>
       </c>
-      <c r="AA4" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>103</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE4" t="s">
         <v>105</v>
       </c>
-      <c r="AD4" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>107</v>
-      </c>
       <c r="AF4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39">
       <c r="D5" t="s">
         <v>42</v>
       </c>
@@ -1552,52 +1471,52 @@
         <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K5">
         <v>20379</v>
       </c>
       <c r="S5" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB5" t="s">
         <v>101</v>
       </c>
-      <c r="AA5" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>103</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE5" t="s">
         <v>105</v>
       </c>
-      <c r="AD5" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>107</v>
-      </c>
       <c r="AF5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="AH5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39">
       <c r="D6" t="s">
         <v>40</v>
       </c>
@@ -1608,52 +1527,52 @@
         <v>2099</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K6">
         <v>20385</v>
       </c>
       <c r="S6" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB6" t="s">
         <v>101</v>
       </c>
-      <c r="AA6" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>103</v>
       </c>
-      <c r="AC6" t="s">
-        <v>105</v>
-      </c>
       <c r="AD6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AF6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="AH6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39">
       <c r="D7" t="s">
         <v>43</v>
       </c>
@@ -1664,52 +1583,52 @@
         <v>4999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K7">
         <v>20433</v>
       </c>
       <c r="S7" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB7" t="s">
         <v>101</v>
       </c>
-      <c r="AA7" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>103</v>
       </c>
-      <c r="AC7" t="s">
-        <v>105</v>
-      </c>
       <c r="AD7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AM7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39">
       <c r="D8" t="s">
         <v>44</v>
       </c>
@@ -1720,49 +1639,49 @@
         <v>5000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K8">
         <v>20433</v>
       </c>
       <c r="S8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA8" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB8" t="s">
         <v>102</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD8" t="s">
         <v>104</v>
       </c>
-      <c r="AC8" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD8" t="s">
-        <v>106</v>
-      </c>
       <c r="AE8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI8" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ8" t="s">
         <v>117</v>
       </c>
-      <c r="AJ8" t="s">
-        <v>119</v>
-      </c>
       <c r="AL8" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM8" t="s">
         <v>123</v>
       </c>
-      <c r="AM8" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39">
       <c r="D9" t="s">
         <v>45</v>
       </c>
@@ -1773,52 +1692,52 @@
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K9">
         <v>20446</v>
       </c>
       <c r="S9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB9" t="s">
         <v>101</v>
       </c>
-      <c r="AA9" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>103</v>
       </c>
-      <c r="AC9" t="s">
-        <v>105</v>
-      </c>
       <c r="AD9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH9" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI9" t="s">
         <v>114</v>
       </c>
-      <c r="AI9" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL9" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM9" t="s">
         <v>123</v>
       </c>
-      <c r="AM9" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39">
       <c r="D10" t="s">
         <v>40</v>
       </c>
@@ -1829,52 +1748,52 @@
         <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K10">
         <v>20446</v>
       </c>
       <c r="S10" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB10" t="s">
         <v>101</v>
       </c>
-      <c r="AA10" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>103</v>
       </c>
-      <c r="AC10" t="s">
-        <v>105</v>
-      </c>
       <c r="AD10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AH10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI10" t="s">
         <v>114</v>
       </c>
-      <c r="AI10" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM10" t="s">
         <v>123</v>
       </c>
-      <c r="AM10" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39">
       <c r="D11" t="s">
         <v>46</v>
       </c>
@@ -1885,52 +1804,52 @@
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K11">
         <v>20455</v>
       </c>
       <c r="S11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB11" t="s">
         <v>101</v>
       </c>
-      <c r="AA11" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>103</v>
       </c>
-      <c r="AC11" t="s">
-        <v>105</v>
-      </c>
       <c r="AD11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AE11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AF11" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI11" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="AJ11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL11" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM11" t="s">
         <v>123</v>
       </c>
-      <c r="AM11" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39">
       <c r="D12" t="s">
         <v>47</v>
       </c>
@@ -1941,52 +1860,52 @@
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K12">
         <v>20463</v>
       </c>
       <c r="S12" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>103</v>
       </c>
-      <c r="AC12" t="s">
-        <v>105</v>
-      </c>
       <c r="AD12" t="s">
+        <v>104</v>
+      </c>
+      <c r="AE12" t="s">
         <v>106</v>
       </c>
-      <c r="AE12" t="s">
-        <v>108</v>
-      </c>
       <c r="AF12" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="AH12" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI12" t="s">
         <v>114</v>
       </c>
-      <c r="AI12" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="AL12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="AM12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39">
       <c r="D13" t="s">
         <v>48</v>
       </c>
@@ -1997,49 +1916,49 @@
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K13">
         <v>20462</v>
       </c>
       <c r="S13" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA13" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB13" t="s">
         <v>102</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD13" t="s">
         <v>104</v>
       </c>
-      <c r="AC13" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD13" t="s">
-        <v>106</v>
-      </c>
       <c r="AE13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>117</v>
       </c>
-      <c r="AJ13" t="s">
-        <v>119</v>
-      </c>
       <c r="AL13" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM13" t="s">
         <v>123</v>
       </c>
-      <c r="AM13" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39">
       <c r="D14" t="s">
         <v>49</v>
       </c>
@@ -2050,49 +1969,49 @@
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K14">
         <v>20467</v>
       </c>
       <c r="S14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA14" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD14" t="s">
         <v>104</v>
       </c>
-      <c r="AC14" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD14" t="s">
-        <v>106</v>
-      </c>
       <c r="AE14" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH14" t="s">
         <v>112</v>
       </c>
-      <c r="AH14" t="s">
+      <c r="AI14" t="s">
         <v>114</v>
       </c>
-      <c r="AI14" t="s">
-        <v>116</v>
-      </c>
       <c r="AJ14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="AL14" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM14" t="s">
         <v>123</v>
       </c>
-      <c r="AM14" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39">
       <c r="D15" t="s">
         <v>50</v>
       </c>
@@ -2103,49 +2022,49 @@
         <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K15">
         <v>20459</v>
       </c>
       <c r="S15" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA15" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB15" t="s">
         <v>102</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD15" t="s">
         <v>104</v>
       </c>
-      <c r="AC15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD15" t="s">
-        <v>106</v>
-      </c>
       <c r="AE15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI15" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ15" t="s">
         <v>117</v>
       </c>
-      <c r="AJ15" t="s">
-        <v>119</v>
-      </c>
       <c r="AL15" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM15" t="s">
         <v>123</v>
       </c>
-      <c r="AM15" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39">
       <c r="D16" t="s">
         <v>51</v>
       </c>
@@ -2156,155 +2075,155 @@
         <v>9999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K16">
         <v>20472</v>
       </c>
       <c r="S16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AA16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB16" t="s">
         <v>102</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD16" t="s">
         <v>104</v>
       </c>
-      <c r="AC16" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD16" t="s">
-        <v>106</v>
-      </c>
       <c r="AE16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AJ16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL16" t="s">
         <v>121</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AM16" t="s">
         <v>123</v>
       </c>
-      <c r="AM16" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:39">
       <c r="D17" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E17" t="s">
         <v>71</v>
       </c>
       <c r="F17">
-        <v>9999</v>
+        <v>4999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17">
+        <v>20469</v>
+      </c>
+      <c r="S17" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA17" t="s">
         <v>100</v>
       </c>
-      <c r="K17">
-        <v>20373</v>
-      </c>
-      <c r="S17" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>102</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD17" t="s">
         <v>104</v>
       </c>
-      <c r="AC17" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD17" t="s">
-        <v>106</v>
-      </c>
       <c r="AE17" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="AH17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AJ17" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL17" t="s">
         <v>121</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AM17" t="s">
         <v>123</v>
       </c>
-      <c r="AM17" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:39">
       <c r="D18" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>72</v>
       </c>
       <c r="F18">
-        <v>4999</v>
+        <v>3499</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18">
+        <v>20387</v>
+      </c>
+      <c r="S18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA18" t="s">
         <v>100</v>
       </c>
-      <c r="K18">
-        <v>20469</v>
-      </c>
-      <c r="S18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA18" t="s">
+      <c r="AB18" t="s">
         <v>102</v>
       </c>
-      <c r="AB18" t="s">
+      <c r="AC18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD18" t="s">
-        <v>106</v>
-      </c>
       <c r="AE18" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="AH18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI18" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ18" t="s">
         <v>117</v>
       </c>
-      <c r="AJ18" t="s">
+      <c r="AL18" t="s">
         <v>121</v>
       </c>
-      <c r="AL18" t="s">
+      <c r="AM18" t="s">
         <v>123</v>
       </c>
-      <c r="AM18" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:39">
       <c r="D19" t="s">
         <v>53</v>
       </c>
@@ -2312,52 +2231,52 @@
         <v>73</v>
       </c>
       <c r="F19">
-        <v>3499</v>
+        <v>7999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="I19" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K19">
+        <v>20475</v>
+      </c>
+      <c r="S19" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA19" t="s">
         <v>100</v>
       </c>
-      <c r="K19">
-        <v>20387</v>
-      </c>
-      <c r="S19" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA19" t="s">
+      <c r="AB19" t="s">
         <v>102</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AC19" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD19" t="s">
         <v>104</v>
       </c>
-      <c r="AC19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD19" t="s">
-        <v>106</v>
-      </c>
       <c r="AE19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ19" t="s">
         <v>117</v>
       </c>
-      <c r="AJ19" t="s">
-        <v>119</v>
-      </c>
       <c r="AL19" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM19" t="s">
         <v>123</v>
       </c>
-      <c r="AM19" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:39">
       <c r="D20" t="s">
         <v>54</v>
       </c>
@@ -2365,52 +2284,52 @@
         <v>74</v>
       </c>
       <c r="F20">
-        <v>7999</v>
+        <v>14999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K20">
+        <v>20477</v>
+      </c>
+      <c r="S20" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA20" t="s">
         <v>100</v>
       </c>
-      <c r="K20">
-        <v>20475</v>
-      </c>
-      <c r="S20" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="AB20" t="s">
         <v>102</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AC20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD20" t="s">
         <v>104</v>
       </c>
-      <c r="AC20" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD20" t="s">
-        <v>106</v>
-      </c>
       <c r="AE20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="AH20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AJ20" t="s">
         <v>119</v>
       </c>
       <c r="AL20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AM20" t="s">
         <v>123</v>
       </c>
-      <c r="AM20" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="21" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:39">
       <c r="D21" t="s">
         <v>55</v>
       </c>
@@ -2418,203 +2337,148 @@
         <v>75</v>
       </c>
       <c r="F21">
-        <v>14999</v>
+        <v>1999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I21" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K21">
+        <v>20499</v>
+      </c>
+      <c r="S21" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA21" t="s">
         <v>100</v>
       </c>
-      <c r="K21">
-        <v>20477</v>
-      </c>
-      <c r="S21" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA21" t="s">
+      <c r="AB21" t="s">
         <v>102</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AC21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD21" t="s">
         <v>104</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AE21" t="s">
         <v>105</v>
       </c>
-      <c r="AD21" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE21" t="s">
-        <v>110</v>
-      </c>
       <c r="AH21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI21" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="AJ21" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="AL21" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM21" t="s">
         <v>123</v>
       </c>
-      <c r="AM21" t="s">
-        <v>125</v>
-      </c>
     </row>
-    <row r="22" spans="4:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:39">
       <c r="D22" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="E22" t="s">
         <v>76</v>
       </c>
       <c r="F22">
-        <v>1999</v>
+        <v>6999</v>
       </c>
       <c r="G22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="K22">
+        <v>20464</v>
+      </c>
+      <c r="S22" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA22" t="s">
         <v>100</v>
       </c>
-      <c r="K22">
-        <v>20499</v>
-      </c>
-      <c r="S22" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA22" t="s">
+      <c r="AB22" t="s">
         <v>102</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AC22" t="s">
+        <v>103</v>
+      </c>
+      <c r="AD22" t="s">
         <v>104</v>
       </c>
-      <c r="AC22" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD22" t="s">
-        <v>106</v>
-      </c>
       <c r="AE22" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="AH22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="AI22" t="s">
+        <v>115</v>
+      </c>
+      <c r="AJ22" t="s">
         <v>117</v>
       </c>
-      <c r="AJ22" t="s">
-        <v>119</v>
-      </c>
       <c r="AL22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AM22" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
-        <v>51</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23">
-        <v>6999</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23">
-        <v>20464</v>
-      </c>
-      <c r="S23" t="s">
-        <v>101</v>
-      </c>
-      <c r="AA23" t="s">
-        <v>102</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>105</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>106</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH23" t="s">
-        <v>114</v>
-      </c>
-      <c r="AI23" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ23" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL23" t="s">
         <v>123</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="G23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="I23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="I2" r:id="rId2"/>
+    <hyperlink ref="G3" r:id="rId3"/>
+    <hyperlink ref="I3" r:id="rId4"/>
+    <hyperlink ref="G4" r:id="rId5"/>
+    <hyperlink ref="I4" r:id="rId6"/>
+    <hyperlink ref="G5" r:id="rId7"/>
+    <hyperlink ref="I5" r:id="rId8"/>
+    <hyperlink ref="G6" r:id="rId9"/>
+    <hyperlink ref="I6" r:id="rId10"/>
+    <hyperlink ref="G7" r:id="rId11"/>
+    <hyperlink ref="I7" r:id="rId12"/>
+    <hyperlink ref="G8" r:id="rId13"/>
+    <hyperlink ref="I8" r:id="rId14"/>
+    <hyperlink ref="G9" r:id="rId15"/>
+    <hyperlink ref="I9" r:id="rId16"/>
+    <hyperlink ref="G10" r:id="rId17"/>
+    <hyperlink ref="I10" r:id="rId18"/>
+    <hyperlink ref="G11" r:id="rId19"/>
+    <hyperlink ref="I11" r:id="rId20"/>
+    <hyperlink ref="G12" r:id="rId21"/>
+    <hyperlink ref="I12" r:id="rId22"/>
+    <hyperlink ref="G13" r:id="rId23"/>
+    <hyperlink ref="I13" r:id="rId24"/>
+    <hyperlink ref="G14" r:id="rId25"/>
+    <hyperlink ref="I14" r:id="rId26"/>
+    <hyperlink ref="G15" r:id="rId27"/>
+    <hyperlink ref="I15" r:id="rId28"/>
+    <hyperlink ref="G16" r:id="rId29"/>
+    <hyperlink ref="I16" r:id="rId30"/>
+    <hyperlink ref="G17" r:id="rId31"/>
+    <hyperlink ref="I17" r:id="rId32"/>
+    <hyperlink ref="G18" r:id="rId33"/>
+    <hyperlink ref="I18" r:id="rId34"/>
+    <hyperlink ref="G19" r:id="rId35"/>
+    <hyperlink ref="I19" r:id="rId36"/>
+    <hyperlink ref="G20" r:id="rId37"/>
+    <hyperlink ref="I20" r:id="rId38"/>
+    <hyperlink ref="G21" r:id="rId39"/>
+    <hyperlink ref="I21" r:id="rId40"/>
+    <hyperlink ref="G22" r:id="rId41"/>
+    <hyperlink ref="I22" r:id="rId42"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/make_xl/data_xl/chairs.xlsx
+++ b/make_xl/data_xl/chairs.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\PycharmProjects\Tabels\make_xl\data_xl\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C03E7B-AED7-4758-877A-AC83E8A8E536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-28920" yWindow="-1275" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="133">
   <si>
     <t>Address</t>
   </si>
@@ -182,6 +188,9 @@
   </si>
   <si>
     <t>Стул кресло</t>
+  </si>
+  <si>
+    <t>Офисный стул Изо</t>
   </si>
   <si>
     <t>Стулья для посетителей
@@ -661,6 +670,86 @@
             Можем укомплектовать 100-200 рабочих мест.</t>
   </si>
   <si>
+    <t>Офисный стул Изо
+Артикул 20378Ч
+Офисный стул для посетителей в тканевой обивке
+Цвет: Чёрный
+Цена: 1699
+Количество: 14
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
+    <t>Стул офисный Изо
+Артикул 20379Ч
+Офисный стул для посетителей в кожзам обивке
+Цвет: Чёрный
+Цена: 2299
+Количество: 21
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
+    <t>Офисный стул Изо
+Артикул 20382Ч
+Офисный стул для посетителей в кожзам обивке
+Цвет: Чёрный
+Цена: 1799
+Количество: 20
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
+    <t>Офисный стул Изо
+Артикул 20385Ч
+Офисный стул для посетителей в тканевой обивке
+Цвет: Чёрный
+Цена: 1599
+Количество: 45
+ПИШИТЕ МЕНЕДЖЕРАМ - ПОДБЕРЕМ ВАРИАНТЫ ПОД ВАШ ЗАПРОС .
+------------------------------------------------------------------
+🔥 Система больших скидок при опте и в праздничные дни
+✔ Самовывоз
+✔Оплата наличными или безнал. Перевод на карту. Система быстрых платежей. 
+➕ Адрес: Склад в г. Одинцово улица Старое Яскино 75ст2. 
+Ориентир ворота с вывеской Офис Комфорт
+➕ При поиске нас в навигаторе наберите – Офис комфорт Одинцово 
+🕒 График: Часы работы склада с 10 до 19, Выходной Вс.
+------------------------------------------------------------------
+Работаем уже 6 лет
+Можем укомплектовать 100-200 рабочих мест. .</t>
+  </si>
+  <si>
     <t>https://disk.yandex.ru/i/-HAvfd6uMXF5CA | https://disk.yandex.ru/i/zCmfR6G_aN3Tqg | https://disk.yandex.ru/i/37ojvf15BQ3XAg | https://disk.yandex.ru/i/yF4bBr-XnkjUEA | https://disk.yandex.ru/i/wN3B1Lt9PUW1jA | https://disk.yandex.ru/i/n-72gV8yXS_HqQ | https://disk.yandex.ru/i/5Bikb6TFU_X-KQ</t>
   </si>
   <si>
@@ -800,13 +889,25 @@
   </si>
   <si>
     <t>Нет</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/TaU0llEPenYLiA | https://disk.yandex.ru/d/VmsZ84VdpFVr8g | https://disk.yandex.ru/d/YY-OEkXAXaf_sQ | https://disk.yandex.ru/d/rWk6aKmxk5-ydw | https://disk.yandex.ru/d/u5jcGASGtANbSg</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/TaEckwD3VWcm6w | https://disk.yandex.ru/d/43JrN1NduhIXMQ | https://disk.yandex.ru/d/EvmOfKoiGZEBCQ | https://disk.yandex.ru/d/iYgRX83TUYrRqg | https://disk.yandex.ru/d/JO3hOvZtu2Pjag</t>
+  </si>
+  <si>
+    <t>https://disk.yandex.ru/d/oZes430oRCzgZw | https://disk.yandex.ru/d/whXsKjD6wuDH2A | https://disk.yandex.ru/i/u8DtNyxCeGnESw | https://disk.yandex.ru/d/BmoXg7JC8fRSFg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://disk.yandex.ru/d/zW1Q5wbx9VAF3Q | https://disk.yandex.ru/d/2qKsERBigZpudA | https://disk.yandex.ru/d/Sn49iHgQ5NJHwg | https://disk.yandex.ru/d/Jbq8dIbIwDin7A | https://disk.yandex.ru/d/WohwFw9Yy0F3Vg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -877,18 +978,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -926,9 +1035,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -960,9 +1069,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -994,9 +1121,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1169,14 +1314,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AM26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:39">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1295,1190 +1442,1406 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:39">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
         <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F2">
         <v>1499</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AC2" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AF2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AH2" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI2" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AJ2" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL2" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:39">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>40</v>
       </c>
       <c r="E3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3">
         <v>2100</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K3">
         <v>20379</v>
       </c>
       <c r="S3" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA3" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB3" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD3" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE3" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AH3" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI3" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AJ3" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL3" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM3" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="4" spans="1:39">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
         <v>41</v>
       </c>
       <c r="E4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>2499</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K4">
         <v>20379</v>
       </c>
       <c r="S4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AC4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD4" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AF4" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AH4" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI4" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AJ4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM4" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="5" spans="1:39">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
         <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5">
         <v>2499</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K5">
         <v>20379</v>
       </c>
       <c r="S5" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA5" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB5" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AC5" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD5" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AF5" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AH5" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI5" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AJ5" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL5" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM5" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:39">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
         <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F6">
         <v>2099</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K6">
         <v>20385</v>
       </c>
       <c r="S6" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA6" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB6" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AC6" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD6" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AF6" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AH6" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI6" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AJ6" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL6" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM6" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="7" spans="1:39">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D7" t="s">
         <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F7">
         <v>4999</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K7">
         <v>20433</v>
       </c>
       <c r="S7" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA7" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB7" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AC7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD7" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AF7" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AJ7" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL7" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM7" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="8" spans="1:39">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D8" t="s">
         <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F8">
         <v>5000</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K8">
         <v>20433</v>
       </c>
       <c r="S8" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC8" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD8" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE8" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH8" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI8" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AJ8" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL8" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM8" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="9" spans="1:39">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D9" t="s">
         <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F9">
         <v>6999</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K9">
         <v>20446</v>
       </c>
       <c r="S9" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AC9" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD9" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AF9" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH9" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI9" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AJ9" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AL9" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM9" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="10" spans="1:39">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F10">
         <v>4999</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K10">
         <v>20446</v>
       </c>
       <c r="S10" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA10" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB10" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AC10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AF10" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="AH10" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI10" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AJ10" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AL10" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM10" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:39">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
         <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11">
         <v>3999</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K11">
         <v>20455</v>
       </c>
       <c r="S11" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA11" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB11" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AC11" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD11" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AF11" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="AJ11" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL11" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM11" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:39">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F12">
         <v>4999</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K12">
         <v>20463</v>
       </c>
       <c r="S12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA12" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB12" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="AC12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD12" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="AH12" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI12" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AJ12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="AL12" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="AM12" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:39">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D13" t="s">
         <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F13">
         <v>4999</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K13">
         <v>20462</v>
       </c>
       <c r="S13" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA13" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB13" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC13" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE13" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH13" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI13" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AJ13" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL13" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM13" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:39">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
         <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F14">
         <v>4999</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K14">
         <v>20467</v>
       </c>
       <c r="S14" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA14" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB14" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC14" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD14" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE14" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="AH14" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI14" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AJ14" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL14" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM14" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="15" spans="1:39">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
         <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F15">
         <v>4999</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K15">
         <v>20459</v>
       </c>
       <c r="S15" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA15" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB15" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD15" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE15" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH15" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI15" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AJ15" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL15" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM15" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="16" spans="1:39">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
         <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F16">
         <v>9999</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K16">
         <v>20472</v>
       </c>
       <c r="S16" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA16" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB16" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC16" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD16" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE16" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH16" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI16" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AJ16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AL16" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM16" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="17" spans="4:39">
+    <row r="17" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
         <v>40</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F17">
         <v>4999</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K17">
         <v>20469</v>
       </c>
       <c r="S17" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA17" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB17" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC17" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD17" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE17" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AH17" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI17" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AJ17" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AL17" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="18" spans="4:39">
+    <row r="18" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F18">
         <v>3499</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K18">
         <v>20387</v>
       </c>
       <c r="S18" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA18" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB18" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC18" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD18" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE18" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH18" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI18" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AJ18" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL18" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM18" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="19" spans="4:39">
+    <row r="19" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
         <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F19">
         <v>7999</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K19">
         <v>20475</v>
       </c>
       <c r="S19" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA19" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB19" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC19" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD19" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE19" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH19" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI19" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AJ19" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL19" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM19" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="20" spans="4:39">
+    <row r="20" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
         <v>54</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20">
         <v>14999</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K20">
         <v>20477</v>
       </c>
       <c r="S20" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA20" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB20" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC20" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD20" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE20" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="AH20" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI20" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="AJ20" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="AL20" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="AM20" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="21" spans="4:39">
+    <row r="21" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F21">
         <v>1999</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K21">
         <v>20499</v>
       </c>
       <c r="S21" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA21" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB21" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC21" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="AD21" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="AE21" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AH21" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="AI21" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AJ21" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="AL21" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="AM21" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
-    <row r="22" spans="4:39">
+    <row r="22" spans="4:39" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>51</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F22">
         <v>6999</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="K22">
         <v>20464</v>
       </c>
       <c r="S22" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="AA22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="AB22" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="AC22" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD22" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>126</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23">
+        <v>1699</v>
+      </c>
+      <c r="G23" t="s">
+        <v>129</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="K23">
+        <v>20378</v>
+      </c>
+      <c r="S23" t="s">
         <v>104</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AA23" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC23" t="s">
         <v>108</v>
       </c>
-      <c r="AH22" t="s">
-        <v>112</v>
-      </c>
-      <c r="AI22" t="s">
-        <v>115</v>
-      </c>
-      <c r="AJ22" t="s">
+      <c r="AD23" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH23" t="s">
         <v>117</v>
       </c>
-      <c r="AL22" t="s">
-        <v>121</v>
-      </c>
-      <c r="AM22" t="s">
-        <v>123</v>
+      <c r="AI23" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ23" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="24" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24">
+        <v>2299</v>
+      </c>
+      <c r="G24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K24">
+        <v>20379</v>
+      </c>
+      <c r="S24" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ24" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25">
+        <v>1799</v>
+      </c>
+      <c r="G25" t="s">
+        <v>131</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K25">
+        <v>20382</v>
+      </c>
+      <c r="S25" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD25" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>120</v>
+      </c>
+      <c r="AJ25" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="4:39" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
+      </c>
+      <c r="F26">
+        <v>1599</v>
+      </c>
+      <c r="G26" t="s">
+        <v>132</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="K26">
+        <v>20385</v>
+      </c>
+      <c r="S26" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD26" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>113</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>119</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>122</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>125</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="I2" r:id="rId2"/>
-    <hyperlink ref="G3" r:id="rId3"/>
-    <hyperlink ref="I3" r:id="rId4"/>
-    <hyperlink ref="G4" r:id="rId5"/>
-    <hyperlink ref="I4" r:id="rId6"/>
-    <hyperlink ref="G5" r:id="rId7"/>
-    <hyperlink ref="I5" r:id="rId8"/>
-    <hyperlink ref="G6" r:id="rId9"/>
-    <hyperlink ref="I6" r:id="rId10"/>
-    <hyperlink ref="G7" r:id="rId11"/>
-    <hyperlink ref="I7" r:id="rId12"/>
-    <hyperlink ref="G8" r:id="rId13"/>
-    <hyperlink ref="I8" r:id="rId14"/>
-    <hyperlink ref="G9" r:id="rId15"/>
-    <hyperlink ref="I9" r:id="rId16"/>
-    <hyperlink ref="G10" r:id="rId17"/>
-    <hyperlink ref="I10" r:id="rId18"/>
-    <hyperlink ref="G11" r:id="rId19"/>
-    <hyperlink ref="I11" r:id="rId20"/>
-    <hyperlink ref="G12" r:id="rId21"/>
-    <hyperlink ref="I12" r:id="rId22"/>
-    <hyperlink ref="G13" r:id="rId23"/>
-    <hyperlink ref="I13" r:id="rId24"/>
-    <hyperlink ref="G14" r:id="rId25"/>
-    <hyperlink ref="I14" r:id="rId26"/>
-    <hyperlink ref="G15" r:id="rId27"/>
-    <hyperlink ref="I15" r:id="rId28"/>
-    <hyperlink ref="G16" r:id="rId29"/>
-    <hyperlink ref="I16" r:id="rId30"/>
-    <hyperlink ref="G17" r:id="rId31"/>
-    <hyperlink ref="I17" r:id="rId32"/>
-    <hyperlink ref="G18" r:id="rId33"/>
-    <hyperlink ref="I18" r:id="rId34"/>
-    <hyperlink ref="G19" r:id="rId35"/>
-    <hyperlink ref="I19" r:id="rId36"/>
-    <hyperlink ref="G20" r:id="rId37"/>
-    <hyperlink ref="I20" r:id="rId38"/>
-    <hyperlink ref="G21" r:id="rId39"/>
-    <hyperlink ref="I21" r:id="rId40"/>
-    <hyperlink ref="G22" r:id="rId41"/>
-    <hyperlink ref="I22" r:id="rId42"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="I2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="I3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="I4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="I5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="I7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="G8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="I8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="G9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="I9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="I10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="G11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="I11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="G12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="I12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="G13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="I13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="G14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="I14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="I15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="I16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="I17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="I18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="I19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="G20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="I20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="G21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="I21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="G22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="I22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="I23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="I24" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="I25" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="I26" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
